--- a/db/excel/qlns-database-v1.xlsx
+++ b/db/excel/qlns-database-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD43FD-8247-485A-9652-BFB9B7B3DEBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A88C5-CB77-4489-8890-9CD2CFA22262}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'admin_menu-ver2.0'!$A$1:$Q$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="476">
   <si>
     <t>id</t>
   </si>
@@ -536,9 +536,6 @@
   </si>
   <si>
     <t>Mã chức danh quản lý trực tiếp</t>
-  </si>
-  <si>
-    <t>Chức danh quản lý gián tiếp đầu tiên</t>
   </si>
   <si>
     <t>Tên viết tắt để hiển thị gọn trên form</t>
@@ -3958,6 +3955,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3968,33 +3992,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5394,13 +5391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41:XFD41"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5440,13 +5437,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>123</v>
@@ -5461,13 +5458,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>123</v>
@@ -5480,13 +5477,13 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>123</v>
@@ -5499,13 +5496,13 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>123</v>
@@ -5518,13 +5515,13 @@
     </row>
     <row r="6" spans="1:7" ht="45">
       <c r="A6" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>123</v>
@@ -5537,13 +5534,13 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>123</v>
@@ -5556,19 +5553,19 @@
     </row>
     <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="16">
@@ -5583,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>122</v>
@@ -5680,7 +5677,7 @@
         <v>118</v>
       </c>
       <c r="C14" s="177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" s="177" t="s">
         <v>123</v>
@@ -5715,7 +5712,7 @@
         <v>154</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>127</v>
@@ -5760,7 +5757,7 @@
         <v>122</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="16">
@@ -5775,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>122</v>
@@ -5815,7 +5812,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>122</v>
@@ -5831,18 +5828,18 @@
         <v>161</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>163</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75">
@@ -5850,7 +5847,7 @@
         <v>161</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>164</v>
@@ -5861,7 +5858,7 @@
       <c r="E23" s="61"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75">
@@ -5869,7 +5866,7 @@
         <v>161</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>165</v>
@@ -5880,7 +5877,7 @@
       <c r="E24" s="61"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75">
@@ -5888,10 +5885,10 @@
         <v>161</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>123</v>
@@ -5899,26 +5896,26 @@
       <c r="E25" s="61"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75">
       <c r="A26" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>168</v>
+      <c r="B26" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="61"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75">
@@ -5926,10 +5923,10 @@
         <v>161</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="46" t="s">
         <v>122</v>
@@ -5937,7 +5934,7 @@
       <c r="E27" s="61"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75">
@@ -5945,98 +5942,98 @@
         <v>161</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>122</v>
+        <v>475</v>
+      </c>
+      <c r="D28" s="212" t="s">
+        <v>123</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="47.25">
       <c r="A29" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="D29" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="42"/>
       <c r="G29" s="16">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="47.25">
-      <c r="A30" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="48" t="s">
+      <c r="A30" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="42"/>
+      <c r="E30" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="53"/>
       <c r="G30" s="16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="47.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75">
       <c r="A31" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="56" t="s">
+      <c r="B31" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="16">
         <v>124</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="79" t="s">
-        <v>120</v>
+      <c r="B32" s="86" t="s">
+        <v>11</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="37"/>
       <c r="G32" s="16">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6044,7 +6041,7 @@
         <v>147</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>231</v>
@@ -6055,7 +6052,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="37"/>
       <c r="G33" s="16">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6063,7 +6060,7 @@
         <v>147</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>232</v>
@@ -6074,56 +6071,56 @@
       <c r="E34" s="41"/>
       <c r="F34" s="37"/>
       <c r="G34" s="16">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75">
       <c r="A35" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>182</v>
+      <c r="B35" s="79" t="s">
+        <v>151</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="37"/>
       <c r="G35" s="16">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="31.5">
       <c r="A36" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="79" t="s">
-        <v>151</v>
+      <c r="B36" s="86" t="s">
+        <v>280</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="37"/>
       <c r="G36" s="16">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="31.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="86" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>123</v>
@@ -6131,26 +6128,26 @@
       <c r="E37" s="41"/>
       <c r="F37" s="37"/>
       <c r="G37" s="16">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75">
       <c r="A38" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="37"/>
+      <c r="B38" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="61"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="16">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.75">
@@ -6158,10 +6155,10 @@
         <v>147</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="46" t="s">
         <v>122</v>
@@ -6169,136 +6166,136 @@
       <c r="E39" s="61"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.75">
-      <c r="A40" s="86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="215" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="46" t="s">
+      <c r="B40" s="215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="210" t="s">
+        <v>475</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="63">
+      <c r="A41" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="215" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="215" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="210" t="s">
-        <v>476</v>
-      </c>
-      <c r="D41" s="47" t="s">
+      <c r="E41" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="16">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="63">
+      <c r="A42" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="A43" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="183" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="184"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="63">
+      <c r="A44" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="182" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" s="183" t="s">
         <v>123</v>
-      </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="63">
-      <c r="A42" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="16">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" ht="63">
-      <c r="A43" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>371</v>
-      </c>
-      <c r="D43" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="16">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="31.5">
-      <c r="A44" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B44" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="182" t="s">
-        <v>372</v>
-      </c>
-      <c r="D44" s="183" t="s">
-        <v>122</v>
       </c>
       <c r="E44" s="184"/>
       <c r="F44" s="185"/>
       <c r="G44" s="16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="63">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A45" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B45" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="C45" s="182" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" s="186" t="s">
         <v>374</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="D45" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="184"/>
-      <c r="F45" s="185"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="188"/>
       <c r="G45" s="16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A46" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" s="186" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D46" s="183" t="s">
         <v>123</v>
@@ -6306,18 +6303,18 @@
       <c r="E46" s="187"/>
       <c r="F46" s="188"/>
       <c r="G46" s="16">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="63">
       <c r="A47" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" s="186" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D47" s="183" t="s">
         <v>123</v>
@@ -6325,37 +6322,37 @@
       <c r="E47" s="187"/>
       <c r="F47" s="188"/>
       <c r="G47" s="16">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="63">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A48" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="186" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D48" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="187"/>
-      <c r="F48" s="188"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="185"/>
       <c r="G48" s="16">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A49" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B49" s="186" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D49" s="183" t="s">
         <v>123</v>
@@ -6363,18 +6360,18 @@
       <c r="E49" s="184"/>
       <c r="F49" s="185"/>
       <c r="G49" s="16">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A50" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B50" s="186" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D50" s="183" t="s">
         <v>123</v>
@@ -6382,58 +6379,58 @@
       <c r="E50" s="184"/>
       <c r="F50" s="185"/>
       <c r="G50" s="16">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A51" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="186" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D51" s="183" t="s">
         <v>123</v>
       </c>
       <c r="E51" s="184"/>
-      <c r="F51" s="185"/>
+      <c r="F51" s="185" t="s">
+        <v>146</v>
+      </c>
       <c r="G51" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A52" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" s="186" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D52" s="183" t="s">
         <v>123</v>
       </c>
       <c r="E52" s="184"/>
-      <c r="F52" s="185" t="s">
-        <v>146</v>
-      </c>
+      <c r="F52" s="185"/>
       <c r="G52" s="16">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A53" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="186" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D53" s="183" t="s">
         <v>123</v>
@@ -6441,37 +6438,37 @@
       <c r="E53" s="184"/>
       <c r="F53" s="185"/>
       <c r="G53" s="16">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A54" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B54" s="186" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D54" s="183" t="s">
-        <v>123</v>
+        <v>393</v>
+      </c>
+      <c r="D54" s="189" t="s">
+        <v>122</v>
       </c>
       <c r="E54" s="184"/>
       <c r="F54" s="185"/>
       <c r="G54" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A55" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B55" s="186" t="s">
-        <v>393</v>
+        <v>369</v>
+      </c>
+      <c r="B55" s="190" t="s">
+        <v>394</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D55" s="189" t="s">
         <v>122</v>
@@ -6479,56 +6476,56 @@
       <c r="E55" s="184"/>
       <c r="F55" s="185"/>
       <c r="G55" s="16">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A56" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B56" s="190" t="s">
-        <v>395</v>
+        <v>369</v>
+      </c>
+      <c r="B56" s="186" t="s">
+        <v>396</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D56" s="189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="184"/>
       <c r="F56" s="185"/>
       <c r="G56" s="16">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A57" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B57" s="186" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="D57" s="189" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="184"/>
-      <c r="F57" s="185"/>
+        <v>399</v>
+      </c>
+      <c r="D57" s="183" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A58" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B58" s="186" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D58" s="183" t="s">
         <v>122</v>
@@ -6536,37 +6533,37 @@
       <c r="E58" s="61"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A59" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B59" s="186" t="s">
-        <v>401</v>
+        <v>369</v>
+      </c>
+      <c r="B59" s="190" t="s">
+        <v>15</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="D59" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>122</v>
       </c>
       <c r="E59" s="61"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A60" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B60" s="190" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>122</v>
@@ -6574,18 +6571,18 @@
       <c r="E60" s="61"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A61" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B61" s="190" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="46" t="s">
         <v>122</v>
@@ -6593,152 +6590,152 @@
       <c r="E61" s="61"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A62" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B62" s="190" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A63" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B63" s="190" t="s">
-        <v>14</v>
+        <v>369</v>
+      </c>
+      <c r="B63" s="186" t="s">
+        <v>402</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>123</v>
+        <v>403</v>
+      </c>
+      <c r="D63" s="189" t="s">
+        <v>122</v>
       </c>
       <c r="E63" s="61"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A64" s="89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B64" s="186" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D64" s="189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="61"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A65" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B65" s="186" t="s">
-        <v>405</v>
-      </c>
-      <c r="C65" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="D65" s="189" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="16"/>
+      <c r="D65" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="42"/>
       <c r="G65" s="16">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A66" s="89" t="s">
-        <v>370</v>
-      </c>
-      <c r="B66" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="D66" s="48" t="s">
+      <c r="A66" s="191" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="F66" s="42"/>
+      <c r="E66" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="53"/>
       <c r="G66" s="16">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A67" s="191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B67" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="192" t="s">
         <v>411</v>
       </c>
-      <c r="D67" s="181" t="s">
+      <c r="D67" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67" s="53"/>
+      <c r="E67" s="194"/>
+      <c r="F67" s="195"/>
       <c r="G67" s="16">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A68" s="191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B68" s="79" t="s">
-        <v>120</v>
+        <v>409</v>
+      </c>
+      <c r="B68" s="196" t="s">
+        <v>11</v>
       </c>
       <c r="C68" s="192" t="s">
         <v>412</v>
       </c>
       <c r="D68" s="193" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E68" s="194"/>
       <c r="F68" s="195"/>
       <c r="G68" s="16">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A69" s="191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B69" s="196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C69" s="192" t="s">
         <v>413</v>
@@ -6749,15 +6746,15 @@
       <c r="E69" s="194"/>
       <c r="F69" s="195"/>
       <c r="G69" s="16">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A70" s="191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B70" s="196" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C70" s="192" t="s">
         <v>414</v>
@@ -6768,15 +6765,15 @@
       <c r="E70" s="194"/>
       <c r="F70" s="195"/>
       <c r="G70" s="16">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A71" s="191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B71" s="196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="192" t="s">
         <v>415</v>
@@ -6787,37 +6784,37 @@
       <c r="E71" s="194"/>
       <c r="F71" s="195"/>
       <c r="G71" s="16">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A72" s="191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B72" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="192" t="s">
-        <v>416</v>
-      </c>
-      <c r="D72" s="193" t="s">
-        <v>123</v>
+        <v>409</v>
+      </c>
+      <c r="B72" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="197" t="s">
+        <v>122</v>
       </c>
       <c r="E72" s="194"/>
       <c r="F72" s="195"/>
       <c r="G72" s="16">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A73" s="191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B73" s="190" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" s="197" t="s">
         <v>122</v>
@@ -6825,18 +6822,18 @@
       <c r="E73" s="194"/>
       <c r="F73" s="195"/>
       <c r="G73" s="16">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A74" s="191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B74" s="190" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D74" s="197" t="s">
         <v>122</v>
@@ -6844,117 +6841,117 @@
       <c r="E74" s="194"/>
       <c r="F74" s="195"/>
       <c r="G74" s="16">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A75" s="191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B75" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>126</v>
+        <v>409</v>
+      </c>
+      <c r="B75" s="196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="192" t="s">
+        <v>129</v>
       </c>
       <c r="D75" s="197" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" s="194"/>
       <c r="F75" s="195"/>
       <c r="G75" s="16">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A76" s="191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B76" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="197" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="194"/>
-      <c r="F76" s="195"/>
+        <v>409</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="42"/>
       <c r="G76" s="16">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A77" s="191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="18.75">
+      <c r="A77" s="198" t="s">
+        <v>422</v>
+      </c>
+      <c r="B77" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D77" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="42"/>
+      <c r="E77" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="53"/>
       <c r="G77" s="16">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A78" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B78" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="B78" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D78" s="181" t="s">
+      <c r="D78" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="60" t="s">
-        <v>124</v>
-      </c>
+      <c r="E78" s="60"/>
       <c r="F78" s="53"/>
       <c r="G78" s="16">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A79" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B79" s="79" t="s">
-        <v>120</v>
+        <v>422</v>
+      </c>
+      <c r="B79" s="81" t="s">
+        <v>13</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>425</v>
+        <v>166</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="53"/>
+        <v>123</v>
+      </c>
+      <c r="E79" s="61"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="16">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A80" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" s="81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>167</v>
+        <v>425</v>
       </c>
       <c r="D80" s="49" t="s">
         <v>123</v>
@@ -6962,15 +6959,15 @@
       <c r="E80" s="61"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A81" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B81" s="81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>426</v>
@@ -6981,15 +6978,15 @@
       <c r="E81" s="61"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A82" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B82" s="81" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>427</v>
@@ -7000,37 +6997,37 @@
       <c r="E82" s="61"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A83" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B83" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="199" t="s">
         <v>428</v>
       </c>
+      <c r="C83" s="200" t="s">
+        <v>429</v>
+      </c>
       <c r="D83" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E83" s="61"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A84" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84" s="199" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C84" s="200" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D84" s="49" t="s">
         <v>122</v>
@@ -7038,56 +7035,56 @@
       <c r="E84" s="61"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="14" customFormat="1" ht="78.75">
       <c r="A85" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B85" s="199" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C85" s="200" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="E85" s="61"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="78.75">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A86" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B86" s="199" t="s">
-        <v>433</v>
-      </c>
-      <c r="C86" s="200" t="s">
-        <v>434</v>
+        <v>422</v>
+      </c>
+      <c r="B86" s="201" t="s">
+        <v>435</v>
+      </c>
+      <c r="C86" s="202" t="s">
+        <v>436</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="E86" s="61"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A87" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B87" s="201" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C87" s="202" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>122</v>
@@ -7095,18 +7092,18 @@
       <c r="E87" s="61"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A88" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" s="201" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C88" s="202" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D88" s="49" t="s">
         <v>122</v>
@@ -7114,18 +7111,18 @@
       <c r="E88" s="61"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A89" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="201" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C89" s="202" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D89" s="49" t="s">
         <v>122</v>
@@ -7133,94 +7130,94 @@
       <c r="E89" s="61"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A90" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B90" s="201" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C90" s="202" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="E90" s="61"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A91" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B91" s="201" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C91" s="202" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E91" s="61"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A92" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B92" s="201" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C92" s="202" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E92" s="61"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A93" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B93" s="201" t="s">
-        <v>448</v>
-      </c>
-      <c r="C93" s="202" t="s">
+        <v>422</v>
+      </c>
+      <c r="B93" s="203" t="s">
         <v>449</v>
       </c>
-      <c r="D93" s="49" t="s">
-        <v>435</v>
+      <c r="C93" s="182" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" s="204" t="s">
+        <v>122</v>
       </c>
       <c r="E93" s="61"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A94" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B94" s="203" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C94" s="182" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D94" s="204" t="s">
         <v>122</v>
@@ -7228,18 +7225,18 @@
       <c r="E94" s="61"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A95" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B95" s="203" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C95" s="182" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D95" s="204" t="s">
         <v>122</v>
@@ -7247,18 +7244,18 @@
       <c r="E95" s="61"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A96" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B96" s="203" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C96" s="182" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D96" s="204" t="s">
         <v>122</v>
@@ -7266,113 +7263,113 @@
       <c r="E96" s="61"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A97" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B97" s="203" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C97" s="182" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D97" s="204" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="E97" s="61"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A98" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B98" s="203" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C98" s="182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D98" s="204" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A99" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B99" s="203" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C99" s="182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D99" s="204" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E99" s="61"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A100" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B100" s="203" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C100" s="182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D100" s="204" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E100" s="61"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A101" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B101" s="203" t="s">
-        <v>464</v>
-      </c>
-      <c r="C101" s="182" t="s">
-        <v>465</v>
-      </c>
-      <c r="D101" s="204" t="s">
-        <v>435</v>
+        <v>422</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="E101" s="61"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A102" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>8</v>
+        <v>422</v>
+      </c>
+      <c r="B102" s="190" t="s">
+        <v>15</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>122</v>
@@ -7380,18 +7377,18 @@
       <c r="E102" s="61"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A103" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B103" s="190" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>122</v>
@@ -7399,18 +7396,18 @@
       <c r="E103" s="61"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A104" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="190" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>122</v>
@@ -7418,37 +7415,37 @@
       <c r="E104" s="61"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A105" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B105" s="190" t="s">
-        <v>267</v>
+        <v>422</v>
+      </c>
+      <c r="B105" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E105" s="61"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A106" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>14</v>
+        <v>466</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>123</v>
@@ -7456,51 +7453,32 @@
       <c r="E106" s="61"/>
       <c r="F106" s="16"/>
       <c r="G106" s="16">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A107" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="C107" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="D107" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E107" s="61"/>
-      <c r="F107" s="16"/>
+      <c r="D107" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="205" t="s">
+        <v>469</v>
+      </c>
+      <c r="F107" s="42"/>
       <c r="G107" s="16">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="14" customFormat="1" ht="126">
-      <c r="A108" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="B108" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>469</v>
-      </c>
-      <c r="D108" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="205" t="s">
-        <v>470</v>
-      </c>
-      <c r="F108" s="42"/>
-      <c r="G108" s="16">
         <v>386</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7551,7 +7529,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>87</v>
@@ -7571,10 +7549,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>417</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>418</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>88</v>
@@ -7656,58 +7634,58 @@
         <v>7</v>
       </c>
       <c r="G1" s="199" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I1" s="199" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J1" s="201" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K1" s="201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L1" s="201" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M1" s="201" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N1" s="201" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O1" s="201" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P1" s="201" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q1" s="203" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R1" s="203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S1" s="203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T1" s="203" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U1" s="203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V1" s="203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W1" s="203" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X1" s="203" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y1" s="44" t="s">
         <v>8</v>
@@ -7716,16 +7694,16 @@
         <v>15</v>
       </c>
       <c r="AA1" s="190" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB1" s="190" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC1" s="44" t="s">
         <v>14</v>
       </c>
       <c r="AD1" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE1" s="81" t="s">
         <v>9</v>
@@ -7745,10 +7723,10 @@
         <v>43769</v>
       </c>
       <c r="E2" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" s="92" t="s">
         <v>471</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>472</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -7777,7 +7755,7 @@
       </c>
       <c r="AB2" s="92"/>
       <c r="AC2" s="92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AD2" s="92"/>
       <c r="AE2" s="92"/>
@@ -7833,7 +7811,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>87</v>
@@ -7927,26 +7905,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="220" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
+      <c r="A1" s="229" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
     </row>
     <row r="2" spans="1:14" ht="25.5">
       <c r="A2" s="216" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="216"/>
       <c r="C2" s="216"/>
@@ -7966,15 +7944,15 @@
       <c r="A3" s="121"/>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
-      <c r="D3" s="221" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
+      <c r="D3" s="230" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
       <c r="K3" s="122"/>
       <c r="L3" s="123"/>
       <c r="M3" s="123"/>
@@ -7996,47 +7974,47 @@
     </row>
     <row r="5" spans="1:14" s="127" customFormat="1" ht="78.75">
       <c r="A5" s="124" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="D5" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="E5" s="126" t="s">
         <v>328</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="F5" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="F5" s="126" t="s">
-        <v>337</v>
-      </c>
-      <c r="G5" s="125" t="s">
+      <c r="H5" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="I5" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="126" t="s">
         <v>331</v>
       </c>
-      <c r="I5" s="126" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="126" t="s">
+      <c r="K5" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="L5" s="126" t="s">
         <v>333</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="M5" s="126" t="s">
         <v>334</v>
       </c>
-      <c r="M5" s="126" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="6" spans="1:14" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="231" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="224">
@@ -8074,7 +8052,7 @@
       <c r="M6" s="130"/>
     </row>
     <row r="7" spans="1:14" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="223"/>
+      <c r="A7" s="232"/>
       <c r="B7" s="225"/>
       <c r="C7" s="174"/>
       <c r="D7" s="167"/>
@@ -8104,7 +8082,7 @@
       <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:14" s="127" customFormat="1" ht="31.5">
-      <c r="A8" s="223"/>
+      <c r="A8" s="232"/>
       <c r="B8" s="225"/>
       <c r="C8" s="175" t="s">
         <v>17</v>
@@ -8138,7 +8116,7 @@
       <c r="M8" s="130"/>
     </row>
     <row r="9" spans="1:14" s="127" customFormat="1" ht="31.5">
-      <c r="A9" s="223"/>
+      <c r="A9" s="232"/>
       <c r="B9" s="225"/>
       <c r="C9" s="176"/>
       <c r="D9" s="161"/>
@@ -8168,7 +8146,7 @@
       <c r="M9" s="134"/>
     </row>
     <row r="10" spans="1:14" ht="31.5">
-      <c r="A10" s="229" t="s">
+      <c r="A10" s="223" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="224">
@@ -8204,7 +8182,7 @@
       <c r="M10" s="136"/>
     </row>
     <row r="11" spans="1:14" ht="31.5">
-      <c r="A11" s="229"/>
+      <c r="A11" s="223"/>
       <c r="B11" s="225"/>
       <c r="C11" s="169"/>
       <c r="D11" s="167"/>
@@ -8232,8 +8210,8 @@
       <c r="M11" s="136"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="230" t="s">
-        <v>336</v>
+      <c r="A12" s="226" t="s">
+        <v>335</v>
       </c>
       <c r="B12" s="224">
         <v>0.45</v>
@@ -8268,7 +8246,7 @@
       <c r="M12" s="139"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="231"/>
+      <c r="A13" s="227"/>
       <c r="B13" s="225"/>
       <c r="C13" s="170" t="s">
         <v>20</v>
@@ -8300,7 +8278,7 @@
       <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="231"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="225"/>
       <c r="C14" s="171"/>
       <c r="D14" s="166"/>
@@ -8328,7 +8306,7 @@
       <c r="M14" s="139"/>
     </row>
     <row r="15" spans="1:14" ht="31.5">
-      <c r="A15" s="231"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="225"/>
       <c r="C15" s="171"/>
       <c r="D15" s="166"/>
@@ -8356,7 +8334,7 @@
       <c r="M15" s="139"/>
     </row>
     <row r="16" spans="1:14" ht="31.5">
-      <c r="A16" s="231"/>
+      <c r="A16" s="227"/>
       <c r="B16" s="225"/>
       <c r="C16" s="172"/>
       <c r="D16" s="167"/>
@@ -8384,7 +8362,7 @@
       <c r="M16" s="139"/>
     </row>
     <row r="17" spans="1:13" ht="31.5">
-      <c r="A17" s="231"/>
+      <c r="A17" s="227"/>
       <c r="B17" s="225"/>
       <c r="C17" s="170" t="s">
         <v>21</v>
@@ -8416,7 +8394,7 @@
       <c r="M17" s="139"/>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="231"/>
+      <c r="A18" s="227"/>
       <c r="B18" s="225"/>
       <c r="C18" s="171"/>
       <c r="D18" s="166"/>
@@ -8444,7 +8422,7 @@
       <c r="M18" s="139"/>
     </row>
     <row r="19" spans="1:13" ht="74.25" customHeight="1">
-      <c r="A19" s="231"/>
+      <c r="A19" s="227"/>
       <c r="B19" s="225"/>
       <c r="C19" s="172"/>
       <c r="D19" s="167"/>
@@ -8472,7 +8450,7 @@
       <c r="M19" s="139"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A20" s="231"/>
+      <c r="A20" s="227"/>
       <c r="B20" s="225"/>
       <c r="C20" s="170" t="s">
         <v>22</v>
@@ -8504,7 +8482,7 @@
       <c r="M20" s="139"/>
     </row>
     <row r="21" spans="1:13" ht="31.5">
-      <c r="A21" s="231"/>
+      <c r="A21" s="227"/>
       <c r="B21" s="225"/>
       <c r="C21" s="171"/>
       <c r="D21" s="166"/>
@@ -8532,7 +8510,7 @@
       <c r="M21" s="139"/>
     </row>
     <row r="22" spans="1:13" ht="31.5">
-      <c r="A22" s="231"/>
+      <c r="A22" s="227"/>
       <c r="B22" s="225"/>
       <c r="C22" s="171"/>
       <c r="D22" s="166"/>
@@ -8560,7 +8538,7 @@
       <c r="M22" s="140"/>
     </row>
     <row r="23" spans="1:13" ht="31.5">
-      <c r="A23" s="231"/>
+      <c r="A23" s="227"/>
       <c r="B23" s="225"/>
       <c r="C23" s="171"/>
       <c r="D23" s="166"/>
@@ -8588,8 +8566,8 @@
       <c r="M23" s="140"/>
     </row>
     <row r="24" spans="1:13" ht="31.5">
-      <c r="A24" s="231"/>
-      <c r="B24" s="232"/>
+      <c r="A24" s="227"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="172"/>
       <c r="D24" s="167"/>
       <c r="E24" s="21" t="s">
@@ -8616,10 +8594,10 @@
       <c r="M24" s="140"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A25" s="226" t="s">
+      <c r="A25" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="228">
+      <c r="B25" s="222">
         <v>0.1</v>
       </c>
       <c r="C25" s="162" t="s">
@@ -8652,8 +8630,8 @@
       <c r="M25" s="142"/>
     </row>
     <row r="26" spans="1:13" ht="31.5">
-      <c r="A26" s="227"/>
-      <c r="B26" s="228"/>
+      <c r="A26" s="221"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="163"/>
       <c r="D26" s="166"/>
       <c r="E26" s="23" t="s">
@@ -8680,8 +8658,8 @@
       <c r="M26" s="142"/>
     </row>
     <row r="27" spans="1:13" ht="47.25">
-      <c r="A27" s="227"/>
-      <c r="B27" s="228"/>
+      <c r="A27" s="221"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="163"/>
       <c r="D27" s="166"/>
       <c r="E27" s="24" t="s">
@@ -8708,8 +8686,8 @@
       <c r="M27" s="142"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A28" s="227"/>
-      <c r="B28" s="228"/>
+      <c r="A28" s="221"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="163"/>
       <c r="D28" s="166"/>
       <c r="E28" s="24" t="s">
@@ -8736,8 +8714,8 @@
       <c r="M28" s="142"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A29" s="227"/>
-      <c r="B29" s="228"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="222"/>
       <c r="C29" s="164"/>
       <c r="D29" s="167"/>
       <c r="E29" s="24" t="s">
@@ -8764,8 +8742,8 @@
       <c r="M29" s="144"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A30" s="227"/>
-      <c r="B30" s="228"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="156" t="s">
         <v>24</v>
       </c>
@@ -8796,8 +8774,8 @@
       <c r="M30" s="144"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A31" s="227"/>
-      <c r="B31" s="228"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="222"/>
       <c r="C31" s="162" t="s">
         <v>25</v>
       </c>
@@ -8828,8 +8806,8 @@
       <c r="M31" s="144"/>
     </row>
     <row r="32" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A32" s="227"/>
-      <c r="B32" s="228"/>
+      <c r="A32" s="221"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="164"/>
       <c r="D32" s="167"/>
       <c r="E32" s="24" t="s">
@@ -8970,17 +8948,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A24"/>
     <mergeCell ref="B12:B24"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B33:B64 B25 G12:H64 D17:D64 G6:H10 D10:D13 B10:B12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
@@ -9024,7 +9002,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="216" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="216"/>
       <c r="C1" s="216"/>
@@ -9038,7 +9016,7 @@
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="217" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="217"/>
       <c r="C2" s="217"/>
@@ -9052,7 +9030,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="218" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="218"/>
       <c r="C3" s="218"/>
@@ -9066,34 +9044,34 @@
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1">
       <c r="A5" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="77" t="s">
+      <c r="G5" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="I5" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>277</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="76" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1">
@@ -9101,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="95">
         <v>0.2</v>
@@ -9134,7 +9112,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="113" t="s">
         <v>26</v>
@@ -9168,7 +9146,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="113" t="s">
         <v>27</v>
@@ -9205,7 +9183,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" s="98">
         <v>0.1</v>
@@ -9220,7 +9198,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="113" t="s">
         <v>28</v>
@@ -9254,7 +9232,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="113" t="s">
         <v>29</v>
@@ -9291,7 +9269,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="95">
         <v>0.25</v>
@@ -9309,7 +9287,7 @@
         <v>2.1</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="98">
         <v>0.25</v>
@@ -9324,7 +9302,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="113" t="s">
         <v>30</v>
@@ -9358,7 +9336,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="113" t="s">
         <v>31</v>
@@ -9395,7 +9373,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="95">
         <v>0.45</v>
@@ -9428,7 +9406,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" s="113" t="s">
         <v>32</v>
@@ -9462,7 +9440,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" s="113" t="s">
         <v>33</v>
@@ -9514,7 +9492,7 @@
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1">
       <c r="A22" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" s="113" t="s">
         <v>32</v>
@@ -9548,7 +9526,7 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
       <c r="A23" s="89" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B23" s="113" t="s">
         <v>33</v>
@@ -9585,7 +9563,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="95">
         <v>0.1</v>
@@ -9618,7 +9596,7 @@
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1">
       <c r="A26" s="89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="113" t="s">
         <v>50</v>
@@ -9653,7 +9631,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="16"/>
       <c r="B27" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="119">
         <v>1</v>
@@ -9713,7 +9691,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="216" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="216"/>
       <c r="C1" s="216"/>
@@ -9727,7 +9705,7 @@
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="217" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="217"/>
       <c r="C2" s="217"/>
@@ -9741,7 +9719,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="219" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="219"/>
       <c r="C3" s="219"/>
@@ -9755,7 +9733,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="219" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="219"/>
       <c r="C4" s="219"/>
@@ -9769,34 +9747,34 @@
     </row>
     <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="77" t="s">
+      <c r="G6" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="I6" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>277</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="76" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9804,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="95">
         <v>0.2</v>
@@ -9822,7 +9800,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" s="98">
         <v>0.1</v>
@@ -9840,7 +9818,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="101">
         <v>0.05</v>
@@ -9874,7 +9852,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="101">
         <v>0.04</v>
@@ -9908,7 +9886,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="101">
         <v>0.04</v>
@@ -9942,7 +9920,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -9976,7 +9954,7 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2">
         <v>0.03</v>
@@ -10010,7 +9988,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="107">
         <v>0.25</v>
@@ -10028,7 +10006,7 @@
         <v>1.6</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2">
         <v>0.09</v>
@@ -10062,7 +10040,7 @@
         <v>1.7</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2">
         <v>0.17499999999999999</v>
@@ -10096,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" s="95">
         <v>0.45</v>
@@ -10114,7 +10092,7 @@
         <v>2.1</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3">
         <v>0.15</v>
@@ -10148,7 +10126,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3">
         <v>0.1</v>
@@ -10182,7 +10160,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3">
         <v>0.05</v>
@@ -10216,7 +10194,7 @@
         <v>2.4</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3">
         <v>0.05</v>
@@ -10250,7 +10228,7 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3">
         <v>0.05</v>
@@ -10284,7 +10262,7 @@
         <v>2.6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3">
         <v>0.1</v>
@@ -10316,7 +10294,7 @@
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="16"/>
       <c r="B24" s="110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24" s="112">
         <v>1</v>
@@ -10334,7 +10312,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="G26" s="219" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H26" s="219"/>
       <c r="I26" s="219"/>
@@ -10342,12 +10320,12 @@
     </row>
     <row r="27" spans="1:10">
       <c r="H27" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="H30" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -10396,7 +10374,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="216" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="216"/>
       <c r="C1" s="216"/>
@@ -10410,7 +10388,7 @@
     </row>
     <row r="2" spans="1:10" ht="25.5">
       <c r="A2" s="216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="216"/>
       <c r="C2" s="216"/>
@@ -10424,7 +10402,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="218" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="218"/>
       <c r="C3" s="218"/>
@@ -10438,7 +10416,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="219" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="219"/>
       <c r="C4" s="219"/>
@@ -10452,7 +10430,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="219" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="219"/>
       <c r="C5" s="219"/>
@@ -10466,34 +10444,34 @@
     </row>
     <row r="7" spans="1:10" ht="47.25">
       <c r="A7" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="77" t="s">
+      <c r="G7" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="I7" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="76" t="s">
         <v>277</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10501,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="95">
         <v>0.2</v>
@@ -10519,7 +10497,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="98">
         <v>0.1</v>
@@ -10537,7 +10515,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="101">
         <v>0.05</v>
@@ -10571,7 +10549,7 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="101">
         <v>0.04</v>
@@ -10605,7 +10583,7 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="101">
         <v>0.04</v>
@@ -10639,7 +10617,7 @@
         <v>1.4</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2">
         <v>7.0000000000000007E-2</v>
@@ -10673,7 +10651,7 @@
         <v>1.5</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2">
         <v>0.03</v>
@@ -10707,7 +10685,7 @@
         <v>1.2</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="107">
         <v>0.25</v>
@@ -10725,7 +10703,7 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2">
         <v>0.09</v>
@@ -10759,7 +10737,7 @@
         <v>1.7</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2">
         <v>0.17499999999999999</v>
@@ -10793,7 +10771,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="95">
         <v>0.45</v>
@@ -10811,7 +10789,7 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C19" s="3">
         <v>0.15</v>
@@ -10845,7 +10823,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="3">
         <v>0.1</v>
@@ -10877,7 +10855,7 @@
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="16"/>
       <c r="B21" s="110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="112">
         <v>1</v>
@@ -10895,7 +10873,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="E23" s="219" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F23" s="219"/>
       <c r="G23" s="219"/>
@@ -10903,12 +10881,12 @@
     </row>
     <row r="24" spans="1:10">
       <c r="F24" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="F27" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -11002,7 +10980,7 @@
         <v>15</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>87</v>
@@ -11023,7 +11001,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="68">
         <v>1</v>
@@ -11060,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="68">
         <v>2</v>
@@ -11077,7 +11055,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="73"/>
       <c r="K3" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -11094,10 +11072,10 @@
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="68">
         <v>3</v>
@@ -11112,7 +11090,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -11131,10 +11109,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
@@ -11146,14 +11124,14 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
         <v>137</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -11172,10 +11150,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="16">
         <v>5</v>
@@ -11187,12 +11165,12 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -11211,10 +11189,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -11226,12 +11204,12 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -11250,10 +11228,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="16">
         <v>7</v>
@@ -11265,12 +11243,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -11287,10 +11265,10 @@
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="68">
         <v>8</v>
@@ -11302,12 +11280,12 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -11324,10 +11302,10 @@
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="68">
         <v>9</v>
@@ -11342,7 +11320,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -11361,10 +11339,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="16">
         <v>10</v>
@@ -11376,12 +11354,12 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -11400,10 +11378,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="16">
         <v>11</v>
@@ -11415,12 +11393,12 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -11439,10 +11417,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
@@ -11454,12 +11432,12 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -11476,10 +11454,10 @@
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="68">
         <v>13</v>
@@ -11494,7 +11472,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -11513,10 +11491,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="16">
         <v>14</v>
@@ -11528,12 +11506,12 @@
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -11552,10 +11530,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="16">
         <v>15</v>
@@ -11567,12 +11545,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -11591,10 +11569,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="16">
         <v>16</v>
@@ -11606,12 +11584,12 @@
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -11631,7 +11609,7 @@
         <v>110</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E18" s="68">
         <v>17</v>
@@ -11643,12 +11621,12 @@
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -11668,7 +11646,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="68">
         <v>18</v>
@@ -11683,7 +11661,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -11717,12 +11695,12 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -11756,12 +11734,12 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="16"/>
@@ -11795,12 +11773,12 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -11819,10 +11797,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="16">
         <v>22</v>
@@ -11838,10 +11816,10 @@
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -11895,10 +11873,10 @@
       </c>
       <c r="B25" s="68"/>
       <c r="C25" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="69" t="s">
         <v>224</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>225</v>
       </c>
       <c r="E25" s="16">
         <v>24</v>
@@ -11910,12 +11888,12 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -12016,11 +11994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G2:G3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12060,7 +12038,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I1" s="214" t="s">
         <v>12</v>
@@ -12078,13 +12056,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>339</v>
-      </c>
       <c r="F2" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G2" s="57">
         <v>1573185037185</v>
@@ -12104,13 +12082,13 @@
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G3" s="57">
         <v>1573185037185</v>
@@ -12132,13 +12110,13 @@
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="57">
         <v>1573185051583</v>
@@ -12160,13 +12138,13 @@
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G5" s="57">
         <v>1573185071894</v>
@@ -12257,7 +12235,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N1" s="84" t="s">
         <v>14</v>
@@ -12266,7 +12244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="31.5">
+    <row r="2" spans="1:15" ht="141.75">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -12280,10 +12258,10 @@
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
       <c r="I2" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" s="92" t="s">
         <v>346</v>
-      </c>
-      <c r="J2" s="92" t="s">
-        <v>347</v>
       </c>
       <c r="K2" s="92"/>
       <c r="L2" s="207">
@@ -12293,13 +12271,13 @@
         <v>1573185131886</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O2" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="31.5">
+    <row r="3" spans="1:15" ht="141.75">
       <c r="A3" s="92">
         <v>2</v>
       </c>
@@ -12315,10 +12293,10 @@
       <c r="G3" s="92"/>
       <c r="H3" s="92"/>
       <c r="I3" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="92" t="s">
         <v>349</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>350</v>
       </c>
       <c r="K3" s="92"/>
       <c r="L3" s="207">
@@ -12328,13 +12306,13 @@
         <v>1573185122446</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O3" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="31.5">
+    <row r="4" spans="1:15" ht="141.75">
       <c r="A4" s="92">
         <v>3</v>
       </c>
@@ -12350,10 +12328,10 @@
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="I4" s="92" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="92" t="s">
         <v>352</v>
-      </c>
-      <c r="J4" s="92" t="s">
-        <v>353</v>
       </c>
       <c r="K4" s="92"/>
       <c r="L4" s="207">
@@ -12363,13 +12341,13 @@
         <v>1573185164747</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O4" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31.5">
+    <row r="5" spans="1:15" ht="141.75">
       <c r="A5" s="92">
         <v>4</v>
       </c>
@@ -12383,10 +12361,10 @@
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K5" s="92"/>
       <c r="L5" s="207">
@@ -12396,13 +12374,13 @@
         <v>1573185186458</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O5" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.5">
+    <row r="6" spans="1:15" ht="141.75">
       <c r="A6" s="92">
         <v>5</v>
       </c>
@@ -12418,10 +12396,10 @@
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="92" t="s">
         <v>357</v>
-      </c>
-      <c r="J6" s="92" t="s">
-        <v>358</v>
       </c>
       <c r="K6" s="92"/>
       <c r="L6" s="207">
@@ -12431,13 +12409,13 @@
         <v>1573185204388</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O6" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.5">
+    <row r="7" spans="1:15" ht="141.75">
       <c r="A7" s="92">
         <v>6</v>
       </c>
@@ -12451,10 +12429,10 @@
       <c r="G7" s="92"/>
       <c r="H7" s="92"/>
       <c r="I7" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="92" t="s">
         <v>360</v>
-      </c>
-      <c r="J7" s="92" t="s">
-        <v>361</v>
       </c>
       <c r="K7" s="92"/>
       <c r="L7" s="207">
@@ -12464,7 +12442,7 @@
         <v>1573185232164</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O7" s="92">
         <v>1</v>
@@ -12536,25 +12514,25 @@
         <v>120</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>151</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J1" s="86" t="s">
         <v>12</v>
@@ -12563,7 +12541,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M1" s="84" t="s">
         <v>14</v>
@@ -12575,7 +12553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="31.5">
+    <row r="2" spans="1:15" ht="94.5">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -12585,7 +12563,7 @@
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
       <c r="E2" s="92" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
@@ -12593,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J2" s="92"/>
       <c r="K2" s="207">
@@ -12603,14 +12581,14 @@
         <v>1573185282750</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="31.5">
+    <row r="3" spans="1:15" ht="94.5">
       <c r="A3" s="92">
         <v>2</v>
       </c>
@@ -12620,7 +12598,7 @@
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
@@ -12628,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J3" s="92"/>
       <c r="K3" s="207">
@@ -12638,7 +12616,7 @@
         <v>1573185368523</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="92">
@@ -12684,67 +12662,67 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X1" t="s">
         <v>9</v>
@@ -12758,22 +12736,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2">
         <v>766777123</v>
       </c>
       <c r="G2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" t="s">
         <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>421</v>
       </c>
       <c r="I2">
         <v>766777123</v>
       </c>
       <c r="J2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M2">
         <v>99</v>
@@ -12782,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P2" s="206">
         <v>1590118196428</v>
@@ -12791,7 +12769,7 @@
         <v>1591254395805</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V2" s="206">
         <v>1573789598191</v>
@@ -12807,6 +12785,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100FB0175F18B01E74491971D89B23F8655" ma:contentTypeVersion="11" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="1a9dc9cdd67a308ba2b2666df5490aa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4c20e182-3cff-46d5-b163-30d344671daf" xmlns:ns4="c86ac200-3bf8-4f3f-9c75-7492a34ff116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3aad754d391d83d543dbc23cf02e780" ns3:_="" ns4:_="">
     <xsd:import namespace="4c20e182-3cff-46d5-b163-30d344671daf"/>
@@ -13015,12 +12999,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13031,6 +13009,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F3B173-26E4-4636-A5EB-1C560CB0A9A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c86ac200-3bf8-4f3f-9c75-7492a34ff116"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4c20e182-3cff-46d5-b163-30d344671daf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57D61BF-212A-4F3E-921D-E429A3A772FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13049,23 +13044,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F3B173-26E4-4636-A5EB-1C560CB0A9A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c86ac200-3bf8-4f3f-9c75-7492a34ff116"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4c20e182-3cff-46d5-b163-30d344671daf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10837DA-CF87-48E6-955F-4FAF14545FC0}">
   <ds:schemaRefs>

--- a/db/excel/qlns-database-v1.xlsx
+++ b/db/excel/qlns-database-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A88C5-CB77-4489-8890-9CD2CFA22262}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E378A0-F0CF-4729-A015-AA4C8DA7E82B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="form-report-staff" sheetId="36" state="hidden" r:id="rId4"/>
     <sheet name="admin_menu-ver2.0" sheetId="14" state="hidden" r:id="rId5"/>
     <sheet name="organizations" sheetId="9" r:id="rId6"/>
-    <sheet name="job_roles" sheetId="12" r:id="rId7"/>
-    <sheet name="staffs" sheetId="16" r:id="rId8"/>
+    <sheet name="job_roles_sample" sheetId="12" r:id="rId7"/>
+    <sheet name="staffs_sample" sheetId="16" r:id="rId8"/>
     <sheet name="users" sheetId="38" r:id="rId9"/>
     <sheet name="strategy_period" sheetId="39" r:id="rId10"/>
     <sheet name="reports" sheetId="40" r:id="rId11"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'admin_menu-ver2.0'!$A$1:$Q$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="470">
   <si>
     <t>id</t>
   </si>
@@ -1117,12 +1117,6 @@
     <t>job_list</t>
   </si>
   <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>Phòng Kỹ Thuật</t>
-  </si>
-  <si>
     <t>OrganizationsPage</t>
   </si>
   <si>
@@ -1293,24 +1287,12 @@
     <t>Đây là một tổ chức Công ty dùng mô phỏng. Để được gán quyền vào tổ chức, hãy liên hệ với quản trị Tổ chức của bạn.</t>
   </si>
   <si>
-    <t>Phòng Tổng hợp</t>
-  </si>
-  <si>
-    <t>Phòng Kinh doanh</t>
-  </si>
-  <si>
     <t>Tên viết tắt gọn</t>
   </si>
   <si>
     <t>ABC&amp;XYZ</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
     <t>Trưởng phòng</t>
   </si>
   <si>
@@ -1356,9 +1338,6 @@
     <t>Phụ trách phòng</t>
   </si>
   <si>
-    <t>Phụ Trách phòng Tổng hợp</t>
-  </si>
-  <si>
     <t>{"username":"123456789","time":1573185232164,"ip":"10.151.50.36"}</t>
   </si>
   <si>
@@ -1701,7 +1680,10 @@
     <t>[1,2]</t>
   </si>
   <si>
-    <t>Ch? ký c?p nh?p</t>
+    <t>Phụ Trách phòng Kỹ thuật</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -3372,7 +3354,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3943,6 +3925,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3955,6 +3943,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3967,12 +3973,6 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3980,18 +3980,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5391,13 +5379,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5644,7 +5632,9 @@
       <c r="D12" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="62" t="s">
+        <v>469</v>
+      </c>
       <c r="F12" s="40"/>
       <c r="G12" s="16">
         <v>51</v>
@@ -5677,7 +5667,7 @@
         <v>118</v>
       </c>
       <c r="C14" s="177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D14" s="177" t="s">
         <v>123</v>
@@ -5757,7 +5747,7 @@
         <v>122</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="16">
@@ -5937,84 +5927,84 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75">
+    <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="D28" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="42"/>
       <c r="G28" s="16">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25">
-      <c r="A29" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="48" t="s">
+      <c r="A29" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="42"/>
+      <c r="E29" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="53"/>
       <c r="G29" s="16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="47.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75">
       <c r="A30" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="16">
         <v>124</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="79" t="s">
-        <v>120</v>
+      <c r="B31" s="86" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="37"/>
       <c r="G31" s="16">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6022,10 +6012,10 @@
         <v>147</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>123</v>
@@ -6033,7 +6023,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="37"/>
       <c r="G32" s="16">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6041,10 +6031,10 @@
         <v>147</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D33" s="47" t="s">
         <v>123</v>
@@ -6052,56 +6042,56 @@
       <c r="E33" s="41"/>
       <c r="F33" s="37"/>
       <c r="G33" s="16">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="86" t="s">
-        <v>181</v>
+      <c r="B34" s="79" t="s">
+        <v>151</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="37"/>
       <c r="G34" s="16">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="31.5">
       <c r="A35" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="79" t="s">
-        <v>151</v>
+      <c r="B35" s="86" t="s">
+        <v>280</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="37"/>
       <c r="G35" s="16">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="31.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="86" t="s">
         <v>147</v>
       </c>
       <c r="B36" s="86" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>123</v>
@@ -6109,26 +6099,26 @@
       <c r="E36" s="41"/>
       <c r="F36" s="37"/>
       <c r="G36" s="16">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75">
       <c r="A37" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="37"/>
+      <c r="B37" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="61"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="16">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18.75">
@@ -6136,10 +6126,10 @@
         <v>147</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>122</v>
@@ -6147,136 +6137,136 @@
       <c r="E38" s="61"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="63">
       <c r="A39" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="46" t="s">
+      <c r="B39" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" s="42"/>
       <c r="G39" s="16">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="215" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="215" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="210" t="s">
-        <v>475</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="37"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="63">
+      <c r="A40" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="52"/>
       <c r="G40" s="16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="63">
-      <c r="A41" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="A41" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="182" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="F41" s="42"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="185"/>
       <c r="G41" s="16">
-        <v>141</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="14" customFormat="1" ht="63">
       <c r="A42" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="182" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="184"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" ht="18.75">
+      <c r="A43" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="186" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="187"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="A44" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" s="186" t="s">
         <v>369</v>
       </c>
-      <c r="B42" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="54" t="s">
+      <c r="C44" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="D42" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="16">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" ht="31.5">
-      <c r="A43" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B43" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="182" t="s">
-        <v>371</v>
-      </c>
-      <c r="D43" s="183" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="184"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="63">
-      <c r="A44" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B44" s="79" t="s">
-        <v>372</v>
-      </c>
-      <c r="C44" s="182" t="s">
-        <v>373</v>
       </c>
       <c r="D44" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="184"/>
-      <c r="F44" s="185"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="188"/>
       <c r="G44" s="16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="63">
       <c r="A45" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B45" s="186" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D45" s="183" t="s">
         <v>123</v>
@@ -6284,56 +6274,56 @@
       <c r="E45" s="187"/>
       <c r="F45" s="188"/>
       <c r="G45" s="16">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A46" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B46" s="186" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D46" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="187"/>
-      <c r="F46" s="188"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="185"/>
       <c r="G46" s="16">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="63">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A47" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B47" s="186" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D47" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="187"/>
-      <c r="F47" s="188"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="185"/>
       <c r="G47" s="16">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A48" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B48" s="186" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D48" s="183" t="s">
         <v>123</v>
@@ -6341,37 +6331,39 @@
       <c r="E48" s="184"/>
       <c r="F48" s="185"/>
       <c r="G48" s="16">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A49" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B49" s="186" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D49" s="183" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="184"/>
-      <c r="F49" s="185"/>
+      <c r="F49" s="185" t="s">
+        <v>146</v>
+      </c>
       <c r="G49" s="16">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A50" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B50" s="186" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D50" s="183" t="s">
         <v>123</v>
@@ -6379,172 +6371,170 @@
       <c r="E50" s="184"/>
       <c r="F50" s="185"/>
       <c r="G50" s="16">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A51" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B51" s="186" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D51" s="183" t="s">
         <v>123</v>
       </c>
       <c r="E51" s="184"/>
-      <c r="F51" s="185" t="s">
-        <v>146</v>
-      </c>
+      <c r="F51" s="185"/>
       <c r="G51" s="16">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A52" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B52" s="186" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="D52" s="183" t="s">
-        <v>123</v>
+        <v>386</v>
+      </c>
+      <c r="D52" s="189" t="s">
+        <v>122</v>
       </c>
       <c r="E52" s="184"/>
       <c r="F52" s="185"/>
       <c r="G52" s="16">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A53" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B53" s="186" t="s">
-        <v>390</v>
+        <v>362</v>
+      </c>
+      <c r="B53" s="190" t="s">
+        <v>387</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="D53" s="183" t="s">
-        <v>123</v>
+        <v>388</v>
+      </c>
+      <c r="D53" s="189" t="s">
+        <v>122</v>
       </c>
       <c r="E53" s="184"/>
       <c r="F53" s="185"/>
       <c r="G53" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A54" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B54" s="186" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D54" s="189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="184"/>
       <c r="F54" s="185"/>
       <c r="G54" s="16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A55" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B55" s="190" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55" s="186" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" s="183" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="14" customFormat="1" ht="18.75">
+      <c r="A56" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="186" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="D55" s="189" t="s">
+      <c r="D56" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="184"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="16">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="14" customFormat="1" ht="31.5">
-      <c r="A56" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" s="186" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D56" s="189" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="184"/>
-      <c r="F56" s="185"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="16">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A57" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B57" s="186" t="s">
-        <v>398</v>
+        <v>362</v>
+      </c>
+      <c r="B57" s="190" t="s">
+        <v>15</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="D57" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="46" t="s">
         <v>122</v>
       </c>
       <c r="E57" s="61"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A58" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B58" s="186" t="s">
-        <v>400</v>
+        <v>362</v>
+      </c>
+      <c r="B58" s="190" t="s">
+        <v>267</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D58" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>122</v>
       </c>
       <c r="E58" s="61"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A59" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B59" s="190" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="46" t="s">
         <v>122</v>
@@ -6552,174 +6542,174 @@
       <c r="E59" s="61"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A60" s="89" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B60" s="190" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60" s="61"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A61" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B61" s="190" t="s">
-        <v>266</v>
+        <v>362</v>
+      </c>
+      <c r="B61" s="186" t="s">
+        <v>395</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" s="189" t="s">
         <v>122</v>
       </c>
       <c r="E61" s="61"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A62" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B62" s="190" t="s">
-        <v>14</v>
+        <v>362</v>
+      </c>
+      <c r="B62" s="186" t="s">
+        <v>397</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D62" s="189" t="s">
         <v>123</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A63" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B63" s="186" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="14" customFormat="1" ht="47.25">
+      <c r="A64" s="191" t="s">
         <v>402</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="B64" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="D63" s="189" t="s">
+      <c r="D64" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="61"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="18.75">
-      <c r="A64" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B64" s="186" t="s">
+      <c r="E64" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="53"/>
+      <c r="G64" s="16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="14" customFormat="1" ht="18.75">
+      <c r="A65" s="191" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="192" t="s">
         <v>404</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="D65" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="194"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="16">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="14" customFormat="1" ht="18.75">
+      <c r="A66" s="191" t="s">
+        <v>402</v>
+      </c>
+      <c r="B66" s="196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="192" t="s">
         <v>405</v>
       </c>
-      <c r="D64" s="189" t="s">
+      <c r="D66" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="61"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A65" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B65" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="63" t="s">
-        <v>407</v>
-      </c>
-      <c r="F65" s="42"/>
-      <c r="G65" s="16">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A66" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B66" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="D66" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="53"/>
+      <c r="E66" s="194"/>
+      <c r="F66" s="195"/>
       <c r="G66" s="16">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A67" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B67" s="79" t="s">
-        <v>120</v>
+        <v>402</v>
+      </c>
+      <c r="B67" s="196" t="s">
+        <v>7</v>
       </c>
       <c r="C67" s="192" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D67" s="193" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67" s="194"/>
       <c r="F67" s="195"/>
       <c r="G67" s="16">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A68" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B68" s="196" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C68" s="192" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D68" s="193" t="s">
         <v>123</v>
@@ -6727,18 +6717,18 @@
       <c r="E68" s="194"/>
       <c r="F68" s="195"/>
       <c r="G68" s="16">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A69" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B69" s="196" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C69" s="192" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D69" s="193" t="s">
         <v>123</v>
@@ -6746,56 +6736,56 @@
       <c r="E69" s="194"/>
       <c r="F69" s="195"/>
       <c r="G69" s="16">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A70" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B70" s="196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="192" t="s">
-        <v>414</v>
-      </c>
-      <c r="D70" s="193" t="s">
-        <v>123</v>
+        <v>402</v>
+      </c>
+      <c r="B70" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="197" t="s">
+        <v>122</v>
       </c>
       <c r="E70" s="194"/>
       <c r="F70" s="195"/>
       <c r="G70" s="16">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A71" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B71" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="192" t="s">
-        <v>415</v>
-      </c>
-      <c r="D71" s="193" t="s">
-        <v>123</v>
+        <v>402</v>
+      </c>
+      <c r="B71" s="190" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="197" t="s">
+        <v>122</v>
       </c>
       <c r="E71" s="194"/>
       <c r="F71" s="195"/>
       <c r="G71" s="16">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A72" s="191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B72" s="190" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D72" s="197" t="s">
         <v>122</v>
@@ -6803,136 +6793,136 @@
       <c r="E72" s="194"/>
       <c r="F72" s="195"/>
       <c r="G72" s="16">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A73" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B73" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>127</v>
+        <v>402</v>
+      </c>
+      <c r="B73" s="196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="192" t="s">
+        <v>129</v>
       </c>
       <c r="D73" s="197" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E73" s="194"/>
       <c r="F73" s="195"/>
       <c r="G73" s="16">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A74" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74" s="190" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" s="197" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
+      <c r="E74" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" s="42"/>
       <c r="G74" s="16">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" ht="18.75">
-      <c r="A75" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B75" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="197" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="194"/>
-      <c r="F75" s="195"/>
+      <c r="A75" s="198" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D75" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="53"/>
       <c r="G75" s="16">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A76" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="B76" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="A76" s="198" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F76" s="42"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="16">
-        <v>168</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A77" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B77" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>423</v>
-      </c>
-      <c r="D77" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="53"/>
+        <v>415</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="61"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="16">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A78" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B78" s="79" t="s">
-        <v>120</v>
+        <v>415</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>12</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="60"/>
-      <c r="F78" s="53"/>
+        <v>123</v>
+      </c>
+      <c r="E78" s="61"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="16">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A79" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="D79" s="49" t="s">
         <v>123</v>
@@ -6940,18 +6930,18 @@
       <c r="E79" s="61"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A80" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B80" s="81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D80" s="49" t="s">
         <v>123</v>
@@ -6959,75 +6949,75 @@
       <c r="E80" s="61"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A81" s="198" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="199" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="200" t="s">
         <v>422</v>
       </c>
-      <c r="B81" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>426</v>
-      </c>
       <c r="D81" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81" s="61"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A82" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B82" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>427</v>
+        <v>415</v>
+      </c>
+      <c r="B82" s="199" t="s">
+        <v>423</v>
+      </c>
+      <c r="C82" s="200" t="s">
+        <v>424</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82" s="61"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="14" customFormat="1" ht="78.75">
       <c r="A83" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B83" s="199" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C83" s="200" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="E83" s="61"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A84" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B84" s="199" t="s">
-        <v>430</v>
-      </c>
-      <c r="C84" s="200" t="s">
-        <v>431</v>
+        <v>415</v>
+      </c>
+      <c r="B84" s="201" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="202" t="s">
+        <v>429</v>
       </c>
       <c r="D84" s="49" t="s">
         <v>122</v>
@@ -7035,37 +7025,37 @@
       <c r="E84" s="61"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="78.75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A85" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B85" s="199" t="s">
-        <v>432</v>
-      </c>
-      <c r="C85" s="200" t="s">
-        <v>433</v>
+        <v>415</v>
+      </c>
+      <c r="B85" s="201" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" s="202" t="s">
+        <v>431</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
       <c r="E85" s="61"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A86" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B86" s="201" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C86" s="202" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D86" s="49" t="s">
         <v>122</v>
@@ -7073,18 +7063,18 @@
       <c r="E86" s="61"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A87" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B87" s="201" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C87" s="202" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>122</v>
@@ -7092,113 +7082,113 @@
       <c r="E87" s="61"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A88" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B88" s="201" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C88" s="202" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="E88" s="61"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A89" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B89" s="201" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C89" s="202" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="E89" s="61"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A90" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B90" s="201" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C90" s="202" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E90" s="61"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A91" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B91" s="201" t="s">
-        <v>445</v>
-      </c>
-      <c r="C91" s="202" t="s">
-        <v>446</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="B91" s="203" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="182" t="s">
+        <v>443</v>
+      </c>
+      <c r="D91" s="204" t="s">
+        <v>122</v>
       </c>
       <c r="E91" s="61"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A92" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B92" s="201" t="s">
-        <v>447</v>
-      </c>
-      <c r="C92" s="202" t="s">
-        <v>448</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="B92" s="203" t="s">
+        <v>444</v>
+      </c>
+      <c r="C92" s="182" t="s">
+        <v>445</v>
+      </c>
+      <c r="D92" s="204" t="s">
+        <v>122</v>
       </c>
       <c r="E92" s="61"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A93" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B93" s="203" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C93" s="182" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D93" s="204" t="s">
         <v>122</v>
@@ -7206,18 +7196,18 @@
       <c r="E93" s="61"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A94" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B94" s="203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C94" s="182" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D94" s="204" t="s">
         <v>122</v>
@@ -7225,132 +7215,132 @@
       <c r="E94" s="61"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A95" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B95" s="203" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C95" s="182" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D95" s="204" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="E95" s="61"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A96" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B96" s="203" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C96" s="182" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D96" s="204" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="E96" s="61"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A97" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B97" s="203" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C97" s="182" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D97" s="204" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E97" s="61"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A98" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B98" s="203" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C98" s="182" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D98" s="204" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A99" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B99" s="203" t="s">
-        <v>461</v>
-      </c>
-      <c r="C99" s="182" t="s">
-        <v>462</v>
-      </c>
-      <c r="D99" s="204" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="E99" s="61"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A100" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B100" s="203" t="s">
-        <v>463</v>
-      </c>
-      <c r="C100" s="182" t="s">
-        <v>464</v>
-      </c>
-      <c r="D100" s="204" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="B100" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="E100" s="61"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A101" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B101" s="44" t="s">
-        <v>8</v>
+        <v>415</v>
+      </c>
+      <c r="B101" s="190" t="s">
+        <v>267</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>122</v>
@@ -7358,18 +7348,18 @@
       <c r="E101" s="61"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A102" s="198" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B102" s="190" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>122</v>
@@ -7377,108 +7367,70 @@
       <c r="E102" s="61"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A103" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B103" s="190" t="s">
-        <v>267</v>
+        <v>415</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>127</v>
+        <v>458</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E103" s="61"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A104" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B104" s="190" t="s">
-        <v>266</v>
+        <v>415</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>459</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>126</v>
+        <v>460</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E104" s="61"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A105" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B105" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="D105" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="16"/>
+        <v>415</v>
+      </c>
+      <c r="B105" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="205" t="s">
+        <v>462</v>
+      </c>
+      <c r="F105" s="42"/>
       <c r="G105" s="16">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" ht="31.5">
-      <c r="A106" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="D106" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E106" s="61"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="14" customFormat="1" ht="126">
-      <c r="A107" s="198" t="s">
-        <v>422</v>
-      </c>
-      <c r="B107" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>468</v>
-      </c>
-      <c r="D107" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107" s="205" t="s">
-        <v>469</v>
-      </c>
-      <c r="F107" s="42"/>
-      <c r="G107" s="16">
         <v>386</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7489,7 +7441,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7549,10 +7501,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>88</v>
@@ -7575,7 +7527,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -7634,58 +7586,58 @@
         <v>7</v>
       </c>
       <c r="G1" s="199" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="199" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="199" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="201" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="199" t="s">
+      <c r="K1" s="201" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="199" t="s">
+      <c r="L1" s="201" t="s">
         <v>432</v>
       </c>
-      <c r="J1" s="201" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="201" t="s">
-        <v>437</v>
-      </c>
-      <c r="L1" s="201" t="s">
-        <v>439</v>
-      </c>
       <c r="M1" s="201" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="N1" s="201" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="O1" s="201" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P1" s="201" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="Q1" s="203" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="R1" s="203" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="S1" s="203" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="T1" s="203" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="U1" s="203" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="V1" s="203" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="W1" s="203" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="X1" s="203" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="Y1" s="44" t="s">
         <v>8</v>
@@ -7703,7 +7655,7 @@
         <v>14</v>
       </c>
       <c r="AD1" s="44" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AE1" s="81" t="s">
         <v>9</v>
@@ -7723,10 +7675,10 @@
         <v>43769</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -7755,7 +7707,7 @@
       </c>
       <c r="AB2" s="92"/>
       <c r="AC2" s="92" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AD2" s="92"/>
       <c r="AE2" s="92"/>
@@ -7905,54 +7857,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="229" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
+      <c r="A1" s="222" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
     </row>
     <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="216" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
+      <c r="A2" s="218" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
     </row>
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="121"/>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
-      <c r="D3" s="230" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
+      <c r="D3" s="223" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
       <c r="K3" s="122"/>
       <c r="L3" s="123"/>
       <c r="M3" s="123"/>
@@ -7974,50 +7926,50 @@
     </row>
     <row r="5" spans="1:14" s="127" customFormat="1" ht="78.75">
       <c r="A5" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="D5" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="E5" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="F5" s="126" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>328</v>
-      </c>
-      <c r="F5" s="126" t="s">
-        <v>336</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" s="125" t="s">
-        <v>330</v>
       </c>
       <c r="I5" s="126" t="s">
         <v>177</v>
       </c>
       <c r="J5" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="126" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="M5" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="L5" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="M5" s="126" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="6" spans="1:14" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="224">
+      <c r="B6" s="226">
         <v>0.2</v>
       </c>
       <c r="C6" s="173" t="s">
@@ -8052,8 +8004,8 @@
       <c r="M6" s="130"/>
     </row>
     <row r="7" spans="1:14" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="232"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="225"/>
+      <c r="B7" s="227"/>
       <c r="C7" s="174"/>
       <c r="D7" s="167"/>
       <c r="E7" s="19" t="s">
@@ -8082,8 +8034,8 @@
       <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:14" s="127" customFormat="1" ht="31.5">
-      <c r="A8" s="232"/>
-      <c r="B8" s="225"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="175" t="s">
         <v>17</v>
       </c>
@@ -8116,8 +8068,8 @@
       <c r="M8" s="130"/>
     </row>
     <row r="9" spans="1:14" s="127" customFormat="1" ht="31.5">
-      <c r="A9" s="232"/>
-      <c r="B9" s="225"/>
+      <c r="A9" s="225"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="176"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -8146,10 +8098,10 @@
       <c r="M9" s="134"/>
     </row>
     <row r="10" spans="1:14" ht="31.5">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="224">
+      <c r="B10" s="226">
         <v>0.25</v>
       </c>
       <c r="C10" s="168" t="s">
@@ -8182,8 +8134,8 @@
       <c r="M10" s="136"/>
     </row>
     <row r="11" spans="1:14" ht="31.5">
-      <c r="A11" s="223"/>
-      <c r="B11" s="225"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="169"/>
       <c r="D11" s="167"/>
       <c r="E11" s="20" t="s">
@@ -8210,10 +8162,10 @@
       <c r="M11" s="136"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="226" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" s="224">
+      <c r="A12" s="232" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="226">
         <v>0.45</v>
       </c>
       <c r="C12" s="158" t="s">
@@ -8246,8 +8198,8 @@
       <c r="M12" s="139"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="227"/>
-      <c r="B13" s="225"/>
+      <c r="A13" s="233"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="170" t="s">
         <v>20</v>
       </c>
@@ -8278,8 +8230,8 @@
       <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="227"/>
-      <c r="B14" s="225"/>
+      <c r="A14" s="233"/>
+      <c r="B14" s="227"/>
       <c r="C14" s="171"/>
       <c r="D14" s="166"/>
       <c r="E14" s="21" t="s">
@@ -8306,8 +8258,8 @@
       <c r="M14" s="139"/>
     </row>
     <row r="15" spans="1:14" ht="31.5">
-      <c r="A15" s="227"/>
-      <c r="B15" s="225"/>
+      <c r="A15" s="233"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="171"/>
       <c r="D15" s="166"/>
       <c r="E15" s="21" t="s">
@@ -8334,8 +8286,8 @@
       <c r="M15" s="139"/>
     </row>
     <row r="16" spans="1:14" ht="31.5">
-      <c r="A16" s="227"/>
-      <c r="B16" s="225"/>
+      <c r="A16" s="233"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="172"/>
       <c r="D16" s="167"/>
       <c r="E16" s="21" t="s">
@@ -8362,8 +8314,8 @@
       <c r="M16" s="139"/>
     </row>
     <row r="17" spans="1:13" ht="31.5">
-      <c r="A17" s="227"/>
-      <c r="B17" s="225"/>
+      <c r="A17" s="233"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="170" t="s">
         <v>21</v>
       </c>
@@ -8394,8 +8346,8 @@
       <c r="M17" s="139"/>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="227"/>
-      <c r="B18" s="225"/>
+      <c r="A18" s="233"/>
+      <c r="B18" s="227"/>
       <c r="C18" s="171"/>
       <c r="D18" s="166"/>
       <c r="E18" s="21" t="s">
@@ -8422,8 +8374,8 @@
       <c r="M18" s="139"/>
     </row>
     <row r="19" spans="1:13" ht="74.25" customHeight="1">
-      <c r="A19" s="227"/>
-      <c r="B19" s="225"/>
+      <c r="A19" s="233"/>
+      <c r="B19" s="227"/>
       <c r="C19" s="172"/>
       <c r="D19" s="167"/>
       <c r="E19" s="21" t="s">
@@ -8450,8 +8402,8 @@
       <c r="M19" s="139"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A20" s="227"/>
-      <c r="B20" s="225"/>
+      <c r="A20" s="233"/>
+      <c r="B20" s="227"/>
       <c r="C20" s="170" t="s">
         <v>22</v>
       </c>
@@ -8482,8 +8434,8 @@
       <c r="M20" s="139"/>
     </row>
     <row r="21" spans="1:13" ht="31.5">
-      <c r="A21" s="227"/>
-      <c r="B21" s="225"/>
+      <c r="A21" s="233"/>
+      <c r="B21" s="227"/>
       <c r="C21" s="171"/>
       <c r="D21" s="166"/>
       <c r="E21" s="22" t="s">
@@ -8510,8 +8462,8 @@
       <c r="M21" s="139"/>
     </row>
     <row r="22" spans="1:13" ht="31.5">
-      <c r="A22" s="227"/>
-      <c r="B22" s="225"/>
+      <c r="A22" s="233"/>
+      <c r="B22" s="227"/>
       <c r="C22" s="171"/>
       <c r="D22" s="166"/>
       <c r="E22" s="22" t="s">
@@ -8538,8 +8490,8 @@
       <c r="M22" s="140"/>
     </row>
     <row r="23" spans="1:13" ht="31.5">
-      <c r="A23" s="227"/>
-      <c r="B23" s="225"/>
+      <c r="A23" s="233"/>
+      <c r="B23" s="227"/>
       <c r="C23" s="171"/>
       <c r="D23" s="166"/>
       <c r="E23" s="21" t="s">
@@ -8566,8 +8518,8 @@
       <c r="M23" s="140"/>
     </row>
     <row r="24" spans="1:13" ht="31.5">
-      <c r="A24" s="227"/>
-      <c r="B24" s="228"/>
+      <c r="A24" s="233"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="172"/>
       <c r="D24" s="167"/>
       <c r="E24" s="21" t="s">
@@ -8594,10 +8546,10 @@
       <c r="M24" s="140"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A25" s="220" t="s">
+      <c r="A25" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="222">
+      <c r="B25" s="230">
         <v>0.1</v>
       </c>
       <c r="C25" s="162" t="s">
@@ -8630,8 +8582,8 @@
       <c r="M25" s="142"/>
     </row>
     <row r="26" spans="1:13" ht="31.5">
-      <c r="A26" s="221"/>
-      <c r="B26" s="222"/>
+      <c r="A26" s="229"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="163"/>
       <c r="D26" s="166"/>
       <c r="E26" s="23" t="s">
@@ -8658,8 +8610,8 @@
       <c r="M26" s="142"/>
     </row>
     <row r="27" spans="1:13" ht="47.25">
-      <c r="A27" s="221"/>
-      <c r="B27" s="222"/>
+      <c r="A27" s="229"/>
+      <c r="B27" s="230"/>
       <c r="C27" s="163"/>
       <c r="D27" s="166"/>
       <c r="E27" s="24" t="s">
@@ -8686,8 +8638,8 @@
       <c r="M27" s="142"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A28" s="221"/>
-      <c r="B28" s="222"/>
+      <c r="A28" s="229"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="163"/>
       <c r="D28" s="166"/>
       <c r="E28" s="24" t="s">
@@ -8714,8 +8666,8 @@
       <c r="M28" s="142"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A29" s="221"/>
-      <c r="B29" s="222"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="230"/>
       <c r="C29" s="164"/>
       <c r="D29" s="167"/>
       <c r="E29" s="24" t="s">
@@ -8742,8 +8694,8 @@
       <c r="M29" s="144"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A30" s="221"/>
-      <c r="B30" s="222"/>
+      <c r="A30" s="229"/>
+      <c r="B30" s="230"/>
       <c r="C30" s="156" t="s">
         <v>24</v>
       </c>
@@ -8774,8 +8726,8 @@
       <c r="M30" s="144"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A31" s="221"/>
-      <c r="B31" s="222"/>
+      <c r="A31" s="229"/>
+      <c r="B31" s="230"/>
       <c r="C31" s="162" t="s">
         <v>25</v>
       </c>
@@ -8806,8 +8758,8 @@
       <c r="M31" s="144"/>
     </row>
     <row r="32" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A32" s="221"/>
-      <c r="B32" s="222"/>
+      <c r="A32" s="229"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="164"/>
       <c r="D32" s="167"/>
       <c r="E32" s="24" t="s">
@@ -8948,17 +8900,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A24"/>
     <mergeCell ref="B12:B24"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B33:B64 B25 G12:H64 D17:D64 G6:H10 D10:D13 B10:B12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
@@ -9001,53 +8953,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="218" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+    </row>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="219" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="220" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-    </row>
-    <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="217" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="218" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1">
       <c r="A5" s="76" t="s">
         <v>279</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>273</v>
@@ -9056,7 +9008,7 @@
         <v>177</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="77" t="s">
         <v>274</v>
@@ -9112,7 +9064,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B8" s="113" t="s">
         <v>26</v>
@@ -9146,7 +9098,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B9" s="113" t="s">
         <v>27</v>
@@ -9183,7 +9135,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C10" s="98">
         <v>0.1</v>
@@ -9198,7 +9150,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="116" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B11" s="113" t="s">
         <v>28</v>
@@ -9232,7 +9184,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="116" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B12" s="113" t="s">
         <v>29</v>
@@ -9302,7 +9254,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B15" s="113" t="s">
         <v>30</v>
@@ -9336,7 +9288,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B16" s="113" t="s">
         <v>31</v>
@@ -9373,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" s="95">
         <v>0.45</v>
@@ -9406,7 +9358,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B19" s="113" t="s">
         <v>32</v>
@@ -9440,7 +9392,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="89" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B20" s="113" t="s">
         <v>33</v>
@@ -9492,7 +9444,7 @@
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1">
       <c r="A22" s="89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B22" s="113" t="s">
         <v>32</v>
@@ -9526,7 +9478,7 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
       <c r="A23" s="89" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B23" s="113" t="s">
         <v>33</v>
@@ -9596,7 +9548,7 @@
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1">
       <c r="A26" s="89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B26" s="113" t="s">
         <v>50</v>
@@ -9631,7 +9583,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="16"/>
       <c r="B27" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C27" s="119">
         <v>1</v>
@@ -9690,67 +9642,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="216" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
+      <c r="A1" s="218" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="217" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
+      <c r="A2" s="219" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="219" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
+      <c r="A3" s="221" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="219" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
+      <c r="A4" s="221" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="76" t="s">
         <v>279</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" s="76" t="s">
         <v>273</v>
@@ -9759,7 +9711,7 @@
         <v>177</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F6" s="77" t="s">
         <v>274</v>
@@ -9782,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="95">
         <v>0.2</v>
@@ -9800,7 +9752,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" s="98">
         <v>0.1</v>
@@ -9852,7 +9804,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10" s="101">
         <v>0.04</v>
@@ -9886,7 +9838,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C11" s="101">
         <v>0.04</v>
@@ -9988,7 +9940,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C14" s="107">
         <v>0.25</v>
@@ -10074,7 +10026,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C17" s="95">
         <v>0.45</v>
@@ -10294,7 +10246,7 @@
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="16"/>
       <c r="B24" s="110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C24" s="112">
         <v>1</v>
@@ -10311,16 +10263,16 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="G26" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
+      <c r="G26" s="221" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
     </row>
     <row r="27" spans="1:10">
       <c r="H27" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10373,81 +10325,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="216" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
+      <c r="A1" s="218" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
     </row>
     <row r="2" spans="1:10" ht="25.5">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="218" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="218" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
+      <c r="A3" s="220" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="219" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
+      <c r="A4" s="221" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="219" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
+      <c r="A5" s="221" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
     </row>
     <row r="7" spans="1:10" ht="47.25">
       <c r="A7" s="76" t="s">
         <v>279</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>273</v>
@@ -10456,7 +10408,7 @@
         <v>177</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F7" s="77" t="s">
         <v>274</v>
@@ -10479,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" s="95">
         <v>0.2</v>
@@ -10497,7 +10449,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C9" s="98">
         <v>0.1</v>
@@ -10549,7 +10501,7 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="101">
         <v>0.04</v>
@@ -10583,7 +10535,7 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C12" s="101">
         <v>0.04</v>
@@ -10685,7 +10637,7 @@
         <v>1.2</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C15" s="107">
         <v>0.25</v>
@@ -10789,7 +10741,7 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C19" s="3">
         <v>0.15</v>
@@ -10823,7 +10775,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C20" s="3">
         <v>0.1</v>
@@ -10855,7 +10807,7 @@
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="16"/>
       <c r="B21" s="110" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C21" s="112">
         <v>1</v>
@@ -10872,16 +10824,16 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="E23" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
+      <c r="E23" s="221" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
     </row>
     <row r="24" spans="1:10">
       <c r="F24" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -11695,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -11734,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -11773,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -11992,13 +11944,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12009,8 +11961,7 @@
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.5" style="206" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="209" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
@@ -12034,10 +11985,10 @@
       <c r="F1" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="216" t="s">
         <v>267</v>
       </c>
       <c r="I1" s="214" t="s">
@@ -12056,110 +12007,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" s="57">
+      <c r="G2" s="217">
         <v>1573185037185</v>
       </c>
-      <c r="H2" s="57"/>
+      <c r="H2" s="217"/>
       <c r="I2" s="208"/>
       <c r="J2" s="179">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="178">
-        <v>20</v>
-      </c>
-      <c r="B3" s="57">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="G3" s="57">
-        <v>1573185037185</v>
-      </c>
-      <c r="H3" s="57">
-        <v>1573185037184</v>
-      </c>
-      <c r="I3" s="208"/>
-      <c r="J3" s="179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="178">
-        <v>21</v>
-      </c>
-      <c r="B4" s="57">
-        <v>1</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="57">
-        <v>1573185051583</v>
-      </c>
-      <c r="H4" s="57">
-        <v>1573185051583</v>
-      </c>
-      <c r="I4" s="208"/>
-      <c r="J4" s="179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="178">
-        <v>22</v>
-      </c>
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1573185071894</v>
-      </c>
-      <c r="H5" s="57">
-        <v>1573185071894</v>
-      </c>
-      <c r="I5" s="208"/>
-      <c r="J5" s="179">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12173,10 +12040,10 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12244,7 +12111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="141.75">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -12258,10 +12125,10 @@
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
       <c r="I2" s="92" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K2" s="92"/>
       <c r="L2" s="207">
@@ -12271,13 +12138,13 @@
         <v>1573185131886</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O2" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="141.75">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1">
       <c r="A3" s="92">
         <v>2</v>
       </c>
@@ -12293,10 +12160,10 @@
       <c r="G3" s="92"/>
       <c r="H3" s="92"/>
       <c r="I3" s="92" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K3" s="92"/>
       <c r="L3" s="207">
@@ -12306,13 +12173,13 @@
         <v>1573185122446</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O3" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="141.75">
+    <row r="4" spans="1:15" ht="23.25" customHeight="1">
       <c r="A4" s="92">
         <v>3</v>
       </c>
@@ -12328,10 +12195,10 @@
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="I4" s="92" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K4" s="92"/>
       <c r="L4" s="207">
@@ -12341,13 +12208,13 @@
         <v>1573185164747</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O4" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="141.75">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1">
       <c r="A5" s="92">
         <v>4</v>
       </c>
@@ -12361,10 +12228,10 @@
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K5" s="92"/>
       <c r="L5" s="207">
@@ -12374,13 +12241,13 @@
         <v>1573185186458</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O5" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="141.75">
+    <row r="6" spans="1:15" ht="20.25" customHeight="1">
       <c r="A6" s="92">
         <v>5</v>
       </c>
@@ -12396,10 +12263,10 @@
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K6" s="92"/>
       <c r="L6" s="207">
@@ -12409,13 +12276,13 @@
         <v>1573185204388</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O6" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="141.75">
+    <row r="7" spans="1:15" ht="20.25" customHeight="1">
       <c r="A7" s="92">
         <v>6</v>
       </c>
@@ -12429,10 +12296,10 @@
       <c r="G7" s="92"/>
       <c r="H7" s="92"/>
       <c r="I7" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="K7" s="92"/>
       <c r="L7" s="207">
@@ -12442,7 +12309,7 @@
         <v>1573185232164</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="O7" s="92">
         <v>1</v>
@@ -12481,10 +12348,10 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12553,7 +12420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="94.5">
+    <row r="2" spans="1:15" ht="22.5" customHeight="1">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -12563,7 +12430,7 @@
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
       <c r="E2" s="92" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
@@ -12571,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J2" s="92"/>
       <c r="K2" s="207">
@@ -12581,14 +12448,14 @@
         <v>1573185282750</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="92">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="94.5">
+    <row r="3" spans="1:15" ht="27" customHeight="1">
       <c r="A3" s="92">
         <v>2</v>
       </c>
@@ -12598,7 +12465,7 @@
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
@@ -12606,7 +12473,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J3" s="92"/>
       <c r="K3" s="207">
@@ -12616,7 +12483,7 @@
         <v>1573185368523</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="92">
@@ -12639,7 +12506,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12662,49 +12529,49 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
@@ -12719,10 +12586,10 @@
         <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="W1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="X1" t="s">
         <v>9</v>
@@ -12730,28 +12597,28 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D2">
         <v>766777123</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="I2">
         <v>766777123</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M2">
         <v>99</v>
@@ -12760,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P2" s="206">
         <v>1590118196428</v>
@@ -12769,7 +12636,7 @@
         <v>1591254395805</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="V2" s="206">
         <v>1573789598191</v>
@@ -12791,6 +12658,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100FB0175F18B01E74491971D89B23F8655" ma:contentTypeVersion="11" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="1a9dc9cdd67a308ba2b2666df5490aa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4c20e182-3cff-46d5-b163-30d344671daf" xmlns:ns4="c86ac200-3bf8-4f3f-9c75-7492a34ff116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3aad754d391d83d543dbc23cf02e780" ns3:_="" ns4:_="">
     <xsd:import namespace="4c20e182-3cff-46d5-b163-30d344671daf"/>
@@ -12999,15 +12875,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F3B173-26E4-4636-A5EB-1C560CB0A9A3}">
   <ds:schemaRefs>
@@ -13026,6 +12893,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10837DA-CF87-48E6-955F-4FAF14545FC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57D61BF-212A-4F3E-921D-E429A3A772FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13042,12 +12917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10837DA-CF87-48E6-955F-4FAF14545FC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db/excel/qlns-database-v1.xlsx
+++ b/db/excel/qlns-database-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E378A0-F0CF-4729-A015-AA4C8DA7E82B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C29781-F45F-42D0-A74F-70100D0A707F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'admin_menu-ver2.0'!$A$1:$Q$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="469">
   <si>
     <t>id</t>
   </si>
@@ -487,9 +487,6 @@
     <t>md-help-circle</t>
   </si>
   <si>
-    <t>INDEX</t>
-  </si>
-  <si>
     <t>staffs</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
   </si>
   <si>
     <t>Mã liên kết của tổ chức cha (theo hình cây)</t>
-  </si>
-  <si>
-    <t>Mã tổ chức gốc (Đơn vị kiểu công ty độc lập)</t>
   </si>
   <si>
     <t>Tên của tổ chức đó</t>
@@ -1356,9 +1350,6 @@
     <t>{"username":"123456789","time":1573185368523,"ip":"10.151.50.36"}</t>
   </si>
   <si>
-    <t>default 1, FOREIGN KEY (parent_id) REFERENCES organizations(id)  ON DELETE CASCADE, FOREIGN KEY (root_id) REFERENCES organizations(id)  ON DELETE CASCADE</t>
-  </si>
-  <si>
     <t xml:space="preserve">default 1,  FOREIGN KEY (organization_id) REFERENCES organizations(id),  FOREIGN KEY (job_id) REFERENCES job_roles(id) </t>
   </si>
   <si>
@@ -1684,6 +1675,12 @@
   </si>
   <si>
     <t xml:space="preserve"> UNIQUE</t>
+  </si>
+  <si>
+    <t>default 1, FOREIGN KEY (parent_id) REFERENCES organizations(id)</t>
+  </si>
+  <si>
+    <t>changed_date</t>
   </si>
 </sst>
 </file>
@@ -3354,7 +3351,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3918,9 +3915,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5379,13 +5373,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5395,7 +5389,7 @@
     <col min="3" max="3" width="49.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="10"/>
   </cols>
@@ -5425,34 +5419,32 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="66"/>
-      <c r="F2" s="67" t="s">
-        <v>146</v>
-      </c>
+      <c r="F2" s="67"/>
       <c r="G2" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>123</v>
@@ -5465,13 +5457,13 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>123</v>
@@ -5484,13 +5476,13 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>123</v>
@@ -5503,13 +5495,13 @@
     </row>
     <row r="6" spans="1:7" ht="45">
       <c r="A6" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>123</v>
@@ -5522,13 +5514,13 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>123</v>
@@ -5541,19 +5533,19 @@
     </row>
     <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="16">
@@ -5562,13 +5554,13 @@
     </row>
     <row r="9" spans="1:7" ht="47.25">
       <c r="A9" s="86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="87" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>122</v>
@@ -5578,18 +5570,18 @@
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="16">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>122</v>
@@ -5597,96 +5589,96 @@
       <c r="E10" s="62"/>
       <c r="F10" s="40"/>
       <c r="G10" s="16">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="62"/>
+        <v>123</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>466</v>
+      </c>
       <c r="F11" s="40"/>
       <c r="G11" s="16">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>469</v>
-      </c>
+      <c r="E12" s="62"/>
       <c r="F12" s="40"/>
       <c r="G12" s="16">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" s="177" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="40"/>
       <c r="G13" s="16">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="177" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="177" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="40"/>
+        <v>153</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="16">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>122</v>
@@ -5694,96 +5686,98 @@
       <c r="E15" s="61"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
-      <c r="A16" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="46" t="s">
+      <c r="A16" s="214" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="210" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="213"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
+      <c r="A17" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="215" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="214" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="210" t="s">
+      <c r="E17" s="63" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="63">
+      <c r="A18" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="51">
-      <c r="A18" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75">
+      <c r="A19" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63">
-      <c r="A19" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="53"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="16">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="63">
       <c r="A20" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>234</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>122</v>
@@ -5791,37 +5785,37 @@
       <c r="E20" s="61"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75">
       <c r="A21" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>236</v>
-      </c>
       <c r="D21" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="61"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75">
       <c r="A22" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>123</v>
@@ -5829,18 +5823,18 @@
       <c r="E22" s="61"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75">
       <c r="A23" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>123</v>
@@ -5848,15 +5842,15 @@
       <c r="E23" s="61"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75">
       <c r="A24" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>7</v>
+        <v>468</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>165</v>
@@ -5867,37 +5861,37 @@
       <c r="E24" s="61"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75">
       <c r="A25" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="61"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75">
       <c r="A26" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>122</v>
@@ -5905,98 +5899,98 @@
       <c r="E26" s="61"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="42"/>
       <c r="G27" s="16">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="47.25">
-      <c r="A28" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="48" t="s">
+      <c r="A28" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="42"/>
+      <c r="E28" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="53"/>
       <c r="G28" s="16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="47.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75">
       <c r="A29" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="53"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="79" t="s">
-        <v>120</v>
+        <v>146</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>11</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="37"/>
       <c r="G30" s="16">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>123</v>
@@ -6004,18 +5998,18 @@
       <c r="E31" s="41"/>
       <c r="F31" s="37"/>
       <c r="G31" s="16">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>123</v>
@@ -6023,56 +6017,56 @@
       <c r="E32" s="41"/>
       <c r="F32" s="37"/>
       <c r="G32" s="16">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75">
       <c r="A33" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>181</v>
+        <v>146</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>150</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="37"/>
       <c r="G33" s="16">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.5">
       <c r="A34" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>153</v>
-      </c>
       <c r="D34" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="37"/>
       <c r="G34" s="16">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="31.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>147</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>123</v>
@@ -6080,37 +6074,37 @@
       <c r="E35" s="41"/>
       <c r="F35" s="37"/>
       <c r="G35" s="16">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75">
       <c r="A36" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="37"/>
+        <v>146</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="16">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.75">
       <c r="A37" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="46" t="s">
         <v>122</v>
@@ -6118,117 +6112,117 @@
       <c r="E37" s="61"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="63">
       <c r="A38" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" s="42"/>
       <c r="G38" s="16">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="63">
-      <c r="A39" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="14" customFormat="1" ht="63">
+      <c r="A39" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="A40" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="B40" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="182" t="s">
         <v>361</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="16">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" ht="63">
-      <c r="A40" s="89" t="s">
+      <c r="D40" s="183" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="184"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="14" customFormat="1" ht="63">
+      <c r="A41" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="B41" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="B40" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="54" t="s">
+      <c r="C41" s="182" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="16">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" ht="31.5">
-      <c r="A41" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="182" t="s">
-        <v>364</v>
-      </c>
       <c r="D41" s="183" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="184"/>
       <c r="F41" s="185"/>
       <c r="G41" s="16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" ht="63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A42" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B42" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="186" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C42" s="182" t="s">
-        <v>366</v>
       </c>
       <c r="D42" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="184"/>
-      <c r="F42" s="185"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="188"/>
       <c r="G42" s="16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A43" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B43" s="186" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D43" s="183" t="s">
         <v>123</v>
@@ -6236,18 +6230,18 @@
       <c r="E43" s="187"/>
       <c r="F43" s="188"/>
       <c r="G43" s="16">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="63">
       <c r="A44" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B44" s="186" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="D44" s="183" t="s">
         <v>123</v>
@@ -6255,37 +6249,37 @@
       <c r="E44" s="187"/>
       <c r="F44" s="188"/>
       <c r="G44" s="16">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="63">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A45" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B45" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="D45" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="187"/>
-      <c r="F45" s="188"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="185"/>
       <c r="G45" s="16">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A46" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B46" s="186" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>373</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>374</v>
       </c>
       <c r="D46" s="183" t="s">
         <v>123</v>
@@ -6293,18 +6287,18 @@
       <c r="E46" s="184"/>
       <c r="F46" s="185"/>
       <c r="G46" s="16">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A47" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B47" s="186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="D47" s="183" t="s">
         <v>123</v>
@@ -6312,18 +6306,18 @@
       <c r="E47" s="184"/>
       <c r="F47" s="185"/>
       <c r="G47" s="16">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A48" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B48" s="186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="D48" s="183" t="s">
         <v>123</v>
@@ -6331,39 +6325,37 @@
       <c r="E48" s="184"/>
       <c r="F48" s="185"/>
       <c r="G48" s="16">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A49" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B49" s="186" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="D49" s="183" t="s">
         <v>123</v>
       </c>
       <c r="E49" s="184"/>
-      <c r="F49" s="185" t="s">
-        <v>146</v>
-      </c>
+      <c r="F49" s="185"/>
       <c r="G49" s="16">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A50" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B50" s="186" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>381</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>382</v>
       </c>
       <c r="D50" s="183" t="s">
         <v>123</v>
@@ -6371,37 +6363,37 @@
       <c r="E50" s="184"/>
       <c r="F50" s="185"/>
       <c r="G50" s="16">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A51" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B51" s="186" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D51" s="183" t="s">
-        <v>123</v>
+      <c r="D51" s="189" t="s">
+        <v>122</v>
       </c>
       <c r="E51" s="184"/>
       <c r="F51" s="185"/>
       <c r="G51" s="16">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A52" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B52" s="186" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" s="190" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>385</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>386</v>
       </c>
       <c r="D52" s="189" t="s">
         <v>122</v>
@@ -6409,56 +6401,56 @@
       <c r="E52" s="184"/>
       <c r="F52" s="185"/>
       <c r="G52" s="16">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A53" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B53" s="190" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="186" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>388</v>
-      </c>
       <c r="D53" s="189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" s="184"/>
       <c r="F53" s="185"/>
       <c r="G53" s="16">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A54" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B54" s="186" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D54" s="189" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="184"/>
-      <c r="F54" s="185"/>
+      <c r="D54" s="183" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="61"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="16">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A55" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B55" s="186" t="s">
+        <v>390</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>392</v>
       </c>
       <c r="D55" s="183" t="s">
         <v>122</v>
@@ -6466,37 +6458,37 @@
       <c r="E55" s="61"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A56" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B56" s="186" t="s">
-        <v>393</v>
+        <v>359</v>
+      </c>
+      <c r="B56" s="190" t="s">
+        <v>15</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="D56" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>122</v>
       </c>
       <c r="E56" s="61"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A57" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B57" s="190" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="46" t="s">
         <v>122</v>
@@ -6504,18 +6496,18 @@
       <c r="E57" s="61"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A58" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B58" s="190" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>122</v>
@@ -6523,155 +6515,155 @@
       <c r="E58" s="61"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A59" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B59" s="190" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E59" s="61"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A60" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B60" s="190" t="s">
-        <v>14</v>
+        <v>359</v>
+      </c>
+      <c r="B60" s="186" t="s">
+        <v>392</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>123</v>
+        <v>393</v>
+      </c>
+      <c r="D60" s="189" t="s">
+        <v>122</v>
       </c>
       <c r="E60" s="61"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A61" s="89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B61" s="186" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>396</v>
-      </c>
       <c r="D61" s="189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" s="61"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A62" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B62" s="186" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" s="189" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="61"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="16">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A63" s="89" t="s">
-        <v>362</v>
-      </c>
-      <c r="B63" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="51" t="s">
+      <c r="A63" s="191" t="s">
         <v>399</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="B63" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="F63" s="42"/>
+      <c r="E63" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="53"/>
       <c r="G63" s="16">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A64" s="191" t="s">
-        <v>402</v>
-      </c>
-      <c r="B64" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>403</v>
-      </c>
-      <c r="D64" s="181" t="s">
+        <v>399</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="192" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="53"/>
+      <c r="E64" s="194"/>
+      <c r="F64" s="195"/>
       <c r="G64" s="16">
-        <v>158</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A65" s="191" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65" s="196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="192" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="192" t="s">
-        <v>404</v>
-      </c>
       <c r="D65" s="193" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65" s="194"/>
       <c r="F65" s="195"/>
       <c r="G65" s="16">
-        <v>159</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A66" s="191" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B66" s="196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C66" s="192" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D66" s="193" t="s">
         <v>123</v>
@@ -6679,18 +6671,18 @@
       <c r="E66" s="194"/>
       <c r="F66" s="195"/>
       <c r="G66" s="16">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A67" s="191" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B67" s="196" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C67" s="192" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D67" s="193" t="s">
         <v>123</v>
@@ -6698,18 +6690,18 @@
       <c r="E67" s="194"/>
       <c r="F67" s="195"/>
       <c r="G67" s="16">
-        <v>161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A68" s="191" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B68" s="196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="192" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D68" s="193" t="s">
         <v>123</v>
@@ -6717,37 +6709,37 @@
       <c r="E68" s="194"/>
       <c r="F68" s="195"/>
       <c r="G68" s="16">
-        <v>162</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A69" s="191" t="s">
-        <v>402</v>
-      </c>
-      <c r="B69" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="192" t="s">
-        <v>408</v>
-      </c>
-      <c r="D69" s="193" t="s">
-        <v>123</v>
+        <v>399</v>
+      </c>
+      <c r="B69" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="197" t="s">
+        <v>122</v>
       </c>
       <c r="E69" s="194"/>
       <c r="F69" s="195"/>
       <c r="G69" s="16">
-        <v>163</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A70" s="191" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B70" s="190" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D70" s="197" t="s">
         <v>122</v>
@@ -6755,18 +6747,18 @@
       <c r="E70" s="194"/>
       <c r="F70" s="195"/>
       <c r="G70" s="16">
-        <v>164</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A71" s="191" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B71" s="190" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="197" t="s">
         <v>122</v>
@@ -6774,117 +6766,117 @@
       <c r="E71" s="194"/>
       <c r="F71" s="195"/>
       <c r="G71" s="16">
-        <v>165</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A72" s="191" t="s">
-        <v>402</v>
-      </c>
-      <c r="B72" s="190" t="s">
-        <v>266</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>126</v>
+        <v>399</v>
+      </c>
+      <c r="B72" s="196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="192" t="s">
+        <v>129</v>
       </c>
       <c r="D72" s="197" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72" s="194"/>
       <c r="F72" s="195"/>
       <c r="G72" s="16">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A73" s="191" t="s">
-        <v>402</v>
-      </c>
-      <c r="B73" s="196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="197" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="194"/>
-      <c r="F73" s="195"/>
+        <v>399</v>
+      </c>
+      <c r="B73" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" s="42"/>
       <c r="G73" s="16">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="47.25">
-      <c r="A74" s="191" t="s">
-        <v>402</v>
-      </c>
-      <c r="B74" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="14" customFormat="1" ht="18.75">
+      <c r="A74" s="198" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="42"/>
+      <c r="E74" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="53"/>
       <c r="G74" s="16">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A75" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B75" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="D75" s="181" t="s">
+        <v>412</v>
+      </c>
+      <c r="B75" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D75" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E75" s="60" t="s">
-        <v>124</v>
-      </c>
+      <c r="E75" s="60"/>
       <c r="F75" s="53"/>
       <c r="G75" s="16">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A76" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B76" s="79" t="s">
-        <v>120</v>
+        <v>412</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>13</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>417</v>
+        <v>164</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="60"/>
-      <c r="F76" s="53"/>
+        <v>123</v>
+      </c>
+      <c r="E76" s="61"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="16">
-        <v>357</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A77" s="198" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="D77" s="49" t="s">
         <v>123</v>
@@ -6892,18 +6884,18 @@
       <c r="E77" s="61"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16">
-        <v>358</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A78" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B78" s="81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D78" s="49" t="s">
         <v>123</v>
@@ -6911,18 +6903,18 @@
       <c r="E78" s="61"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16">
-        <v>359</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A79" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B79" s="81" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D79" s="49" t="s">
         <v>123</v>
@@ -6930,37 +6922,37 @@
       <c r="E79" s="61"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A80" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B80" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>420</v>
+        <v>412</v>
+      </c>
+      <c r="B80" s="199" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" s="200" t="s">
+        <v>419</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="61"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A81" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B81" s="199" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" s="200" t="s">
         <v>421</v>
-      </c>
-      <c r="C81" s="200" t="s">
-        <v>422</v>
       </c>
       <c r="D81" s="49" t="s">
         <v>122</v>
@@ -6968,56 +6960,56 @@
       <c r="E81" s="61"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="14" customFormat="1" ht="78.75">
       <c r="A82" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B82" s="199" t="s">
+        <v>422</v>
+      </c>
+      <c r="C82" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="C82" s="200" t="s">
+      <c r="D82" s="49" t="s">
         <v>424</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>122</v>
       </c>
       <c r="E82" s="61"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" ht="78.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A83" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B83" s="199" t="s">
+        <v>412</v>
+      </c>
+      <c r="B83" s="201" t="s">
         <v>425</v>
       </c>
-      <c r="C83" s="200" t="s">
+      <c r="C83" s="202" t="s">
         <v>426</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>427</v>
+        <v>122</v>
       </c>
       <c r="E83" s="61"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A84" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B84" s="201" t="s">
+        <v>427</v>
+      </c>
+      <c r="C84" s="202" t="s">
         <v>428</v>
-      </c>
-      <c r="C84" s="202" t="s">
-        <v>429</v>
       </c>
       <c r="D84" s="49" t="s">
         <v>122</v>
@@ -7025,18 +7017,18 @@
       <c r="E84" s="61"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A85" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B85" s="201" t="s">
+        <v>429</v>
+      </c>
+      <c r="C85" s="202" t="s">
         <v>430</v>
-      </c>
-      <c r="C85" s="202" t="s">
-        <v>431</v>
       </c>
       <c r="D85" s="49" t="s">
         <v>122</v>
@@ -7044,18 +7036,18 @@
       <c r="E85" s="61"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A86" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B86" s="201" t="s">
+        <v>431</v>
+      </c>
+      <c r="C86" s="202" t="s">
         <v>432</v>
-      </c>
-      <c r="C86" s="202" t="s">
-        <v>433</v>
       </c>
       <c r="D86" s="49" t="s">
         <v>122</v>
@@ -7063,94 +7055,94 @@
       <c r="E86" s="61"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A87" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B87" s="201" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" s="202" t="s">
         <v>434</v>
       </c>
-      <c r="C87" s="202" t="s">
-        <v>435</v>
-      </c>
       <c r="D87" s="49" t="s">
-        <v>122</v>
+        <v>424</v>
       </c>
       <c r="E87" s="61"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
-        <v>368</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A88" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B88" s="201" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" s="202" t="s">
         <v>436</v>
       </c>
-      <c r="C88" s="202" t="s">
-        <v>437</v>
-      </c>
       <c r="D88" s="49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E88" s="61"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
-        <v>369</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A89" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B89" s="201" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="202" t="s">
         <v>438</v>
       </c>
-      <c r="C89" s="202" t="s">
-        <v>439</v>
-      </c>
       <c r="D89" s="49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E89" s="61"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A90" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B90" s="201" t="s">
+        <v>412</v>
+      </c>
+      <c r="B90" s="203" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="182" t="s">
         <v>440</v>
       </c>
-      <c r="C90" s="202" t="s">
-        <v>441</v>
-      </c>
-      <c r="D90" s="49" t="s">
-        <v>427</v>
+      <c r="D90" s="204" t="s">
+        <v>122</v>
       </c>
       <c r="E90" s="61"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16">
-        <v>371</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A91" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B91" s="203" t="s">
+        <v>441</v>
+      </c>
+      <c r="C91" s="182" t="s">
         <v>442</v>
-      </c>
-      <c r="C91" s="182" t="s">
-        <v>443</v>
       </c>
       <c r="D91" s="204" t="s">
         <v>122</v>
@@ -7158,18 +7150,18 @@
       <c r="E91" s="61"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A92" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B92" s="203" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" s="182" t="s">
         <v>444</v>
-      </c>
-      <c r="C92" s="182" t="s">
-        <v>445</v>
       </c>
       <c r="D92" s="204" t="s">
         <v>122</v>
@@ -7177,18 +7169,18 @@
       <c r="E92" s="61"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16">
-        <v>373</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A93" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B93" s="203" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="182" t="s">
         <v>446</v>
-      </c>
-      <c r="C93" s="182" t="s">
-        <v>447</v>
       </c>
       <c r="D93" s="204" t="s">
         <v>122</v>
@@ -7196,113 +7188,113 @@
       <c r="E93" s="61"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16">
-        <v>374</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A94" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B94" s="203" t="s">
+        <v>447</v>
+      </c>
+      <c r="C94" s="182" t="s">
         <v>448</v>
       </c>
-      <c r="C94" s="182" t="s">
-        <v>449</v>
-      </c>
       <c r="D94" s="204" t="s">
-        <v>122</v>
+        <v>424</v>
       </c>
       <c r="E94" s="61"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16">
-        <v>375</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A95" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B95" s="203" t="s">
+        <v>449</v>
+      </c>
+      <c r="C95" s="182" t="s">
         <v>450</v>
       </c>
-      <c r="C95" s="182" t="s">
-        <v>451</v>
-      </c>
       <c r="D95" s="204" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E95" s="61"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16">
-        <v>376</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A96" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B96" s="203" t="s">
+        <v>451</v>
+      </c>
+      <c r="C96" s="182" t="s">
         <v>452</v>
       </c>
-      <c r="C96" s="182" t="s">
-        <v>453</v>
-      </c>
       <c r="D96" s="204" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E96" s="61"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="14" customFormat="1" ht="47.25">
       <c r="A97" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B97" s="203" t="s">
+        <v>453</v>
+      </c>
+      <c r="C97" s="182" t="s">
         <v>454</v>
       </c>
-      <c r="C97" s="182" t="s">
-        <v>455</v>
-      </c>
       <c r="D97" s="204" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E97" s="61"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" ht="47.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A98" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B98" s="203" t="s">
-        <v>456</v>
-      </c>
-      <c r="C98" s="182" t="s">
-        <v>457</v>
-      </c>
-      <c r="D98" s="204" t="s">
-        <v>427</v>
+        <v>412</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16">
-        <v>379</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A99" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B99" s="44" t="s">
-        <v>8</v>
+        <v>412</v>
+      </c>
+      <c r="B99" s="190" t="s">
+        <v>15</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D99" s="49" t="s">
         <v>122</v>
@@ -7310,18 +7302,18 @@
       <c r="E99" s="61"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16">
-        <v>380</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A100" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B100" s="190" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>122</v>
@@ -7329,18 +7321,18 @@
       <c r="E100" s="61"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16">
-        <v>381</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A101" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B101" s="190" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>122</v>
@@ -7348,37 +7340,37 @@
       <c r="E101" s="61"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16">
-        <v>382</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="14" customFormat="1" ht="18.75">
       <c r="A102" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B102" s="190" t="s">
-        <v>266</v>
+        <v>412</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>126</v>
+        <v>455</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" s="61"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" ht="18.75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="A103" s="198" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>14</v>
+        <v>456</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>123</v>
@@ -7386,51 +7378,32 @@
       <c r="E103" s="61"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" ht="31.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A104" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B104" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="B104" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="D104" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="205" t="s">
         <v>459</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D104" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="61"/>
-      <c r="F104" s="16"/>
+      <c r="F104" s="42"/>
       <c r="G104" s="16">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="14" customFormat="1" ht="126">
-      <c r="A105" s="198" t="s">
-        <v>415</v>
-      </c>
-      <c r="B105" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" s="205" t="s">
-        <v>462</v>
-      </c>
-      <c r="F105" s="42"/>
-      <c r="G105" s="16">
-        <v>386</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7481,7 +7454,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>87</v>
@@ -7501,10 +7474,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>88</v>
@@ -7586,58 +7559,58 @@
         <v>7</v>
       </c>
       <c r="G1" s="199" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I1" s="199" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="201" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="201" t="s">
-        <v>428</v>
-      </c>
       <c r="K1" s="201" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L1" s="201" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M1" s="201" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N1" s="201" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O1" s="201" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P1" s="201" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q1" s="203" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R1" s="203" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="S1" s="203" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="T1" s="203" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="U1" s="203" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="V1" s="203" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="W1" s="203" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="X1" s="203" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y1" s="44" t="s">
         <v>8</v>
@@ -7646,16 +7619,16 @@
         <v>15</v>
       </c>
       <c r="AA1" s="190" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AB1" s="190" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AC1" s="44" t="s">
         <v>14</v>
       </c>
       <c r="AD1" s="44" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AE1" s="81" t="s">
         <v>9</v>
@@ -7675,10 +7648,10 @@
         <v>43769</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -7707,7 +7680,7 @@
       </c>
       <c r="AB2" s="92"/>
       <c r="AC2" s="92" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AD2" s="92"/>
       <c r="AE2" s="92"/>
@@ -7763,7 +7736,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>87</v>
@@ -7857,54 +7830,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="222" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
+      <c r="A1" s="221" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
     </row>
     <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="218" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
+      <c r="A2" s="217" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
     </row>
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="121"/>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
-      <c r="D3" s="223" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
+      <c r="D3" s="222" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
       <c r="K3" s="122"/>
       <c r="L3" s="123"/>
       <c r="M3" s="123"/>
@@ -7926,50 +7899,50 @@
     </row>
     <row r="5" spans="1:14" s="127" customFormat="1" ht="78.75">
       <c r="A5" s="124" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="D5" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="E5" s="126" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="F5" s="126" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="126" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="125" t="s">
+      <c r="I5" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="126" t="s">
         <v>327</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="K5" s="126" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="126" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="126" t="s">
+      <c r="L5" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="M5" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="L5" s="126" t="s">
-        <v>331</v>
-      </c>
-      <c r="M5" s="126" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="6" spans="1:14" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="226">
+      <c r="B6" s="225">
         <v>0.2</v>
       </c>
       <c r="C6" s="173" t="s">
@@ -8004,8 +7977,8 @@
       <c r="M6" s="130"/>
     </row>
     <row r="7" spans="1:14" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="225"/>
-      <c r="B7" s="227"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="174"/>
       <c r="D7" s="167"/>
       <c r="E7" s="19" t="s">
@@ -8034,8 +8007,8 @@
       <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:14" s="127" customFormat="1" ht="31.5">
-      <c r="A8" s="225"/>
-      <c r="B8" s="227"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="175" t="s">
         <v>17</v>
       </c>
@@ -8068,8 +8041,8 @@
       <c r="M8" s="130"/>
     </row>
     <row r="9" spans="1:14" s="127" customFormat="1" ht="31.5">
-      <c r="A9" s="225"/>
-      <c r="B9" s="227"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="176"/>
       <c r="D9" s="161"/>
       <c r="E9" s="19" t="s">
@@ -8098,10 +8071,10 @@
       <c r="M9" s="134"/>
     </row>
     <row r="10" spans="1:14" ht="31.5">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="230" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="226">
+      <c r="B10" s="225">
         <v>0.25</v>
       </c>
       <c r="C10" s="168" t="s">
@@ -8134,8 +8107,8 @@
       <c r="M10" s="136"/>
     </row>
     <row r="11" spans="1:14" ht="31.5">
-      <c r="A11" s="231"/>
-      <c r="B11" s="227"/>
+      <c r="A11" s="230"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="169"/>
       <c r="D11" s="167"/>
       <c r="E11" s="20" t="s">
@@ -8162,10 +8135,10 @@
       <c r="M11" s="136"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="232" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="226">
+      <c r="A12" s="231" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="225">
         <v>0.45</v>
       </c>
       <c r="C12" s="158" t="s">
@@ -8198,8 +8171,8 @@
       <c r="M12" s="139"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="233"/>
-      <c r="B13" s="227"/>
+      <c r="A13" s="232"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="170" t="s">
         <v>20</v>
       </c>
@@ -8230,8 +8203,8 @@
       <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="233"/>
-      <c r="B14" s="227"/>
+      <c r="A14" s="232"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="171"/>
       <c r="D14" s="166"/>
       <c r="E14" s="21" t="s">
@@ -8258,8 +8231,8 @@
       <c r="M14" s="139"/>
     </row>
     <row r="15" spans="1:14" ht="31.5">
-      <c r="A15" s="233"/>
-      <c r="B15" s="227"/>
+      <c r="A15" s="232"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="171"/>
       <c r="D15" s="166"/>
       <c r="E15" s="21" t="s">
@@ -8286,8 +8259,8 @@
       <c r="M15" s="139"/>
     </row>
     <row r="16" spans="1:14" ht="31.5">
-      <c r="A16" s="233"/>
-      <c r="B16" s="227"/>
+      <c r="A16" s="232"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="172"/>
       <c r="D16" s="167"/>
       <c r="E16" s="21" t="s">
@@ -8314,8 +8287,8 @@
       <c r="M16" s="139"/>
     </row>
     <row r="17" spans="1:13" ht="31.5">
-      <c r="A17" s="233"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="232"/>
+      <c r="B17" s="226"/>
       <c r="C17" s="170" t="s">
         <v>21</v>
       </c>
@@ -8346,8 +8319,8 @@
       <c r="M17" s="139"/>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="233"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="232"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="171"/>
       <c r="D18" s="166"/>
       <c r="E18" s="21" t="s">
@@ -8374,8 +8347,8 @@
       <c r="M18" s="139"/>
     </row>
     <row r="19" spans="1:13" ht="74.25" customHeight="1">
-      <c r="A19" s="233"/>
-      <c r="B19" s="227"/>
+      <c r="A19" s="232"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="172"/>
       <c r="D19" s="167"/>
       <c r="E19" s="21" t="s">
@@ -8402,8 +8375,8 @@
       <c r="M19" s="139"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A20" s="233"/>
-      <c r="B20" s="227"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="170" t="s">
         <v>22</v>
       </c>
@@ -8434,8 +8407,8 @@
       <c r="M20" s="139"/>
     </row>
     <row r="21" spans="1:13" ht="31.5">
-      <c r="A21" s="233"/>
-      <c r="B21" s="227"/>
+      <c r="A21" s="232"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="171"/>
       <c r="D21" s="166"/>
       <c r="E21" s="22" t="s">
@@ -8462,8 +8435,8 @@
       <c r="M21" s="139"/>
     </row>
     <row r="22" spans="1:13" ht="31.5">
-      <c r="A22" s="233"/>
-      <c r="B22" s="227"/>
+      <c r="A22" s="232"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="171"/>
       <c r="D22" s="166"/>
       <c r="E22" s="22" t="s">
@@ -8490,8 +8463,8 @@
       <c r="M22" s="140"/>
     </row>
     <row r="23" spans="1:13" ht="31.5">
-      <c r="A23" s="233"/>
-      <c r="B23" s="227"/>
+      <c r="A23" s="232"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="171"/>
       <c r="D23" s="166"/>
       <c r="E23" s="21" t="s">
@@ -8518,8 +8491,8 @@
       <c r="M23" s="140"/>
     </row>
     <row r="24" spans="1:13" ht="31.5">
-      <c r="A24" s="233"/>
-      <c r="B24" s="234"/>
+      <c r="A24" s="232"/>
+      <c r="B24" s="233"/>
       <c r="C24" s="172"/>
       <c r="D24" s="167"/>
       <c r="E24" s="21" t="s">
@@ -8546,10 +8519,10 @@
       <c r="M24" s="140"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="230">
+      <c r="B25" s="229">
         <v>0.1</v>
       </c>
       <c r="C25" s="162" t="s">
@@ -8582,8 +8555,8 @@
       <c r="M25" s="142"/>
     </row>
     <row r="26" spans="1:13" ht="31.5">
-      <c r="A26" s="229"/>
-      <c r="B26" s="230"/>
+      <c r="A26" s="228"/>
+      <c r="B26" s="229"/>
       <c r="C26" s="163"/>
       <c r="D26" s="166"/>
       <c r="E26" s="23" t="s">
@@ -8610,8 +8583,8 @@
       <c r="M26" s="142"/>
     </row>
     <row r="27" spans="1:13" ht="47.25">
-      <c r="A27" s="229"/>
-      <c r="B27" s="230"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="163"/>
       <c r="D27" s="166"/>
       <c r="E27" s="24" t="s">
@@ -8638,8 +8611,8 @@
       <c r="M27" s="142"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A28" s="229"/>
-      <c r="B28" s="230"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
       <c r="C28" s="163"/>
       <c r="D28" s="166"/>
       <c r="E28" s="24" t="s">
@@ -8666,8 +8639,8 @@
       <c r="M28" s="142"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A29" s="229"/>
-      <c r="B29" s="230"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
       <c r="C29" s="164"/>
       <c r="D29" s="167"/>
       <c r="E29" s="24" t="s">
@@ -8694,8 +8667,8 @@
       <c r="M29" s="144"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A30" s="229"/>
-      <c r="B30" s="230"/>
+      <c r="A30" s="228"/>
+      <c r="B30" s="229"/>
       <c r="C30" s="156" t="s">
         <v>24</v>
       </c>
@@ -8726,8 +8699,8 @@
       <c r="M30" s="144"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A31" s="229"/>
-      <c r="B31" s="230"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="229"/>
       <c r="C31" s="162" t="s">
         <v>25</v>
       </c>
@@ -8758,8 +8731,8 @@
       <c r="M31" s="144"/>
     </row>
     <row r="32" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A32" s="229"/>
-      <c r="B32" s="230"/>
+      <c r="A32" s="228"/>
+      <c r="B32" s="229"/>
       <c r="C32" s="164"/>
       <c r="D32" s="167"/>
       <c r="E32" s="24" t="s">
@@ -8953,77 +8926,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="217" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+    </row>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="218" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="219" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-    </row>
-    <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="219" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="220" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1">
       <c r="A5" s="76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C5" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="77" t="s">
+      <c r="I5" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="J5" s="76" t="s">
         <v>275</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="J5" s="76" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1">
@@ -9031,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="95">
         <v>0.2</v>
@@ -9064,7 +9037,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B8" s="113" t="s">
         <v>26</v>
@@ -9098,7 +9071,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="89" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B9" s="113" t="s">
         <v>27</v>
@@ -9135,7 +9108,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" s="98">
         <v>0.1</v>
@@ -9150,7 +9123,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="116" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B11" s="113" t="s">
         <v>28</v>
@@ -9184,7 +9157,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="116" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B12" s="113" t="s">
         <v>29</v>
@@ -9221,7 +9194,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" s="95">
         <v>0.25</v>
@@ -9239,7 +9212,7 @@
         <v>2.1</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="98">
         <v>0.25</v>
@@ -9254,7 +9227,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="89" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" s="113" t="s">
         <v>30</v>
@@ -9288,7 +9261,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="89" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B16" s="113" t="s">
         <v>31</v>
@@ -9325,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="95">
         <v>0.45</v>
@@ -9358,7 +9331,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B19" s="113" t="s">
         <v>32</v>
@@ -9392,7 +9365,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B20" s="113" t="s">
         <v>33</v>
@@ -9444,7 +9417,7 @@
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1">
       <c r="A22" s="89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B22" s="113" t="s">
         <v>32</v>
@@ -9478,7 +9451,7 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
       <c r="A23" s="89" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B23" s="113" t="s">
         <v>33</v>
@@ -9515,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C24" s="95">
         <v>0.1</v>
@@ -9548,7 +9521,7 @@
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1">
       <c r="A26" s="89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B26" s="113" t="s">
         <v>50</v>
@@ -9583,7 +9556,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="16"/>
       <c r="B27" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C27" s="119">
         <v>1</v>
@@ -9642,91 +9615,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="218" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
+      <c r="A1" s="217" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="219" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
+      <c r="A2" s="218" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="221" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
+      <c r="A3" s="220" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="221" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
+      <c r="A4" s="220" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="77" t="s">
+      <c r="I6" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="J6" s="76" t="s">
         <v>275</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="J6" s="76" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9734,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="95">
         <v>0.2</v>
@@ -9752,7 +9725,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C8" s="98">
         <v>0.1</v>
@@ -9770,7 +9743,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="101">
         <v>0.05</v>
@@ -9804,7 +9777,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" s="101">
         <v>0.04</v>
@@ -9838,7 +9811,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C11" s="101">
         <v>0.04</v>
@@ -9872,7 +9845,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -9906,7 +9879,7 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2">
         <v>0.03</v>
@@ -9940,7 +9913,7 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C14" s="107">
         <v>0.25</v>
@@ -9958,7 +9931,7 @@
         <v>1.6</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2">
         <v>0.09</v>
@@ -9992,7 +9965,7 @@
         <v>1.7</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2">
         <v>0.17499999999999999</v>
@@ -10026,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C17" s="95">
         <v>0.45</v>
@@ -10044,7 +10017,7 @@
         <v>2.1</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3">
         <v>0.15</v>
@@ -10078,7 +10051,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3">
         <v>0.1</v>
@@ -10112,7 +10085,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3">
         <v>0.05</v>
@@ -10146,7 +10119,7 @@
         <v>2.4</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3">
         <v>0.05</v>
@@ -10180,7 +10153,7 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3">
         <v>0.05</v>
@@ -10214,7 +10187,7 @@
         <v>2.6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3">
         <v>0.1</v>
@@ -10246,7 +10219,7 @@
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="16"/>
       <c r="B24" s="110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C24" s="112">
         <v>1</v>
@@ -10263,21 +10236,21 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="G26" s="221" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
+      <c r="G26" s="220" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="220"/>
     </row>
     <row r="27" spans="1:10">
       <c r="H27" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="H30" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -10325,105 +10298,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="218" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
+      <c r="A1" s="217" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
     </row>
     <row r="2" spans="1:10" ht="25.5">
-      <c r="A2" s="218" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
+      <c r="A2" s="217" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="220" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
+      <c r="A3" s="219" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="221" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
+      <c r="A4" s="220" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="221" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
+      <c r="A5" s="220" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
     </row>
     <row r="7" spans="1:10" ht="47.25">
       <c r="A7" s="76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="77" t="s">
+      <c r="I7" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="J7" s="76" t="s">
         <v>275</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10431,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C8" s="95">
         <v>0.2</v>
@@ -10449,7 +10422,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="98">
         <v>0.1</v>
@@ -10467,7 +10440,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="101">
         <v>0.05</v>
@@ -10501,7 +10474,7 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C11" s="101">
         <v>0.04</v>
@@ -10535,7 +10508,7 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" s="101">
         <v>0.04</v>
@@ -10569,7 +10542,7 @@
         <v>1.4</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2">
         <v>7.0000000000000007E-2</v>
@@ -10603,7 +10576,7 @@
         <v>1.5</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2">
         <v>0.03</v>
@@ -10637,7 +10610,7 @@
         <v>1.2</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C15" s="107">
         <v>0.25</v>
@@ -10655,7 +10628,7 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2">
         <v>0.09</v>
@@ -10689,7 +10662,7 @@
         <v>1.7</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2">
         <v>0.17499999999999999</v>
@@ -10723,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="95">
         <v>0.45</v>
@@ -10741,7 +10714,7 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="3">
         <v>0.15</v>
@@ -10775,7 +10748,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="3">
         <v>0.1</v>
@@ -10807,7 +10780,7 @@
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="16"/>
       <c r="B21" s="110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C21" s="112">
         <v>1</v>
@@ -10824,21 +10797,21 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="E23" s="221" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
+      <c r="E23" s="220" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
     </row>
     <row r="24" spans="1:10">
       <c r="F24" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="F27" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -10932,7 +10905,7 @@
         <v>15</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>87</v>
@@ -10953,7 +10926,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="68">
         <v>1</v>
@@ -10990,7 +10963,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="68">
         <v>2</v>
@@ -11007,7 +10980,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="73"/>
       <c r="K3" s="73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -11024,10 +10997,10 @@
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E4" s="68">
         <v>3</v>
@@ -11042,7 +11015,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -11061,10 +11034,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
@@ -11076,14 +11049,14 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
         <v>137</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -11102,10 +11075,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="16">
         <v>5</v>
@@ -11117,12 +11090,12 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -11141,10 +11114,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -11156,12 +11129,12 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -11180,10 +11153,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="16">
         <v>7</v>
@@ -11195,12 +11168,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -11217,10 +11190,10 @@
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="68">
         <v>8</v>
@@ -11232,12 +11205,12 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -11254,10 +11227,10 @@
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="68" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E10" s="68">
         <v>9</v>
@@ -11272,7 +11245,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="73" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -11291,10 +11264,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E11" s="16">
         <v>10</v>
@@ -11306,12 +11279,12 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -11330,10 +11303,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E12" s="16">
         <v>11</v>
@@ -11345,12 +11318,12 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -11369,10 +11342,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
@@ -11384,12 +11357,12 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="73" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -11406,10 +11379,10 @@
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E14" s="68">
         <v>13</v>
@@ -11424,7 +11397,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -11443,10 +11416,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="16">
         <v>14</v>
@@ -11458,12 +11431,12 @@
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -11482,10 +11455,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="16">
         <v>15</v>
@@ -11497,12 +11470,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="73" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -11521,10 +11494,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E17" s="16">
         <v>16</v>
@@ -11536,12 +11509,12 @@
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="73" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -11561,7 +11534,7 @@
         <v>110</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" s="68">
         <v>17</v>
@@ -11573,12 +11546,12 @@
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -11598,7 +11571,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E19" s="68">
         <v>18</v>
@@ -11613,7 +11586,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="73" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -11647,12 +11620,12 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -11686,12 +11659,12 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="16"/>
@@ -11725,12 +11698,12 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -11749,10 +11722,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="E23" s="16">
         <v>22</v>
@@ -11768,10 +11741,10 @@
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -11825,10 +11798,10 @@
       </c>
       <c r="B25" s="68"/>
       <c r="C25" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E25" s="16">
         <v>24</v>
@@ -11840,12 +11813,12 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -11944,29 +11917,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.375" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="14" customWidth="1"/>
-    <col min="7" max="8" width="16.5" style="206" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="209" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="206" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="209" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -11974,53 +11946,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="E1" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="216" t="s">
+      <c r="F1" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="216" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="214" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="83" t="s">
+      <c r="G1" s="215" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="38.25" customHeight="1">
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="178">
         <v>1</v>
       </c>
       <c r="B2" s="57"/>
-      <c r="C2" s="57">
-        <v>1</v>
+      <c r="C2" s="57" t="s">
+        <v>333</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" s="217">
+      <c r="F2" s="216">
         <v>1573185037185</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="179">
+      <c r="G2" s="216"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="179">
         <v>1</v>
       </c>
     </row>
@@ -12040,10 +12006,10 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12096,13 +12062,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="L1" s="84" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N1" s="84" t="s">
         <v>14</v>
@@ -12125,10 +12091,10 @@
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
       <c r="I2" s="92" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J2" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K2" s="92"/>
       <c r="L2" s="207">
@@ -12138,7 +12104,7 @@
         <v>1573185131886</v>
       </c>
       <c r="N2" s="92" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O2" s="92">
         <v>1</v>
@@ -12160,10 +12126,10 @@
       <c r="G3" s="92"/>
       <c r="H3" s="92"/>
       <c r="I3" s="92" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K3" s="92"/>
       <c r="L3" s="207">
@@ -12173,7 +12139,7 @@
         <v>1573185122446</v>
       </c>
       <c r="N3" s="92" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O3" s="92">
         <v>1</v>
@@ -12195,10 +12161,10 @@
       <c r="G4" s="92"/>
       <c r="H4" s="92"/>
       <c r="I4" s="92" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K4" s="92"/>
       <c r="L4" s="207">
@@ -12208,7 +12174,7 @@
         <v>1573185164747</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O4" s="92">
         <v>1</v>
@@ -12228,10 +12194,10 @@
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K5" s="92"/>
       <c r="L5" s="207">
@@ -12241,7 +12207,7 @@
         <v>1573185186458</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O5" s="92">
         <v>1</v>
@@ -12263,10 +12229,10 @@
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K6" s="92"/>
       <c r="L6" s="207">
@@ -12276,7 +12242,7 @@
         <v>1573185204388</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O6" s="92">
         <v>1</v>
@@ -12296,10 +12262,10 @@
       <c r="G7" s="92"/>
       <c r="H7" s="92"/>
       <c r="I7" s="92" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K7" s="92"/>
       <c r="L7" s="207">
@@ -12309,7 +12275,7 @@
         <v>1573185232164</v>
       </c>
       <c r="N7" s="92" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O7" s="92">
         <v>1</v>
@@ -12348,10 +12314,10 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12381,34 +12347,34 @@
         <v>120</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="K1" s="84" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M1" s="84" t="s">
         <v>14</v>
@@ -12430,7 +12396,7 @@
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
       <c r="E2" s="92" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
@@ -12438,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J2" s="92"/>
       <c r="K2" s="207">
@@ -12448,7 +12414,7 @@
         <v>1573185282750</v>
       </c>
       <c r="M2" s="92" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="92">
@@ -12465,7 +12431,7 @@
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
@@ -12473,7 +12439,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J3" s="92"/>
       <c r="K3" s="207">
@@ -12483,7 +12449,7 @@
         <v>1573185368523</v>
       </c>
       <c r="M3" s="92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="92">
@@ -12529,67 +12495,67 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="W1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="X1" t="s">
         <v>9</v>
@@ -12603,22 +12569,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D2">
         <v>766777123</v>
       </c>
       <c r="G2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I2">
         <v>766777123</v>
       </c>
       <c r="J2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M2">
         <v>99</v>
@@ -12627,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P2" s="206">
         <v>1590118196428</v>
@@ -12636,7 +12602,7 @@
         <v>1591254395805</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="V2" s="206">
         <v>1573789598191</v>

--- a/db/excel/qlns-database-v1.xlsx
+++ b/db/excel/qlns-database-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F7640-5211-4C5D-ADFB-ED6232BDCB1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8EFE7-DB21-4EB6-BA79-0A228BB12C0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,9 @@
     <sheet name="form-report-staff" sheetId="36" state="hidden" r:id="rId4"/>
     <sheet name="admin_menu-ver2.0" sheetId="14" state="hidden" r:id="rId5"/>
     <sheet name="organizations" sheetId="9" r:id="rId6"/>
-    <sheet name="job_roles_sample" sheetId="12" r:id="rId7"/>
-    <sheet name="staffs_sample" sheetId="16" r:id="rId8"/>
-    <sheet name="users" sheetId="38" r:id="rId9"/>
-    <sheet name="strategy_topic" sheetId="4" state="hidden" r:id="rId10"/>
-    <sheet name="map-ttmlmt" sheetId="37" state="hidden" r:id="rId11"/>
+    <sheet name="users" sheetId="38" r:id="rId7"/>
+    <sheet name="strategy_topic" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="map-ttmlmt" sheetId="37" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'admin_menu-ver2.0'!$A$1:$Q$27</definedName>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="324">
   <si>
     <t>id</t>
   </si>
@@ -329,18 +327,6 @@
     <t>options</t>
   </si>
   <si>
-    <t>root_id</t>
-  </si>
-  <si>
-    <t>tree_key</t>
-  </si>
-  <si>
-    <t>tree_level</t>
-  </si>
-  <si>
-    <t>is_leaf</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -419,19 +405,10 @@
     <t>PRIMARY KEY AUTOINCREMENT NOT NULL</t>
   </si>
   <si>
-    <t>change_time</t>
-  </si>
-  <si>
-    <t>Mã user cập</t>
-  </si>
-  <si>
     <t>Thời gian update</t>
   </si>
   <si>
     <t>Thời gian tạo</t>
-  </si>
-  <si>
-    <t>Chữ ký cập nhập</t>
   </si>
   <si>
     <t>Chủ đề 1 - Đảm bảo chất lượng mạng lưới phục vụ khách hàng - Giai đoạn 2019-2020</t>
@@ -938,9 +915,6 @@
     <t>Nhóm menu</t>
   </si>
   <si>
-    <t>owner_user_id</t>
-  </si>
-  <si>
     <t>Họ và tên của nhân viên</t>
   </si>
   <si>
@@ -950,9 +924,6 @@
     <t>Tên của nhân viên (dùng để sắp xếp thứ thự ABC)</t>
   </si>
   <si>
-    <t>privileged_user_list</t>
-  </si>
-  <si>
     <t>Mã của tổ chức (tự sinh duy nhất), Được sử dụng cây tổ chức, của tất cả các tổ chức riêng rẻ, liên kết hoặc độc lập nhau</t>
   </si>
   <si>
@@ -1029,9 +1000,6 @@
   </si>
   <si>
     <t>ios-microphone</t>
-  </si>
-  <si>
-    <t>updated_user_id</t>
   </si>
   <si>
     <t>updated_time</t>
@@ -1243,78 +1211,12 @@
     <t>Công ty ABC&amp;XYZ</t>
   </si>
   <si>
-    <t>Đây là một tổ chức Công ty dùng mô phỏng. Để được gán quyền vào tổ chức, hãy liên hệ với quản trị Tổ chức của bạn.</t>
-  </si>
-  <si>
     <t>Tên viết tắt gọn</t>
   </si>
   <si>
     <t>ABC&amp;XYZ</t>
   </si>
   <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>Trưởng phòng Tổng hợp</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185131886,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
-  </si>
-  <si>
-    <t>Phó phòng Tổng hợp</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185122446,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Chuyên viên Tổng hợp</t>
-  </si>
-  <si>
-    <t>Chuyên tổng hợp các báo cáo</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185164747,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Trưởng phòng kinh doanh</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185186458,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Chuyên viên kinh doanh</t>
-  </si>
-  <si>
-    <t>Chuyên viên Kinh doanh</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185204388,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Phụ trách phòng</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185232164,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185282750,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>{"username":"123456789","time":1573185368523,"ip":"10.151.50.36"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">default 1,  FOREIGN KEY (organization_id) REFERENCES organizations(id),  FOREIGN KEY (job_id) REFERENCES job_roles(id) </t>
   </si>
   <si>
@@ -1327,142 +1229,19 @@
     <t>Tổ chức trực thuộc của user này (được gán từ bảng tổ chức, hoặc người quản trị gán lại khi có thay đổi)</t>
   </si>
   <si>
-    <t>organization_list</t>
-  </si>
-  <si>
-    <t>Chứa danh mục các tổ chức mà user này có thể tác động, khai báo được. Lưu trữ dưới dạng json mãng [với id là của các tổ chức]. Chức năng này có thể sử dụng ở chức năng phân quyền trong chuỗi phân quyền</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>Tên user đăng nhập duy nhất (sử dụng user là số di động)</t>
   </si>
   <si>
-    <t>email_username</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập là email cũng là duy nhất (nếu đăng nhập qua email) Hoặc tự tạo cho mình một cái tên</t>
-  </si>
-  <si>
-    <t>user_pass</t>
-  </si>
-  <si>
-    <t>Mật khẩu riêng cho hệ thống này (sau khi xác thực ở hệ thống khác, nếu muốn tránh cho việc kiểm chức trên hệ thống xác thực, người dùng có thể đặt mật khẩu riêng để truy cập)</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>Họ và tên đầy đủ (tự cập nhập từ hệ thống xác thực hoặc tự khai báo riêng)</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>Tên hiển thị thường gọi tự đặc cho mình</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Số điện thoại liên hệ</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Email liên hệ</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>Ảnh đại diện</t>
-  </si>
-  <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>Ảnh nền</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Vai trò (chưa sử dụng)</t>
-  </si>
-  <si>
-    <t>staff_id</t>
-  </si>
-  <si>
-    <t>Mã nhân viên trong danh mục nhân viên (để chấm kpi của riêng mình)</t>
-  </si>
-  <si>
-    <t>staff_list</t>
-  </si>
-  <si>
-    <t>Danh mục nhân viên mà user này có quyền tác động (hiển thị được ds nhân viên có thể tác động kpi), ghi json array</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>Thời gian bắt đầu (thời gian hiệu lực của user này)</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>Thời gian kết thúc (nếu cấm truy cập)</t>
-  </si>
-  <si>
-    <t>login_time</t>
-  </si>
-  <si>
-    <t>Thời gian truy cập cuối cùng</t>
-  </si>
-  <si>
-    <t>last_signature</t>
-  </si>
-  <si>
-    <t>Chữ ký của user (json string) khi login cuối cùng</t>
-  </si>
-  <si>
-    <t>trạng thái của user hiện tại = 0 là hết hiệu lực, = 1 là đang hiệu lực = 2 là đang yêu cầu (cần admin phân quyền truy cập)</t>
-  </si>
-  <si>
-    <t>default 2, unique(username)</t>
-  </si>
-  <si>
-    <t>{"username":"903500888","data":{"id":13,"organization_id":3,"organization_list":"[19,23,24,25,26,27,28,29,30]","updated_time":1573789591793},"time":1573789591793}</t>
-  </si>
-  <si>
-    <t>[1,20,21,22]</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Định</t>
-  </si>
-  <si>
-    <t>nvdinh185</t>
-  </si>
-  <si>
-    <t>dinh.nguyenvan.ctv@mobifone.vn</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>Phụ Trách phòng Kỹ thuật</t>
-  </si>
-  <si>
     <t>changed_date</t>
   </si>
   <si>
     <t>default 1, unique(name)</t>
+  </si>
+  <si>
+    <t>Đây là một tổ chức Công ty dùng mô phỏng.</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1951,21 +1730,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3114,7 +2878,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3314,9 +3078,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3398,13 +3159,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3414,7 +3175,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,7 +3193,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,7 +3202,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3450,7 +3211,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3460,7 +3221,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="18" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="30" fillId="18" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3554,12 +3315,12 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3578,17 +3339,8 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3622,43 +3374,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5058,13 +4810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5100,19 +4852,19 @@
     </row>
     <row r="2" spans="1:6" ht="47.25">
       <c r="A2" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F2" s="16">
         <v>1</v>
@@ -5120,16 +4872,16 @@
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="16">
@@ -5138,16 +4890,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="16">
@@ -5156,16 +4908,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="16">
@@ -5174,16 +4926,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="166" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="182" t="s">
-        <v>122</v>
+        <v>145</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="178" t="s">
+        <v>118</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="16">
@@ -5192,16 +4944,16 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="52"/>
       <c r="F7" s="16">
@@ -5210,16 +4962,16 @@
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="16">
@@ -5227,38 +4979,38 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="184" t="s">
-        <v>152</v>
+      <c r="A9" s="180" t="s">
+        <v>145</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="182" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="183"/>
+        <v>321</v>
+      </c>
+      <c r="C9" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="178" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="179"/>
       <c r="F9" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="75" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B10" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="F10" s="16">
         <v>9</v>
@@ -5266,19 +5018,19 @@
     </row>
     <row r="11" spans="1:6" ht="63">
       <c r="A11" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F11" s="16">
         <v>10</v>
@@ -5286,16 +5038,16 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="16">
@@ -5304,16 +5056,16 @@
     </row>
     <row r="13" spans="1:6" ht="63">
       <c r="A13" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="52"/>
       <c r="F13" s="16">
@@ -5322,16 +5074,16 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="16">
@@ -5340,16 +5092,16 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="16">
@@ -5358,16 +5110,16 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="16">
@@ -5376,16 +5128,16 @@
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="16">
@@ -5394,16 +5146,16 @@
     </row>
     <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="16">
@@ -5412,16 +5164,16 @@
     </row>
     <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>126</v>
+        <v>151</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="16">
@@ -5430,19 +5182,19 @@
     </row>
     <row r="20" spans="1:6" ht="47.25">
       <c r="A20" s="80" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F20" s="16">
         <v>19</v>
@@ -5450,19 +5202,19 @@
     </row>
     <row r="21" spans="1:6" ht="47.25">
       <c r="A21" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F21" s="16">
         <v>20</v>
@@ -5470,16 +5222,16 @@
     </row>
     <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="16">
@@ -5488,16 +5240,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="16">
@@ -5506,16 +5258,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="16">
@@ -5524,16 +5276,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="16">
@@ -5542,16 +5294,16 @@
     </row>
     <row r="26" spans="1:6" ht="18.75">
       <c r="A26" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="16">
@@ -5560,91 +5312,91 @@
     </row>
     <row r="27" spans="1:6" ht="31.5">
       <c r="A27" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="18.75">
       <c r="A28" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>395</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="38"/>
+        <v>138</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="52"/>
       <c r="F28" s="16">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75">
       <c r="A29" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75">
+    <row r="30" spans="1:6">
       <c r="A30" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="52"/>
+        <v>138</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="38"/>
       <c r="F30" s="16">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="63">
       <c r="A31" s="75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="F31" s="16">
         <v>30</v>
@@ -5652,19 +5404,19 @@
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="63">
       <c r="A32" s="78" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B32" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="169" t="s">
-        <v>121</v>
+        <v>317</v>
+      </c>
+      <c r="D32" s="168" t="s">
+        <v>117</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F32" s="16">
         <v>31</v>
@@ -5672,1638 +5424,44 @@
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="31.5">
       <c r="A33" s="78" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="170" t="s">
-        <v>350</v>
-      </c>
-      <c r="D33" s="171" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="172"/>
+        <v>115</v>
+      </c>
+      <c r="C33" s="169" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="171"/>
       <c r="F33" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="63">
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="18.75">
       <c r="A34" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C34" s="170" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="172"/>
+        <v>316</v>
+      </c>
+      <c r="B34" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="173"/>
       <c r="F34" s="16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A35" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B35" s="173" t="s">
-        <v>353</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D35" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="174"/>
-      <c r="F35" s="16">
         <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="14" customFormat="1" ht="31.5">
-      <c r="A36" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B36" s="173" t="s">
-        <v>355</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D36" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="14" customFormat="1" ht="63">
-      <c r="A37" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B37" s="173" t="s">
-        <v>357</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="174"/>
-      <c r="F37" s="16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="14" customFormat="1" ht="31.5">
-      <c r="A38" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B38" s="173" t="s">
-        <v>359</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="172"/>
-      <c r="F38" s="16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A39" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B39" s="173" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D39" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="172"/>
-      <c r="F39" s="16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A40" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" s="173" t="s">
-        <v>363</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="172"/>
-      <c r="F40" s="16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A41" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B41" s="173" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="172"/>
-      <c r="F41" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A42" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B42" s="173" t="s">
-        <v>367</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="D42" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="172"/>
-      <c r="F42" s="16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A43" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B43" s="173" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="172"/>
-      <c r="F43" s="16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A44" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B44" s="173" t="s">
-        <v>371</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="D44" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="172"/>
-      <c r="F44" s="16">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="31.5">
-      <c r="A45" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B45" s="176" t="s">
-        <v>373</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D45" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="172"/>
-      <c r="F45" s="16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" ht="31.5">
-      <c r="A46" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B46" s="173" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D46" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="172"/>
-      <c r="F46" s="16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A47" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B47" s="173" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="D47" s="171" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A48" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B48" s="173" t="s">
-        <v>379</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="D48" s="171" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A49" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B49" s="176" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="16">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A50" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" s="176" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="16">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A51" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B51" s="176" t="s">
-        <v>253</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A52" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B52" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A53" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B53" s="173" t="s">
-        <v>381</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D53" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="16">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A54" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B54" s="173" t="s">
-        <v>383</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D54" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="16">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" ht="47.25">
-      <c r="A55" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="B55" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="F55" s="16">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="31.5">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:N58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="109" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="109" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="109" customWidth="1"/>
-    <col min="5" max="5" width="54.125" style="141" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="141" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="142" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="109" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="109" customWidth="1"/>
-    <col min="10" max="10" width="45.125" style="138" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="138" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.125" style="144" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="109"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="200" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-    </row>
-    <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="187" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="201" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-    </row>
-    <row r="5" spans="1:14" s="116" customFormat="1" ht="78.75">
-      <c r="A5" s="113" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="115" t="s">
-        <v>321</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="114" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="115" t="s">
-        <v>316</v>
-      </c>
-      <c r="K5" s="115" t="s">
-        <v>317</v>
-      </c>
-      <c r="L5" s="115" t="s">
-        <v>318</v>
-      </c>
-      <c r="M5" s="115" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="202" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="195">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="154">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="18">
-        <v>60</v>
-      </c>
-      <c r="G6" s="117">
-        <v>0.6</v>
-      </c>
-      <c r="H6" s="117">
-        <f>$B$6*$D$6*G6</f>
-        <v>0.06</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="118">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-    </row>
-    <row r="7" spans="1:14" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="18">
-        <v>40</v>
-      </c>
-      <c r="G7" s="120">
-        <v>0.4</v>
-      </c>
-      <c r="H7" s="117">
-        <f>$B$6*$D$6*G7</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="121">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-    </row>
-    <row r="8" spans="1:14" s="116" customFormat="1" ht="31.5">
-      <c r="A8" s="203"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="149">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="18">
-        <v>70</v>
-      </c>
-      <c r="G8" s="117">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="117">
-        <f>$B$6*$D$8*G8</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="118">
-        <v>179</v>
-      </c>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-    </row>
-    <row r="9" spans="1:14" s="116" customFormat="1" ht="31.5">
-      <c r="A9" s="203"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="18">
-        <v>30</v>
-      </c>
-      <c r="G9" s="117">
-        <v>0.3</v>
-      </c>
-      <c r="H9" s="117">
-        <f>$B$6*$D$8*G9</f>
-        <v>0.03</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="122">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-    </row>
-    <row r="10" spans="1:14" ht="31.5">
-      <c r="A10" s="194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="195">
-        <v>0.25</v>
-      </c>
-      <c r="C10" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="154">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="18">
-        <v>30</v>
-      </c>
-      <c r="G10" s="117">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="117">
-        <f>$B$10*$D$10*G10</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-    </row>
-    <row r="11" spans="1:14" ht="31.5">
-      <c r="A11" s="194"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="18">
-        <v>70</v>
-      </c>
-      <c r="G11" s="117">
-        <v>0.7</v>
-      </c>
-      <c r="H11" s="117">
-        <f>$B$10*$D$10*G11</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="126"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="197" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="195">
-        <v>0.45</v>
-      </c>
-      <c r="C12" s="147" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="146">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="18">
-        <v>100</v>
-      </c>
-      <c r="G12" s="117">
-        <v>1</v>
-      </c>
-      <c r="H12" s="117">
-        <f>B12*D12*G12</f>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="198"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="154">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="18">
-        <v>40</v>
-      </c>
-      <c r="G13" s="117">
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="117">
-        <f>$B$12*$D$13*G13</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="198"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="18">
-        <v>40</v>
-      </c>
-      <c r="G14" s="117">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="117">
-        <f>$B$12*$D$13*G14</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-    </row>
-    <row r="15" spans="1:14" ht="31.5">
-      <c r="A15" s="198"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="18">
-        <v>10</v>
-      </c>
-      <c r="G15" s="117">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="117">
-        <f>$B$12*$D$13*G15</f>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-    </row>
-    <row r="16" spans="1:14" ht="31.5">
-      <c r="A16" s="198"/>
-      <c r="B16" s="196"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="18">
-        <v>10</v>
-      </c>
-      <c r="G16" s="117">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="117">
-        <f t="shared" ref="H16" si="0">$B$12*$D$13*G16</f>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-    </row>
-    <row r="17" spans="1:13" ht="31.5">
-      <c r="A17" s="198"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="159" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="154">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="18">
-        <v>25</v>
-      </c>
-      <c r="G17" s="117">
-        <v>0.25</v>
-      </c>
-      <c r="H17" s="117">
-        <f>$B$12*$D$17*G17</f>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="127"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="198"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="18">
-        <v>25</v>
-      </c>
-      <c r="G18" s="117">
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="117">
-        <f>$B$12*$D$17*G18</f>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-    </row>
-    <row r="19" spans="1:13" ht="74.25" customHeight="1">
-      <c r="A19" s="198"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="18">
-        <v>50</v>
-      </c>
-      <c r="G19" s="117">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="117">
-        <f>$B$12*$D$17*G19</f>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="127"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-    </row>
-    <row r="20" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A20" s="198"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="159" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="154">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="18">
-        <v>15</v>
-      </c>
-      <c r="G20" s="117">
-        <v>0.15</v>
-      </c>
-      <c r="H20" s="117">
-        <f>$B$12*$D$20*G20</f>
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-    </row>
-    <row r="21" spans="1:13" ht="31.5">
-      <c r="A21" s="198"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="18">
-        <v>30</v>
-      </c>
-      <c r="G21" s="117">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="117">
-        <f>$B$12*$D$20*G21</f>
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.5">
-      <c r="A22" s="198"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="18">
-        <v>25</v>
-      </c>
-      <c r="G22" s="117">
-        <v>0.25</v>
-      </c>
-      <c r="H22" s="117">
-        <f>$B$12*$D$20*G22</f>
-        <v>2.2500000000000003E-2</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-    </row>
-    <row r="23" spans="1:13" ht="31.5">
-      <c r="A23" s="198"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="18">
-        <v>15</v>
-      </c>
-      <c r="G23" s="117">
-        <v>0.15</v>
-      </c>
-      <c r="H23" s="117">
-        <f>$B$12*$D$20*G23</f>
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="127"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-    </row>
-    <row r="24" spans="1:13" ht="31.5">
-      <c r="A24" s="198"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="18">
-        <v>15</v>
-      </c>
-      <c r="G24" s="117">
-        <v>0.15</v>
-      </c>
-      <c r="H24" s="117">
-        <f>$B$12*$D$20*G24</f>
-        <v>1.3500000000000002E-2</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="127"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-    </row>
-    <row r="25" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A25" s="191" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="193">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="151" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="154">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="18">
-        <v>20</v>
-      </c>
-      <c r="G25" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="117">
-        <f>$B$25*$D$25*G25</f>
-        <v>8.0000000000000019E-3</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-    </row>
-    <row r="26" spans="1:13" ht="31.5">
-      <c r="A26" s="192"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="18">
-        <v>20</v>
-      </c>
-      <c r="G26" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="117">
-        <f t="shared" ref="H26:H29" si="1">$B$25*$D$25*G26</f>
-        <v>8.0000000000000019E-3</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="132"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-    </row>
-    <row r="27" spans="1:13" ht="47.25">
-      <c r="A27" s="192"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="18">
-        <v>20</v>
-      </c>
-      <c r="G27" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="117">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000019E-3</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="132"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-    </row>
-    <row r="28" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A28" s="192"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="18">
-        <v>20</v>
-      </c>
-      <c r="G28" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="117">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000019E-3</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="132"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-    </row>
-    <row r="29" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A29" s="192"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="18">
-        <v>20</v>
-      </c>
-      <c r="G29" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="117">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000019E-3</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29" s="130"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-    </row>
-    <row r="30" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A30" s="192"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="146">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="18">
-        <v>100</v>
-      </c>
-      <c r="G30" s="117">
-        <v>1</v>
-      </c>
-      <c r="H30" s="117">
-        <f>B25*D30*G30</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="132"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-    </row>
-    <row r="31" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A31" s="192"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="151" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="154">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="18">
-        <v>30</v>
-      </c>
-      <c r="G31" s="117">
-        <v>0.3</v>
-      </c>
-      <c r="H31" s="117">
-        <f>$B$25*$D$31*G31</f>
-        <v>1.2000000000000002E-2</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="132"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A32" s="192"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="18">
-        <v>70</v>
-      </c>
-      <c r="G32" s="117">
-        <v>0.7</v>
-      </c>
-      <c r="H32" s="117">
-        <f>$B$25*$D$31*G32</f>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="132"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135">
-        <f>SUM(B6:B28)</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="135">
-        <f>SUM(H6:H32)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="I33" s="134"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="134"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="139"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="134"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="134"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="134"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="134"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-    </row>
-    <row r="58" spans="12:12">
-      <c r="L58" s="143"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="B12:B24"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B6 B33:B64 B25 G12:H64 D17:D64 G6:H10 D10:D13 B10:B12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7329,120 +5487,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="187" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="A1" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="188" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="A2" s="184" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="189" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
+      <c r="A3" s="185" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1">
       <c r="A5" s="65" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1">
-      <c r="A6" s="82">
-        <v>1</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="84">
+      <c r="A6" s="81">
+        <v>1</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="83">
         <v>0.2</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1">
-      <c r="A7" s="85">
+      <c r="A7" s="84">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="86">
         <v>0.1</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4">
@@ -7452,7 +5610,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" s="4">
         <v>0.9</v>
@@ -7474,9 +5632,9 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="101" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4">
@@ -7486,7 +5644,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4">
         <v>0.8</v>
@@ -7507,28 +5665,28 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="103">
+      <c r="A10" s="102">
         <v>1.2</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="87">
+      <c r="B10" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="86">
         <v>0.1</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="101" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="64">
@@ -7538,7 +5696,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F11" s="4">
         <v>0.8</v>
@@ -7559,10 +5717,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="101" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="64">
@@ -7572,7 +5730,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F12" s="4">
         <v>0.9</v>
@@ -7593,46 +5751,46 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="82">
+      <c r="A13" s="81">
         <v>2</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="84">
+      <c r="B13" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="83">
         <v>0.25</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="85">
+      <c r="A14" s="84">
         <v>2.1</v>
       </c>
-      <c r="B14" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="87">
+      <c r="B14" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="86">
         <v>0.25</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="101" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="64">
@@ -7642,7 +5800,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" s="16">
         <v>2</v>
@@ -7664,9 +5822,9 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="78" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="101" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="64">
@@ -7676,7 +5834,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F16" s="16">
         <v>2</v>
@@ -7697,46 +5855,46 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="82">
+      <c r="A17" s="81">
         <v>3</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="84">
+      <c r="B17" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="83">
         <v>0.45</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10" ht="31.5">
-      <c r="A18" s="85">
+      <c r="A18" s="84">
         <v>3.1</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="86">
         <v>0.3</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="101" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="64">
@@ -7746,7 +5904,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F19" s="16">
         <v>2</v>
@@ -7768,9 +5926,9 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="101" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="64">
@@ -7780,7 +5938,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F20" s="16">
         <v>2</v>
@@ -7801,28 +5959,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="31.5">
-      <c r="A21" s="85">
+      <c r="A21" s="84">
         <v>3.2</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="86">
         <v>0.15</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1">
       <c r="A22" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="101" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="64">
@@ -7832,7 +5990,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>
@@ -7854,9 +6012,9 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
       <c r="A23" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="B23" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="101" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="64">
@@ -7866,7 +6024,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F23" s="16">
         <v>2</v>
@@ -7887,46 +6045,46 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1">
-      <c r="A24" s="82">
+      <c r="A24" s="81">
         <v>4</v>
       </c>
-      <c r="B24" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="84">
+      <c r="B24" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="83">
         <v>0.1</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1">
-      <c r="A25" s="85">
+      <c r="A25" s="84">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="86">
         <v>0.1</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1">
       <c r="A26" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B26" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="101" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="64">
@@ -7936,7 +6094,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F26" s="16">
         <v>100</v>
@@ -7959,9 +6117,9 @@
     <row r="27" spans="1:10">
       <c r="A27" s="16"/>
       <c r="B27" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="108">
+        <v>279</v>
+      </c>
+      <c r="C27" s="107">
         <v>1</v>
       </c>
       <c r="D27" s="13"/>
@@ -7969,8 +6127,8 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101">
+      <c r="I27" s="99"/>
+      <c r="J27" s="100">
         <f>SUM(J7:J26)</f>
         <v>1</v>
       </c>
@@ -8018,227 +6176,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="187" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="A1" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="188" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="A2" s="184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
+      <c r="A3" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="190" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
+      <c r="A4" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
       <c r="A6" s="65" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="82">
-        <v>1</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="84">
+      <c r="A7" s="81">
+        <v>1</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="83">
         <v>0.2</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
-      <c r="A8" s="85">
+      <c r="A8" s="84">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="87">
+      <c r="B8" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="86">
         <v>0.1</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="88">
+      <c r="A9" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="90">
+      <c r="B9" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="89">
         <v>0.05</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="90">
+      <c r="E9" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="89">
         <v>0.9</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="89">
         <v>0</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="89">
         <v>0.9</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="89">
         <f>1-(F9-H9)/F9</f>
         <v>1</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="89">
         <f>C9*I9</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="88">
+      <c r="A10" s="87">
         <v>1.2</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="90">
+      <c r="B10" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="89">
         <v>0.04</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="90">
+      <c r="E10" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="89">
         <v>0.8</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="89">
         <v>0</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="89">
         <v>0.8</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="89">
         <f>1-(F10-H10)/F10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="89">
         <f>C10*I10</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="88">
+      <c r="A11" s="87">
         <v>1.3</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="90">
+      <c r="B11" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="89">
         <v>0.04</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="90">
+      <c r="E11" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="89">
         <v>0.8</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="89">
         <v>0</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="89">
         <v>0.8</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="89">
         <f>1-(F11-H11)/F11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="89">
         <f>C11*I11</f>
         <v>0.04</v>
       </c>
@@ -8247,17 +6405,17 @@
       <c r="A12" s="79">
         <v>1.4</v>
       </c>
-      <c r="B12" s="92" t="s">
-        <v>171</v>
+      <c r="B12" s="91" t="s">
+        <v>164</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="93" t="s">
-        <v>118</v>
+      <c r="E12" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="2">
         <v>0.8</v>
@@ -8281,17 +6439,17 @@
       <c r="A13" s="79">
         <v>1.5</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>172</v>
+      <c r="B13" s="91" t="s">
+        <v>165</v>
       </c>
       <c r="C13" s="2">
         <v>0.03</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="93" t="s">
-        <v>118</v>
+      <c r="E13" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F13" s="2">
         <v>0.9</v>
@@ -8312,38 +6470,38 @@
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1">
-      <c r="A14" s="94">
+      <c r="A14" s="93">
         <v>1.2</v>
       </c>
-      <c r="B14" s="95" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="96">
+      <c r="B14" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="95">
         <v>0.25</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="79">
         <v>1.6</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>171</v>
+      <c r="B15" s="91" t="s">
+        <v>164</v>
       </c>
       <c r="C15" s="2">
         <v>0.09</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="93" t="s">
-        <v>118</v>
+      <c r="E15" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F15" s="33">
         <v>2</v>
@@ -8367,17 +6525,17 @@
       <c r="A16" s="79">
         <v>1.7</v>
       </c>
-      <c r="B16" s="92" t="s">
-        <v>172</v>
+      <c r="B16" s="91" t="s">
+        <v>165</v>
       </c>
       <c r="C16" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="93" t="s">
-        <v>118</v>
+      <c r="E16" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F16" s="33">
         <v>2</v>
@@ -8398,38 +6556,38 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.5">
-      <c r="A17" s="82">
+      <c r="A17" s="81">
         <v>2</v>
       </c>
-      <c r="B17" s="97" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="84">
+      <c r="B17" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="83">
         <v>0.45</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="77">
         <v>2.1</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3">
         <v>0.15</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="98" t="s">
-        <v>118</v>
+      <c r="E18" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F18" s="36">
         <v>2</v>
@@ -8454,16 +6612,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3">
         <v>0.1</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="98" t="s">
-        <v>118</v>
+      <c r="E19" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F19" s="36">
         <v>2</v>
@@ -8488,16 +6646,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3">
         <v>0.05</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="98" t="s">
-        <v>118</v>
+      <c r="E20" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F20" s="36">
         <v>2</v>
@@ -8522,16 +6680,16 @@
         <v>2.4</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3">
         <v>0.05</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="98" t="s">
-        <v>118</v>
+      <c r="E21" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F21" s="36">
         <v>2</v>
@@ -8556,16 +6714,16 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3">
         <v>0.05</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>118</v>
+      <c r="E22" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F22" s="36">
         <v>2</v>
@@ -8590,16 +6748,16 @@
         <v>2.6</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3">
         <v>0.1</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="98" t="s">
-        <v>118</v>
+      <c r="E23" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F23" s="36">
         <v>2</v>
@@ -8621,10 +6779,10 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="16"/>
-      <c r="B24" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="101">
+      <c r="B24" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="100">
         <v>1</v>
       </c>
       <c r="D24" s="13"/>
@@ -8632,28 +6790,28 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101">
+      <c r="I24" s="99"/>
+      <c r="J24" s="100">
         <f>SUM(J8:J23)</f>
         <v>0.99500000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="G26" s="190" t="s">
-        <v>303</v>
-      </c>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="190"/>
+      <c r="G26" s="186" t="s">
+        <v>293</v>
+      </c>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
     </row>
     <row r="27" spans="1:10">
       <c r="H27" s="14" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="H30" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -8701,241 +6859,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="187" t="s">
-        <v>294</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="A1" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
     </row>
     <row r="2" spans="1:10" ht="25.5">
-      <c r="A2" s="187" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
+      <c r="A2" s="183" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="189" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
+      <c r="A3" s="185" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
+      <c r="A4" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="190" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
+      <c r="A5" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
     </row>
     <row r="7" spans="1:10" ht="47.25">
       <c r="A7" s="65" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G7" s="66" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="82">
-        <v>1</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="84">
+      <c r="A8" s="81">
+        <v>1</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="83">
         <v>0.2</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="85">
+      <c r="A9" s="84">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="87">
+      <c r="B9" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="86">
         <v>0.1</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="88">
+      <c r="A10" s="87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="90">
+      <c r="B10" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="89">
         <v>0.05</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="90">
+      <c r="E10" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="89">
         <v>0.9</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="89">
         <v>0</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="89">
         <v>0.9</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="89">
         <f>1-(F10-H10)/F10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="89">
         <f>C10*I10</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="88">
+      <c r="A11" s="87">
         <v>1.2</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="90">
+      <c r="B11" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="89">
         <v>0.04</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="90">
+      <c r="E11" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="89">
         <v>0.8</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="89">
         <v>0</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="89">
         <v>0.8</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="89">
         <f>1-(F11-H11)/F11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="89">
         <f>C11*I11</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5">
-      <c r="A12" s="88">
+      <c r="A12" s="87">
         <v>1.3</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="90">
+      <c r="B12" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="89">
         <v>0.04</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="90">
+      <c r="E12" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="89">
         <v>0.8</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="89">
         <v>0</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="89">
         <v>0.8</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="89">
         <f>1-(F12-H12)/F12</f>
         <v>1</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="89">
         <f>C12*I12</f>
         <v>0.04</v>
       </c>
@@ -8944,17 +7102,17 @@
       <c r="A13" s="79">
         <v>1.4</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>171</v>
+      <c r="B13" s="91" t="s">
+        <v>164</v>
       </c>
       <c r="C13" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="93" t="s">
-        <v>118</v>
+      <c r="E13" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F13" s="2">
         <v>0.8</v>
@@ -8978,17 +7136,17 @@
       <c r="A14" s="79">
         <v>1.5</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>172</v>
+      <c r="B14" s="91" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="2">
         <v>0.03</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="93" t="s">
-        <v>118</v>
+      <c r="E14" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F14" s="2">
         <v>0.9</v>
@@ -9009,38 +7167,38 @@
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1">
-      <c r="A15" s="94">
+      <c r="A15" s="93">
         <v>1.2</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>297</v>
-      </c>
-      <c r="C15" s="96">
+      <c r="B15" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="95">
         <v>0.25</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
       <c r="A16" s="79">
         <v>1.6</v>
       </c>
-      <c r="B16" s="92" t="s">
-        <v>171</v>
+      <c r="B16" s="91" t="s">
+        <v>164</v>
       </c>
       <c r="C16" s="2">
         <v>0.09</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="93" t="s">
-        <v>118</v>
+      <c r="E16" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F16" s="33">
         <v>2</v>
@@ -9064,17 +7222,17 @@
       <c r="A17" s="79">
         <v>1.7</v>
       </c>
-      <c r="B17" s="92" t="s">
-        <v>172</v>
+      <c r="B17" s="91" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="93" t="s">
-        <v>118</v>
+      <c r="E17" s="92" t="s">
+        <v>114</v>
       </c>
       <c r="F17" s="33">
         <v>2</v>
@@ -9095,38 +7253,38 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="82">
+      <c r="A18" s="81">
         <v>2</v>
       </c>
-      <c r="B18" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="84">
+      <c r="B18" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="83">
         <v>0.45</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="77">
         <v>2.1</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C19" s="3">
         <v>0.15</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="98" t="s">
-        <v>118</v>
+      <c r="E19" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F19" s="36">
         <v>2</v>
@@ -9151,16 +7309,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C20" s="3">
         <v>0.1</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="98" t="s">
-        <v>118</v>
+      <c r="E20" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="F20" s="36">
         <v>2</v>
@@ -9182,10 +7340,10 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="16"/>
-      <c r="B21" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="101">
+      <c r="B21" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="100">
         <v>1</v>
       </c>
       <c r="D21" s="13"/>
@@ -9193,28 +7351,28 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="101">
+      <c r="I21" s="99"/>
+      <c r="J21" s="100">
         <f>SUM(J9:J20)</f>
         <v>0.745</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="E23" s="190" t="s">
-        <v>303</v>
-      </c>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
+      <c r="E23" s="186" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
     </row>
     <row r="24" spans="1:10">
       <c r="F24" s="14" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="F27" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -9284,22 +7442,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>2</v>
@@ -9308,7 +7466,7 @@
         <v>15</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>87</v>
@@ -9326,27 +7484,27 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E2" s="57">
         <v>1</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G2" s="16">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -9366,24 +7524,24 @@
         <v>3</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E3" s="57">
         <v>2</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G3" s="16">
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="62"/>
       <c r="K3" s="62" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -9400,16 +7558,16 @@
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E4" s="57">
         <v>3</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G4" s="16">
         <v>0</v>
@@ -9418,7 +7576,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="62" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -9437,29 +7595,29 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -9478,27 +7636,27 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E6" s="16">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="62" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -9517,27 +7675,27 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="62" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -9556,27 +7714,27 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E8" s="16">
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -9593,27 +7751,27 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E9" s="57">
         <v>8</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -9630,16 +7788,16 @@
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="57" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E10" s="57">
         <v>9</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -9648,7 +7806,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="62" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -9667,27 +7825,27 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E11" s="16">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="62" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -9706,27 +7864,27 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E12" s="16">
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="62" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -9745,27 +7903,27 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="62" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -9782,16 +7940,16 @@
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="57" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E14" s="57">
         <v>13</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G14" s="16">
         <v>0</v>
@@ -9800,7 +7958,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="62" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -9819,27 +7977,27 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E15" s="16">
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G15" s="16">
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="62" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -9858,27 +8016,27 @@
         <v>13</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E16" s="16">
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G16" s="16">
         <v>1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="62" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -9897,27 +8055,27 @@
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E17" s="16">
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="62" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -9934,27 +8092,27 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E18" s="57">
         <v>17</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G18" s="16">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -9971,16 +8129,16 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E19" s="57">
         <v>18</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
@@ -9989,7 +8147,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="62" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -10008,27 +8166,27 @@
         <v>18</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E20" s="16">
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -10047,27 +8205,27 @@
         <v>18</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E21" s="16">
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="62" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="16"/>
@@ -10086,27 +8244,27 @@
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E22" s="16">
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="16">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -10125,29 +8283,29 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E23" s="16">
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K23" s="62" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -10164,27 +8322,27 @@
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E24" s="16">
         <v>23</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -10201,27 +8359,27 @@
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="57" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E25" s="16">
         <v>24</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G25" s="16">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -10238,27 +8396,27 @@
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E26" s="16">
         <v>25</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G26" s="16">
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -10275,27 +8433,27 @@
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E27" s="16">
         <v>26</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G27" s="34">
         <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
@@ -10326,18 +8484,18 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="21.375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="177" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="180" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="174" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="176" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10354,42 +8512,42 @@
       <c r="D1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="185" t="s">
+      <c r="E1" s="165" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="185" t="s">
-        <v>254</v>
+      <c r="G1" s="181" t="s">
+        <v>244</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="I1" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A2" s="167">
+      <c r="A2" s="166">
         <v>1</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>323</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" s="186">
+        <v>314</v>
+      </c>
+      <c r="F2" s="182">
         <v>1573185037185</v>
       </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="168">
+      <c r="G2" s="182"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="167">
         <v>1</v>
       </c>
     </row>
@@ -10405,459 +8563,146 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB19B2E-4BA9-4FB8-B16A-4FC393E84399}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>766777123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="74" t="s">
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="L1" s="73" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="N1" s="73" t="s">
+      <c r="H1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A2" s="81">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81">
-        <v>20</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="178">
-        <v>1573185106686</v>
-      </c>
-      <c r="M2" s="178">
-        <v>1573185131886</v>
-      </c>
-      <c r="N2" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A3" s="81">
+    <row r="2" spans="1:11" ht="31.5">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="81">
-        <v>1</v>
-      </c>
-      <c r="C3" s="81">
-        <v>20</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="178">
-        <v>1573185122446</v>
-      </c>
-      <c r="M3" s="178">
-        <v>1573185122446</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>331</v>
-      </c>
-      <c r="O3" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A4" s="81">
-        <v>3</v>
-      </c>
-      <c r="B4" s="81">
-        <v>1</v>
-      </c>
-      <c r="C4" s="81">
-        <v>20</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="178">
-        <v>1573185164747</v>
-      </c>
-      <c r="M4" s="178">
-        <v>1573185164747</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>334</v>
-      </c>
-      <c r="O4" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A5" s="81">
-        <v>4</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81">
-        <v>21</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="178">
-        <v>1573185186458</v>
-      </c>
-      <c r="M5" s="178">
-        <v>1573185186458</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="O5" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A6" s="81">
-        <v>5</v>
-      </c>
-      <c r="B6" s="81">
-        <v>4</v>
-      </c>
-      <c r="C6" s="81">
-        <v>21</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="J6" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="178">
-        <v>1573185204388</v>
-      </c>
-      <c r="M6" s="178">
-        <v>1573185204388</v>
-      </c>
-      <c r="N6" s="81" t="s">
-        <v>339</v>
-      </c>
-      <c r="O6" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A7" s="81">
-        <v>6</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81">
-        <v>22</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="J7" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="178">
-        <v>1573185232164</v>
-      </c>
-      <c r="M7" s="178">
-        <v>1573185232164</v>
-      </c>
-      <c r="N7" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="O7" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="14" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>395</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="81">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81">
-        <v>20</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81">
-        <v>1</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>392</v>
-      </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="178">
-        <v>1573185282751</v>
-      </c>
-      <c r="L2" s="178">
-        <v>1573185282750</v>
-      </c>
-      <c r="M2" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="81">
+      <c r="C2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="81">
-        <v>20</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="I3" s="81" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="178">
-        <v>1573185368523</v>
-      </c>
-      <c r="L3" s="178">
-        <v>1573185368523</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81">
-        <v>1</v>
-      </c>
+      <c r="C3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10871,168 +8716,1121 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB19B2E-4BA9-4FB8-B16A-4FC393E84399}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K6" sqref="K6:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="108" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="108" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="108" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="108" customWidth="1"/>
+    <col min="5" max="5" width="54.125" style="140" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="140" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="141" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="108" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="108" customWidth="1"/>
+    <col min="10" max="10" width="45.125" style="137" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="137" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.125" style="143" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L1" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" t="s">
-        <v>373</v>
-      </c>
-      <c r="O1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>379</v>
-      </c>
-      <c r="R1" t="s">
+    <row r="1" spans="1:14" ht="15.75">
+      <c r="A1" s="187" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5">
+      <c r="A2" s="183" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="188" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75">
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+    </row>
+    <row r="5" spans="1:14" s="115" customFormat="1" ht="78.75">
+      <c r="A5" s="112" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="114" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" s="114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="115" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="191">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="153">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
+        <v>60</v>
+      </c>
+      <c r="G6" s="116">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="116">
+        <f>$B$6*$D$6*G6</f>
+        <v>0.06</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+    </row>
+    <row r="7" spans="1:14" s="115" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="190"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="18">
+        <v>40</v>
+      </c>
+      <c r="G7" s="119">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="116">
+        <f>$B$6*$D$6*G7</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="120">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+    </row>
+    <row r="8" spans="1:14" s="115" customFormat="1" ht="31.5">
+      <c r="A8" s="190"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="148">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="18">
+        <v>70</v>
+      </c>
+      <c r="G8" s="116">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="116">
+        <f>$B$6*$D$8*G8</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="117">
+        <v>179</v>
+      </c>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+    </row>
+    <row r="9" spans="1:14" s="115" customFormat="1" ht="31.5">
+      <c r="A9" s="190"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="18">
+        <v>30</v>
+      </c>
+      <c r="G9" s="116">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="116">
+        <f>$B$6*$D$8*G9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="121">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5">
+      <c r="A10" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="191">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="153">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18">
+        <v>30</v>
+      </c>
+      <c r="G10" s="116">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="116">
+        <f>$B$10*$D$10*G10</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+    </row>
+    <row r="11" spans="1:14" ht="31.5">
+      <c r="A11" s="196"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="18">
+        <v>70</v>
+      </c>
+      <c r="G11" s="116">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="116">
+        <f>$B$10*$D$10*G11</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="125"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="197" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="191">
+        <v>0.45</v>
+      </c>
+      <c r="C12" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="145">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="18">
+        <v>100</v>
+      </c>
+      <c r="G12" s="116">
+        <v>1</v>
+      </c>
+      <c r="H12" s="116">
+        <f>B12*D12*G12</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="198"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="153">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="18">
+        <v>40</v>
+      </c>
+      <c r="G13" s="116">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="116">
+        <f>$B$12*$D$13*G13</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="198"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="18">
+        <v>40</v>
+      </c>
+      <c r="G14" s="116">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="116">
+        <f>$B$12*$D$13*G14</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+    </row>
+    <row r="15" spans="1:14" ht="31.5">
+      <c r="A15" s="198"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18">
+        <v>10</v>
+      </c>
+      <c r="G15" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="116">
+        <f>$B$12*$D$13*G15</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+    </row>
+    <row r="16" spans="1:14" ht="31.5">
+      <c r="A16" s="198"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="18">
+        <v>10</v>
+      </c>
+      <c r="G16" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="116">
+        <f t="shared" ref="H16" si="0">$B$12*$D$13*G16</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+    </row>
+    <row r="17" spans="1:13" ht="31.5">
+      <c r="A17" s="198"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="153">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="18">
+        <v>25</v>
+      </c>
+      <c r="G17" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="116">
+        <f>$B$12*$D$17*G17</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
+      <c r="A18" s="198"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="18">
+        <v>25</v>
+      </c>
+      <c r="G18" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="116">
+        <f>$B$12*$D$17*G18</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+    </row>
+    <row r="19" spans="1:13" ht="74.25" customHeight="1">
+      <c r="A19" s="198"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="18">
+        <v>50</v>
+      </c>
+      <c r="G19" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="116">
+        <f>$B$12*$D$17*G19</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="126"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+    </row>
+    <row r="20" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A20" s="198"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="153">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="18">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
-        <v>254</v>
-      </c>
-      <c r="T1" t="s">
-        <v>253</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>381</v>
-      </c>
-      <c r="W1" t="s">
-        <v>383</v>
-      </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2">
-        <v>766777123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2">
-        <v>766777123</v>
-      </c>
-      <c r="J2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2">
-        <v>99</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>393</v>
-      </c>
-      <c r="P2" s="177">
-        <v>1590118196428</v>
-      </c>
-      <c r="S2" s="177">
-        <v>1591254395805</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="V2" s="177">
-        <v>1573789598191</v>
-      </c>
-      <c r="X2" s="14">
-        <v>1</v>
-      </c>
+      <c r="G20" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="116">
+        <f>$B$12*$D$20*G20</f>
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+    </row>
+    <row r="21" spans="1:13" ht="31.5">
+      <c r="A21" s="198"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="18">
+        <v>30</v>
+      </c>
+      <c r="G21" s="116">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="116">
+        <f>$B$12*$D$20*G21</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+    </row>
+    <row r="22" spans="1:13" ht="31.5">
+      <c r="A22" s="198"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="18">
+        <v>25</v>
+      </c>
+      <c r="G22" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="116">
+        <f>$B$12*$D$20*G22</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="126"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+    </row>
+    <row r="23" spans="1:13" ht="31.5">
+      <c r="A23" s="198"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="18">
+        <v>15</v>
+      </c>
+      <c r="G23" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="H23" s="116">
+        <f>$B$12*$D$20*G23</f>
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="126"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+    </row>
+    <row r="24" spans="1:13" ht="31.5">
+      <c r="A24" s="198"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="18">
+        <v>15</v>
+      </c>
+      <c r="G24" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="116">
+        <f>$B$12*$D$20*G24</f>
+        <v>1.3500000000000002E-2</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="126"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+    </row>
+    <row r="25" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A25" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="195">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="153">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="18">
+        <v>20</v>
+      </c>
+      <c r="G25" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="116">
+        <f>$B$25*$D$25*G25</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="129"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+    </row>
+    <row r="26" spans="1:13" ht="31.5">
+      <c r="A26" s="194"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="18">
+        <v>20</v>
+      </c>
+      <c r="G26" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="116">
+        <f t="shared" ref="H26:H29" si="1">$B$25*$D$25*G26</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="131"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+    </row>
+    <row r="27" spans="1:13" ht="47.25">
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="18">
+        <v>20</v>
+      </c>
+      <c r="G27" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="116">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="131"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+    </row>
+    <row r="28" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A28" s="194"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="18">
+        <v>20</v>
+      </c>
+      <c r="G28" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="116">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="131"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+    </row>
+    <row r="29" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="18">
+        <v>20</v>
+      </c>
+      <c r="G29" s="116">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="116">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="129"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+    </row>
+    <row r="30" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A30" s="194"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="145">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="18">
+        <v>100</v>
+      </c>
+      <c r="G30" s="116">
+        <v>1</v>
+      </c>
+      <c r="H30" s="116">
+        <f>B25*D30*G30</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="131"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A31" s="194"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="153">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="18">
+        <v>30</v>
+      </c>
+      <c r="G31" s="116">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="116">
+        <f>$B$25*$D$31*G31</f>
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="131"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A32" s="194"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="18">
+        <v>70</v>
+      </c>
+      <c r="G32" s="116">
+        <v>0.7</v>
+      </c>
+      <c r="H32" s="116">
+        <f>$B$25*$D$31*G32</f>
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="131"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
+      <c r="A33" s="133"/>
+      <c r="B33" s="134">
+        <f>SUM(B6:B28)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="134">
+        <f>SUM(H6:H32)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="I33" s="133"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="133"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="133"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="133"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="133"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="133"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="133"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="133"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+    </row>
+    <row r="58" spans="12:12">
+      <c r="L58" s="142"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="B12:B24"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6 B33:B64 B25 G12:H64 D17:D64 G6:H10 D10:D13 B10:B12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:H11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11245,14 +10043,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10837DA-CF87-48E6-955F-4FAF14545FC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F3B173-26E4-4636-A5EB-1C560CB0A9A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -11265,6 +10055,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10837DA-CF87-48E6-955F-4FAF14545FC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/db/excel/qlns-database-v1.xlsx
+++ b/db/excel/qlns-database-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\ionic4.qlns\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8EFE7-DB21-4EB6-BA79-0A228BB12C0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0317756-5C35-4699-BEEA-DE56A2771371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="495" windowWidth="18330" windowHeight="12405" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="332">
   <si>
     <t>id</t>
   </si>
@@ -1243,6 +1245,30 @@
   <si>
     <t>Đây là một tổ chức Công ty dùng mô phỏng.</t>
   </si>
+  <si>
+    <t>Trạng thái của người dùng</t>
+  </si>
+  <si>
+    <t>default 1</t>
+  </si>
+  <si>
+    <t>0766777123</t>
+  </si>
+  <si>
+    <t>nvdinh0766777123@gmail.com</t>
+  </si>
+  <si>
+    <t>Trung Tâm Mạng Lưới Mobifone Miền Trung</t>
+  </si>
+  <si>
+    <t>MLMT</t>
+  </si>
+  <si>
+    <t>Công Ty Dịch vụ Mobifone Khu vực 3</t>
+  </si>
+  <si>
+    <t>CTY3</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,9 +1278,16 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1389,32 +1422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Monaco"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF4D8CF4"/>
       <name val="Monaco"/>
@@ -1498,8 +1505,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,12 +1556,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1557,12 +1563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,12 +1586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1610,12 +1604,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1623,18 +1611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,1053 +1848,1053 @@
   </borders>
   <cellStyleXfs count="1030">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2903,514 +2903,551 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="17" borderId="1" xfId="738" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="21" borderId="1" xfId="738" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="738" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="18" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4810,13 +4847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4825,7 +4862,7 @@
     <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="39" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="10"/>
   </cols>
@@ -4840,621 +4877,641 @@
       <c r="C1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:6" s="183" customFormat="1" ht="47.25">
+      <c r="A2" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="182">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="16">
+      <c r="E3" s="144"/>
+      <c r="F3" s="141">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="16">
+      <c r="E4" s="144"/>
+      <c r="F4" s="141">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="16">
+      <c r="E5" s="144"/>
+      <c r="F5" s="141">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="145" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="16">
+      <c r="E6" s="144"/>
+      <c r="F6" s="141">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="16">
+      <c r="E7" s="146"/>
+      <c r="F7" s="141">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="16">
+      <c r="E8" s="146"/>
+      <c r="F8" s="141">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="179"/>
-      <c r="F9" s="16">
+      <c r="E9" s="144"/>
+      <c r="F9" s="141">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="144" t="s">
         <v>322</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="141">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:6" s="183" customFormat="1" ht="63">
+      <c r="A11" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="187">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="16">
+      <c r="E12" s="153"/>
+      <c r="F12" s="150">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="151" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="16">
+      <c r="E13" s="153"/>
+      <c r="F13" s="150">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="16">
+      <c r="E14" s="153"/>
+      <c r="F14" s="150">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="151" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="16">
+      <c r="E15" s="153"/>
+      <c r="F15" s="150">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="16">
+      <c r="E16" s="153"/>
+      <c r="F16" s="150">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="16">
+      <c r="E17" s="153"/>
+      <c r="F17" s="150">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="149" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="16">
+      <c r="E18" s="153"/>
+      <c r="F18" s="150">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="16">
+      <c r="E19" s="153"/>
+      <c r="F19" s="150">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="150">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
-      <c r="A21" s="75" t="s">
+    <row r="21" spans="1:6" s="183" customFormat="1" ht="47.25">
+      <c r="A21" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="168" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="189" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="191">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="161" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="16">
+      <c r="E22" s="163"/>
+      <c r="F22" s="160">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="161" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="16">
+      <c r="E23" s="163"/>
+      <c r="F23" s="160">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="161" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="16">
+      <c r="E24" s="163"/>
+      <c r="F24" s="160">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="16">
+      <c r="E25" s="163"/>
+      <c r="F25" s="160">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="16">
+      <c r="E26" s="163"/>
+      <c r="F26" s="160">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.5">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="16">
+      <c r="E27" s="163"/>
+      <c r="F27" s="160">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="16">
+      <c r="E28" s="163"/>
+      <c r="F28" s="160">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="16">
+      <c r="E29" s="163"/>
+      <c r="F29" s="160">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="158" t="s">
         <v>321</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="161" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="16">
+      <c r="E30" s="163"/>
+      <c r="F30" s="160">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="63">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="163" t="s">
         <v>315</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="160">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="63">
-      <c r="A32" s="78" t="s">
+    <row r="32" spans="1:6" s="179" customFormat="1" ht="63">
+      <c r="A32" s="175" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="176" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="168" t="s">
+      <c r="D32" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="178">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="31.5">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="169" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="169" t="s">
+      <c r="C33" s="172" t="s">
         <v>318</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="171"/>
-      <c r="F33" s="16">
+      <c r="E33" s="174"/>
+      <c r="F33" s="171">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="18.75">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="169" t="s">
         <v>316</v>
       </c>
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="170" t="s">
         <v>319</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="173"/>
-      <c r="F34" s="16">
+      <c r="E34" s="174"/>
+      <c r="F34" s="171">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="139" customFormat="1" ht="18.75">
+      <c r="A35" s="169" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="172" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" s="173" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="174" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" s="171">
         <v>34</v>
       </c>
     </row>
@@ -5487,129 +5544,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="204" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="205" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="206" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="48" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1">
-      <c r="A6" s="81">
-        <v>1</v>
-      </c>
-      <c r="B6" s="82" t="s">
+      <c r="A6" s="54">
+        <v>1</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="56">
         <v>0.2</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1">
-      <c r="A7" s="84">
+      <c r="A7" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="59">
         <v>0.1</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>0.06</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="4">
@@ -5631,19 +5688,19 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>0.04</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="4">
@@ -5665,37 +5722,37 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="102">
+      <c r="A10" s="75">
         <v>1.2</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="59">
         <v>0.1</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F11" s="4">
@@ -5717,19 +5774,19 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="47">
         <v>0.03</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="4">
@@ -5751,55 +5808,55 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="81">
+      <c r="A13" s="54">
         <v>2</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="56">
         <v>0.25</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="84">
+      <c r="A14" s="57">
         <v>2.1</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="59">
         <v>0.25</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="16">
@@ -5821,19 +5878,19 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="47">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F16" s="16">
@@ -5855,55 +5912,55 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="81">
+      <c r="A17" s="54">
         <v>3</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="56">
         <v>0.45</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="31.5">
-      <c r="A18" s="84">
+      <c r="A18" s="57">
         <v>3.1</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="59">
         <v>0.3</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="47">
         <v>0.15</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F19" s="16">
@@ -5925,19 +5982,19 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="47">
         <v>0.15</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F20" s="16">
@@ -5959,37 +6016,37 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="31.5">
-      <c r="A21" s="84">
+      <c r="A21" s="57">
         <v>3.2</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="59">
         <v>0.15</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="47">
         <v>0.05</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F22" s="16">
@@ -6011,19 +6068,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="47">
         <v>0.1</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F23" s="16">
@@ -6045,55 +6102,55 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1">
-      <c r="A24" s="81">
+      <c r="A24" s="54">
         <v>4</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="56">
         <v>0.1</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1">
-      <c r="A25" s="84">
+      <c r="A25" s="57">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="59">
         <v>0.1</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="47">
         <v>0.1</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="46" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="16">
@@ -6119,7 +6176,7 @@
       <c r="B27" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="107">
+      <c r="C27" s="80">
         <v>1</v>
       </c>
       <c r="D27" s="13"/>
@@ -6127,8 +6184,8 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100">
+      <c r="I27" s="72"/>
+      <c r="J27" s="73">
         <f>SUM(J7:J26)</f>
         <v>1</v>
       </c>
@@ -6176,245 +6233,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="207" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="207" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
     </row>
     <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="48" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="81">
-        <v>1</v>
-      </c>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="54">
+        <v>1</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="56">
         <v>0.2</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" hidden="1">
-      <c r="A8" s="84">
+      <c r="A8" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="59">
         <v>0.1</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="87">
+      <c r="A9" s="60">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="62">
         <v>0.05</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="62">
         <v>0.9</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="62">
         <v>0</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="62">
         <v>0.9</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="62">
         <f>1-(F9-H9)/F9</f>
         <v>1</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="62">
         <f>C9*I9</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="87">
+      <c r="A10" s="60">
         <v>1.2</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="62">
         <v>0.04</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="62">
         <v>0.8</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="62">
         <v>0</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="62">
         <v>0.8</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="62">
         <f>1-(F10-H10)/F10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="62">
         <f>C10*I10</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="87">
+      <c r="A11" s="60">
         <v>1.3</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="62">
         <v>0.04</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="62">
         <v>0.8</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="62">
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="62">
         <v>0.8</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="62">
         <f>1-(F11-H11)/F11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="62">
         <f>C11*I11</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5">
-      <c r="A12" s="79">
+      <c r="A12" s="53">
         <v>1.4</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="64" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="2">
@@ -6436,19 +6493,19 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="79">
+      <c r="A13" s="53">
         <v>1.5</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="64" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="2">
         <v>0.03</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F13" s="2">
@@ -6470,37 +6527,37 @@
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1">
-      <c r="A14" s="93">
+      <c r="A14" s="66">
         <v>1.2</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="68">
         <v>0.25</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="79">
+      <c r="A15" s="53">
         <v>1.6</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="64" t="s">
         <v>164</v>
       </c>
       <c r="C15" s="2">
         <v>0.09</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="33">
@@ -6522,19 +6579,19 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="79">
+      <c r="A16" s="53">
         <v>1.7</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="64" t="s">
         <v>165</v>
       </c>
       <c r="C16" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F16" s="33">
@@ -6556,46 +6613,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.5">
-      <c r="A17" s="81">
+      <c r="A17" s="54">
         <v>2</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="56">
         <v>0.45</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="77">
+      <c r="A18" s="51">
         <v>2.1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="3">
         <v>0.15</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>2</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>0</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>2</v>
       </c>
       <c r="I18" s="3">
@@ -6608,28 +6665,28 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="77">
+      <c r="A19" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="3">
         <v>0.1</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>2</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>0</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>2</v>
       </c>
       <c r="I19" s="3">
@@ -6642,28 +6699,28 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="77">
+      <c r="A20" s="51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="3">
         <v>0.05</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>2</v>
       </c>
       <c r="I20" s="3">
@@ -6676,28 +6733,28 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="77">
+      <c r="A21" s="51">
         <v>2.4</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="3">
         <v>0.05</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>2</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>2</v>
       </c>
       <c r="I21" s="3">
@@ -6710,28 +6767,28 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="77">
+      <c r="A22" s="51">
         <v>2.5</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>161</v>
       </c>
       <c r="C22" s="3">
         <v>0.05</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <v>2</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>0</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>2</v>
       </c>
       <c r="I22" s="3">
@@ -6744,28 +6801,28 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="77">
+      <c r="A23" s="51">
         <v>2.6</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>162</v>
       </c>
       <c r="C23" s="3">
         <v>0.1</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>2</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>0</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>2</v>
       </c>
       <c r="I23" s="3">
@@ -6779,10 +6836,10 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="16"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="73">
         <v>1</v>
       </c>
       <c r="D24" s="13"/>
@@ -6790,19 +6847,19 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100">
+      <c r="I24" s="72"/>
+      <c r="J24" s="73">
         <f>SUM(J8:J23)</f>
         <v>0.99500000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="G26" s="186" t="s">
+      <c r="G26" s="207" t="s">
         <v>293</v>
       </c>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10">
       <c r="H27" s="14" t="s">
@@ -6859,259 +6916,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="1:10" ht="25.5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="204" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="206" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="207" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="207" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="47.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="48" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="81">
-        <v>1</v>
-      </c>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="54">
+        <v>1</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="56">
         <v>0.2</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="84">
+      <c r="A9" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="59">
         <v>0.1</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="87">
+      <c r="A10" s="60">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="62">
         <v>0.05</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="62">
         <v>0.9</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="62">
         <v>0</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="62">
         <v>0.9</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="62">
         <f>1-(F10-H10)/F10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="62">
         <f>C10*I10</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="87">
+      <c r="A11" s="60">
         <v>1.2</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="62">
         <v>0.04</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="62">
         <v>0.8</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="62">
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="62">
         <v>0.8</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="62">
         <f>1-(F11-H11)/F11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="62">
         <f>C11*I11</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5">
-      <c r="A12" s="87">
+      <c r="A12" s="60">
         <v>1.3</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="62">
         <v>0.04</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="62">
         <v>0.8</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="62">
         <v>0</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="62">
         <v>0.8</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="62">
         <f>1-(F12-H12)/F12</f>
         <v>1</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="62">
         <f>C12*I12</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.5">
-      <c r="A13" s="79">
+      <c r="A13" s="53">
         <v>1.4</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="64" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F13" s="2">
@@ -7133,19 +7190,19 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="79">
+      <c r="A14" s="53">
         <v>1.5</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="64" t="s">
         <v>165</v>
       </c>
       <c r="C14" s="2">
         <v>0.03</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F14" s="2">
@@ -7167,37 +7224,37 @@
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1">
-      <c r="A15" s="93">
+      <c r="A15" s="66">
         <v>1.2</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="68">
         <v>0.25</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
-      <c r="A16" s="79">
+      <c r="A16" s="53">
         <v>1.6</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="64" t="s">
         <v>164</v>
       </c>
       <c r="C16" s="2">
         <v>0.09</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F16" s="33">
@@ -7219,19 +7276,19 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="79">
+      <c r="A17" s="53">
         <v>1.7</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="64" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="65" t="s">
         <v>114</v>
       </c>
       <c r="F17" s="33">
@@ -7253,46 +7310,46 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="81">
+      <c r="A18" s="54">
         <v>2</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="56">
         <v>0.45</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="77">
+      <c r="A19" s="51">
         <v>2.1</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>291</v>
       </c>
       <c r="C19" s="3">
         <v>0.15</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>2</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>0</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>2</v>
       </c>
       <c r="I19" s="3">
@@ -7305,28 +7362,28 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="77">
+      <c r="A20" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>292</v>
       </c>
       <c r="C20" s="3">
         <v>0.1</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>2</v>
       </c>
       <c r="I20" s="3">
@@ -7340,10 +7397,10 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="16"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="73">
         <v>1</v>
       </c>
       <c r="D21" s="13"/>
@@ -7351,19 +7408,19 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100">
+      <c r="I21" s="72"/>
+      <c r="J21" s="73">
         <f>SUM(J9:J20)</f>
         <v>0.745</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="E23" s="186" t="s">
+      <c r="E23" s="207" t="s">
         <v>293</v>
       </c>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="1:10">
       <c r="F24" s="14" t="s">
@@ -7479,20 +7536,20 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="94.5">
-      <c r="A2" s="57">
-        <v>1</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="57">
-        <v>1</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="40">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="16">
@@ -7516,20 +7573,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="94.5">
-      <c r="A3" s="57">
+      <c r="A3" s="40">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="40">
         <v>2</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="16">
@@ -7539,8 +7596,8 @@
         <v>132</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45" t="s">
         <v>223</v>
       </c>
       <c r="L3" s="16"/>
@@ -7553,20 +7610,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5">
-      <c r="A4" s="57">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="16">
@@ -7575,7 +7632,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="45" t="s">
         <v>224</v>
       </c>
       <c r="L4" s="16"/>
@@ -7597,7 +7654,7 @@
       <c r="C5" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="37" t="s">
         <v>175</v>
       </c>
       <c r="E5" s="16">
@@ -7638,7 +7695,7 @@
       <c r="C6" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="37" t="s">
         <v>173</v>
       </c>
       <c r="E6" s="16">
@@ -7655,7 +7712,7 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="45" t="s">
         <v>228</v>
       </c>
       <c r="L6" s="16"/>
@@ -7677,7 +7734,7 @@
       <c r="C7" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="37" t="s">
         <v>174</v>
       </c>
       <c r="E7" s="16">
@@ -7694,7 +7751,7 @@
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="45" t="s">
         <v>226</v>
       </c>
       <c r="L7" s="16"/>
@@ -7716,7 +7773,7 @@
       <c r="C8" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="37" t="s">
         <v>176</v>
       </c>
       <c r="E8" s="16">
@@ -7746,20 +7803,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1" ht="110.25">
-      <c r="A9" s="57">
+      <c r="A9" s="40">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="40">
         <v>8</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="16">
@@ -7783,20 +7840,20 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1" ht="16.5">
-      <c r="A10" s="57">
+      <c r="A10" s="40">
         <v>9</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="40">
         <v>9</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="16">
@@ -7805,7 +7862,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="45" t="s">
         <v>233</v>
       </c>
       <c r="L10" s="16"/>
@@ -7827,7 +7884,7 @@
       <c r="C11" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="37" t="s">
         <v>177</v>
       </c>
       <c r="E11" s="16">
@@ -7844,7 +7901,7 @@
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="45" t="s">
         <v>231</v>
       </c>
       <c r="L11" s="16"/>
@@ -7866,7 +7923,7 @@
       <c r="C12" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="37" t="s">
         <v>178</v>
       </c>
       <c r="E12" s="16">
@@ -7883,7 +7940,7 @@
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="45" t="s">
         <v>234</v>
       </c>
       <c r="L12" s="16"/>
@@ -7905,7 +7962,7 @@
       <c r="C13" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="37" t="s">
         <v>179</v>
       </c>
       <c r="E13" s="16">
@@ -7922,7 +7979,7 @@
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="45" t="s">
         <v>237</v>
       </c>
       <c r="L13" s="16"/>
@@ -7935,20 +7992,20 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="14" customFormat="1" ht="16.5">
-      <c r="A14" s="57">
+      <c r="A14" s="40">
         <v>13</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="40">
         <v>13</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="16">
@@ -7957,7 +8014,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="45" t="s">
         <v>230</v>
       </c>
       <c r="L14" s="16"/>
@@ -7979,7 +8036,7 @@
       <c r="C15" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="37" t="s">
         <v>180</v>
       </c>
       <c r="E15" s="16">
@@ -7996,7 +8053,7 @@
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="45" t="s">
         <v>232</v>
       </c>
       <c r="L15" s="16"/>
@@ -8018,7 +8075,7 @@
       <c r="C16" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="37" t="s">
         <v>181</v>
       </c>
       <c r="E16" s="16">
@@ -8035,7 +8092,7 @@
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="45" t="s">
         <v>235</v>
       </c>
       <c r="L16" s="16"/>
@@ -8057,7 +8114,7 @@
       <c r="C17" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="37" t="s">
         <v>182</v>
       </c>
       <c r="E17" s="16">
@@ -8074,7 +8131,7 @@
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="45" t="s">
         <v>236</v>
       </c>
       <c r="L17" s="16"/>
@@ -8087,20 +8144,20 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="14" customFormat="1" ht="47.25">
-      <c r="A18" s="57">
+      <c r="A18" s="40">
         <v>17</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="40">
         <v>17</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G18" s="16">
@@ -8124,20 +8181,20 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5">
-      <c r="A19" s="57">
+      <c r="A19" s="40">
         <v>18</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="40">
         <v>18</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G19" s="16">
@@ -8146,7 +8203,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="45" t="s">
         <v>238</v>
       </c>
       <c r="L19" s="16"/>
@@ -8224,7 +8281,7 @@
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="45" t="s">
         <v>241</v>
       </c>
       <c r="L21" s="5"/>
@@ -8304,7 +8361,7 @@
       <c r="J23" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="45" t="s">
         <v>242</v>
       </c>
       <c r="L23" s="16"/>
@@ -8317,20 +8374,20 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="57">
+      <c r="A24" s="40">
         <v>23</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="41" t="s">
         <v>134</v>
       </c>
       <c r="E24" s="16">
         <v>23</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="42" t="s">
         <v>135</v>
       </c>
       <c r="G24" s="16">
@@ -8354,20 +8411,20 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="14" customFormat="1" ht="31.5">
-      <c r="A25" s="57">
+      <c r="A25" s="40">
         <v>24</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="41" t="s">
         <v>210</v>
       </c>
       <c r="E25" s="16">
         <v>24</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="42" t="s">
         <v>135</v>
       </c>
       <c r="G25" s="16">
@@ -8391,20 +8448,20 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="57">
+      <c r="A26" s="40">
         <v>25</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="41" t="s">
         <v>130</v>
       </c>
       <c r="E26" s="16">
         <v>25</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="16">
@@ -8428,20 +8485,20 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="57">
+      <c r="A27" s="40">
         <v>26</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="41" t="s">
         <v>131</v>
       </c>
       <c r="E27" s="16">
         <v>26</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="42" t="s">
         <v>99</v>
       </c>
       <c r="G27" s="34">
@@ -8478,13 +8535,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8494,60 +8551,106 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="21.375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="174" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="176" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="138" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="139" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="197" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="198" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="197" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A2" s="166">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="199">
+        <v>1</v>
+      </c>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="200" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="200" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="182">
+      <c r="F2" s="201">
         <v>1573185037185</v>
       </c>
-      <c r="G2" s="182"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="167">
+      <c r="G2" s="201"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="47.25">
+      <c r="A3" s="199">
+        <v>2</v>
+      </c>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="200" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="200" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="201">
+        <v>1598514291893</v>
+      </c>
+      <c r="G3" s="201"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25">
+      <c r="A4" s="199">
+        <v>3</v>
+      </c>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="200" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="200" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="201">
+        <v>1598514291893</v>
+      </c>
+      <c r="G4" s="201"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="203">
         <v>1</v>
       </c>
     </row>
@@ -8564,38 +8667,58 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB19B2E-4BA9-4FB8-B16A-4FC393E84399}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="192" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>766777123</v>
+      <c r="D1" s="192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="193">
+        <v>1</v>
+      </c>
+      <c r="B2" s="193">
+        <v>1</v>
+      </c>
+      <c r="C2" s="194" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="193">
+        <v>2</v>
+      </c>
+      <c r="B3" s="193">
+        <v>2</v>
+      </c>
+      <c r="C3" s="193" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="193">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8728,141 +8851,141 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="108" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="108" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="108" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="108" customWidth="1"/>
-    <col min="5" max="5" width="54.125" style="140" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="140" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="141" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="108" customWidth="1"/>
-    <col min="10" max="10" width="45.125" style="137" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="137" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.125" style="143" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="108"/>
+    <col min="1" max="1" width="5.5" style="81" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="81" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="54.125" style="113" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="113" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="114" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="45.125" style="110" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.125" style="116" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="208" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
     </row>
     <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="188" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="209" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-    </row>
-    <row r="5" spans="1:14" s="115" customFormat="1" ht="78.75">
-      <c r="A5" s="112" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+    </row>
+    <row r="5" spans="1:14" s="88" customFormat="1" ht="78.75">
+      <c r="A5" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="87" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="115" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="189" t="s">
+    <row r="6" spans="1:14" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="191">
+      <c r="B6" s="212">
         <v>0.2</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="153">
+      <c r="D6" s="126">
         <v>0.5</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -8871,10 +8994,10 @@
       <c r="F6" s="18">
         <v>60</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="89">
         <v>0.6</v>
       </c>
-      <c r="H6" s="116">
+      <c r="H6" s="89">
         <f>$B$6*$D$6*G6</f>
         <v>0.06</v>
       </c>
@@ -8884,27 +9007,27 @@
       <c r="J6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="117">
+      <c r="K6" s="90">
         <v>0.5</v>
       </c>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-    </row>
-    <row r="7" spans="1:14" s="115" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="155"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+    </row>
+    <row r="7" spans="1:14" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="211"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="18">
         <v>40</v>
       </c>
-      <c r="G7" s="119">
+      <c r="G7" s="92">
         <v>0.4</v>
       </c>
-      <c r="H7" s="116">
+      <c r="H7" s="89">
         <f>$B$6*$D$6*G7</f>
         <v>4.0000000000000008E-2</v>
       </c>
@@ -8914,19 +9037,19 @@
       <c r="J7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="120">
+      <c r="K7" s="93">
         <v>0.9</v>
       </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-    </row>
-    <row r="8" spans="1:14" s="115" customFormat="1" ht="31.5">
-      <c r="A8" s="190"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="163" t="s">
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+    </row>
+    <row r="8" spans="1:14" s="88" customFormat="1" ht="31.5">
+      <c r="A8" s="211"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="148">
+      <c r="D8" s="121">
         <v>0.5</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -8935,10 +9058,10 @@
       <c r="F8" s="18">
         <v>70</v>
       </c>
-      <c r="G8" s="116">
+      <c r="G8" s="89">
         <v>0.7</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="89">
         <f>$B$6*$D$8*G8</f>
         <v>6.9999999999999993E-2</v>
       </c>
@@ -8948,27 +9071,27 @@
       <c r="J8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="117">
+      <c r="K8" s="90">
         <v>179</v>
       </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-    </row>
-    <row r="9" spans="1:14" s="115" customFormat="1" ht="31.5">
-      <c r="A9" s="190"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="149"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:14" s="88" customFormat="1" ht="31.5">
+      <c r="A9" s="211"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="18">
         <v>30</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="89">
         <v>0.3</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="89">
         <f>$B$6*$D$8*G9</f>
         <v>0.03</v>
       </c>
@@ -8978,23 +9101,23 @@
       <c r="J9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="94">
         <v>0.56699999999999995</v>
       </c>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
     </row>
     <row r="10" spans="1:14" ht="31.5">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="191">
+      <c r="B10" s="212">
         <v>0.25</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="153">
+      <c r="D10" s="126">
         <v>1</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -9003,10 +9126,10 @@
       <c r="F10" s="18">
         <v>30</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G10" s="89">
         <v>0.3</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10" s="89">
         <f>$B$10*$D$10*G10</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9016,25 +9139,25 @@
       <c r="J10" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="1:14" ht="31.5">
-      <c r="A11" s="196"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="155"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="18">
         <v>70</v>
       </c>
-      <c r="G11" s="116">
+      <c r="G11" s="89">
         <v>0.7</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11" s="89">
         <f>$B$10*$D$10*G11</f>
         <v>0.17499999999999999</v>
       </c>
@@ -9044,21 +9167,21 @@
       <c r="J11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="218" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="191">
+      <c r="B12" s="212">
         <v>0.45</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="118">
         <v>0.1</v>
       </c>
       <c r="E12" s="21" t="s">
@@ -9067,10 +9190,10 @@
       <c r="F12" s="18">
         <v>100</v>
       </c>
-      <c r="G12" s="116">
-        <v>1</v>
-      </c>
-      <c r="H12" s="116">
+      <c r="G12" s="89">
+        <v>1</v>
+      </c>
+      <c r="H12" s="89">
         <f>B12*D12*G12</f>
         <v>4.5000000000000005E-2</v>
       </c>
@@ -9080,17 +9203,17 @@
       <c r="J12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="198"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="158" t="s">
+      <c r="A13" s="219"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="153">
+      <c r="D13" s="126">
         <v>0.5</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -9099,10 +9222,10 @@
       <c r="F13" s="18">
         <v>40</v>
       </c>
-      <c r="G13" s="116">
+      <c r="G13" s="89">
         <v>0.4</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13" s="89">
         <f>$B$12*$D$13*G13</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -9112,25 +9235,25 @@
       <c r="J13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="198"/>
-      <c r="B14" s="192"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="154"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="18">
         <v>40</v>
       </c>
-      <c r="G14" s="116">
+      <c r="G14" s="89">
         <v>0.4</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14" s="89">
         <f>$B$12*$D$13*G14</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -9140,25 +9263,25 @@
       <c r="J14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="1:14" ht="31.5">
-      <c r="A15" s="198"/>
-      <c r="B15" s="192"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="154"/>
+      <c r="A15" s="219"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="18">
         <v>10</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="89">
         <v>0.1</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="89">
         <f>$B$12*$D$13*G15</f>
         <v>2.2500000000000003E-2</v>
       </c>
@@ -9168,25 +9291,25 @@
       <c r="J15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:14" ht="31.5">
-      <c r="A16" s="198"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="155"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="18">
         <v>10</v>
       </c>
-      <c r="G16" s="116">
+      <c r="G16" s="89">
         <v>0.1</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16" s="89">
         <f t="shared" ref="H16" si="0">$B$12*$D$13*G16</f>
         <v>2.2500000000000003E-2</v>
       </c>
@@ -9196,17 +9319,17 @@
       <c r="J16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13" ht="31.5">
-      <c r="A17" s="198"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="158" t="s">
+      <c r="A17" s="219"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="153">
+      <c r="D17" s="126">
         <v>0.2</v>
       </c>
       <c r="E17" s="21" t="s">
@@ -9215,10 +9338,10 @@
       <c r="F17" s="18">
         <v>25</v>
       </c>
-      <c r="G17" s="116">
+      <c r="G17" s="89">
         <v>0.25</v>
       </c>
-      <c r="H17" s="116">
+      <c r="H17" s="89">
         <f>$B$12*$D$17*G17</f>
         <v>2.2500000000000003E-2</v>
       </c>
@@ -9228,25 +9351,25 @@
       <c r="J17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="198"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="154"/>
+      <c r="A18" s="219"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="18">
         <v>25</v>
       </c>
-      <c r="G18" s="116">
+      <c r="G18" s="89">
         <v>0.25</v>
       </c>
-      <c r="H18" s="116">
+      <c r="H18" s="89">
         <f>$B$12*$D$17*G18</f>
         <v>2.2500000000000003E-2</v>
       </c>
@@ -9256,25 +9379,25 @@
       <c r="J18" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
     </row>
     <row r="19" spans="1:13" ht="74.25" customHeight="1">
-      <c r="A19" s="198"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="155"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="18">
         <v>50</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="89">
         <v>0.5</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="89">
         <f>$B$12*$D$17*G19</f>
         <v>4.5000000000000005E-2</v>
       </c>
@@ -9284,17 +9407,17 @@
       <c r="J19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A20" s="198"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="158" t="s">
+      <c r="A20" s="219"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="126">
         <v>0.2</v>
       </c>
       <c r="E20" s="21" t="s">
@@ -9303,10 +9426,10 @@
       <c r="F20" s="18">
         <v>15</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="89">
         <v>0.15</v>
       </c>
-      <c r="H20" s="116">
+      <c r="H20" s="89">
         <f>$B$12*$D$20*G20</f>
         <v>1.3500000000000002E-2</v>
       </c>
@@ -9316,25 +9439,25 @@
       <c r="J20" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="126"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
     </row>
     <row r="21" spans="1:13" ht="31.5">
-      <c r="A21" s="198"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="154"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="18">
         <v>30</v>
       </c>
-      <c r="G21" s="116">
+      <c r="G21" s="89">
         <v>0.3</v>
       </c>
-      <c r="H21" s="116">
+      <c r="H21" s="89">
         <f>$B$12*$D$20*G21</f>
         <v>2.7000000000000003E-2</v>
       </c>
@@ -9344,25 +9467,25 @@
       <c r="J21" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13" ht="31.5">
-      <c r="A22" s="198"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="154"/>
+      <c r="A22" s="219"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="18">
         <v>25</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="89">
         <v>0.25</v>
       </c>
-      <c r="H22" s="116">
+      <c r="H22" s="89">
         <f>$B$12*$D$20*G22</f>
         <v>2.2500000000000003E-2</v>
       </c>
@@ -9372,25 +9495,25 @@
       <c r="J22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="126"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:13" ht="31.5">
-      <c r="A23" s="198"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="154"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="18">
         <v>15</v>
       </c>
-      <c r="G23" s="116">
+      <c r="G23" s="89">
         <v>0.15</v>
       </c>
-      <c r="H23" s="116">
+      <c r="H23" s="89">
         <f>$B$12*$D$20*G23</f>
         <v>1.3500000000000002E-2</v>
       </c>
@@ -9400,25 +9523,25 @@
       <c r="J23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="126"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="1:13" ht="31.5">
-      <c r="A24" s="198"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="155"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="18">
         <v>15</v>
       </c>
-      <c r="G24" s="116">
+      <c r="G24" s="89">
         <v>0.15</v>
       </c>
-      <c r="H24" s="116">
+      <c r="H24" s="89">
         <f>$B$12*$D$20*G24</f>
         <v>1.3500000000000002E-2</v>
       </c>
@@ -9428,21 +9551,21 @@
       <c r="J24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="126"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="195">
+      <c r="B25" s="216">
         <v>0.1</v>
       </c>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="153">
+      <c r="D25" s="126">
         <v>0.4</v>
       </c>
       <c r="E25" s="23" t="s">
@@ -9451,10 +9574,10 @@
       <c r="F25" s="18">
         <v>20</v>
       </c>
-      <c r="G25" s="116">
+      <c r="G25" s="89">
         <v>0.2</v>
       </c>
-      <c r="H25" s="116">
+      <c r="H25" s="89">
         <f>$B$25*$D$25*G25</f>
         <v>8.0000000000000019E-3</v>
       </c>
@@ -9464,25 +9587,25 @@
       <c r="J25" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
     </row>
     <row r="26" spans="1:13" ht="31.5">
-      <c r="A26" s="194"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="154"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="23" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="18">
         <v>20</v>
       </c>
-      <c r="G26" s="116">
+      <c r="G26" s="89">
         <v>0.2</v>
       </c>
-      <c r="H26" s="116">
+      <c r="H26" s="89">
         <f t="shared" ref="H26:H29" si="1">$B$25*$D$25*G26</f>
         <v>8.0000000000000019E-3</v>
       </c>
@@ -9492,25 +9615,25 @@
       <c r="J26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="131"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
     </row>
     <row r="27" spans="1:13" ht="47.25">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="154"/>
+      <c r="A27" s="215"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="18">
         <v>20</v>
       </c>
-      <c r="G27" s="116">
+      <c r="G27" s="89">
         <v>0.2</v>
       </c>
-      <c r="H27" s="116">
+      <c r="H27" s="89">
         <f t="shared" si="1"/>
         <v>8.0000000000000019E-3</v>
       </c>
@@ -9520,25 +9643,25 @@
       <c r="J27" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A28" s="194"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="154"/>
+      <c r="A28" s="215"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="18">
         <v>20</v>
       </c>
-      <c r="G28" s="116">
+      <c r="G28" s="89">
         <v>0.2</v>
       </c>
-      <c r="H28" s="116">
+      <c r="H28" s="89">
         <f t="shared" si="1"/>
         <v>8.0000000000000019E-3</v>
       </c>
@@ -9548,25 +9671,25 @@
       <c r="J28" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="131"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="155"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="24" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="18">
         <v>20</v>
       </c>
-      <c r="G29" s="116">
+      <c r="G29" s="89">
         <v>0.2</v>
       </c>
-      <c r="H29" s="116">
+      <c r="H29" s="89">
         <f t="shared" si="1"/>
         <v>8.0000000000000019E-3</v>
       </c>
@@ -9576,17 +9699,17 @@
       <c r="J29" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="129"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A30" s="194"/>
-      <c r="B30" s="195"/>
-      <c r="C30" s="144" t="s">
+      <c r="A30" s="215"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="145">
+      <c r="D30" s="118">
         <v>0.2</v>
       </c>
       <c r="E30" s="23" t="s">
@@ -9595,10 +9718,10 @@
       <c r="F30" s="18">
         <v>100</v>
       </c>
-      <c r="G30" s="116">
-        <v>1</v>
-      </c>
-      <c r="H30" s="116">
+      <c r="G30" s="89">
+        <v>1</v>
+      </c>
+      <c r="H30" s="89">
         <f>B25*D30*G30</f>
         <v>2.0000000000000004E-2</v>
       </c>
@@ -9608,17 +9731,17 @@
       <c r="J30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="131"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A31" s="194"/>
-      <c r="B31" s="195"/>
-      <c r="C31" s="150" t="s">
+      <c r="A31" s="215"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="153">
+      <c r="D31" s="126">
         <v>0.4</v>
       </c>
       <c r="E31" s="23" t="s">
@@ -9627,10 +9750,10 @@
       <c r="F31" s="18">
         <v>30</v>
       </c>
-      <c r="G31" s="116">
+      <c r="G31" s="89">
         <v>0.3</v>
       </c>
-      <c r="H31" s="116">
+      <c r="H31" s="89">
         <f>$B$25*$D$31*G31</f>
         <v>1.2000000000000002E-2</v>
       </c>
@@ -9640,25 +9763,25 @@
       <c r="J31" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="131"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
     </row>
     <row r="32" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A32" s="194"/>
-      <c r="B32" s="195"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="155"/>
+      <c r="A32" s="215"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="18">
         <v>70</v>
       </c>
-      <c r="G32" s="116">
+      <c r="G32" s="89">
         <v>0.7</v>
       </c>
-      <c r="H32" s="116">
+      <c r="H32" s="89">
         <f>$B$25*$D$31*G32</f>
         <v>2.8000000000000004E-2</v>
       </c>
@@ -9668,122 +9791,122 @@
       <c r="J32" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="131"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
     </row>
     <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134">
+      <c r="A33" s="106"/>
+      <c r="B33" s="107">
         <f>SUM(B6:B28)</f>
         <v>1</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="134">
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="107">
         <f>SUM(H6:H32)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="I33" s="133"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
+      <c r="I33" s="106"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="133"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="133"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="133"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="133"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="133"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
     </row>
     <row r="58" spans="12:12">
-      <c r="L58" s="142"/>
+      <c r="L58" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9819,12 +9942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9833,7 +9950,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100FB0175F18B01E74491971D89B23F8655" ma:contentTypeVersion="11" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="1a9dc9cdd67a308ba2b2666df5490aa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4c20e182-3cff-46d5-b163-30d344671daf" xmlns:ns4="c86ac200-3bf8-4f3f-9c75-7492a34ff116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3aad754d391d83d543dbc23cf02e780" ns3:_="" ns4:_="">
     <xsd:import namespace="4c20e182-3cff-46d5-b163-30d344671daf"/>
@@ -10042,24 +10159,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F3B173-26E4-4636-A5EB-1C560CB0A9A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c86ac200-3bf8-4f3f-9c75-7492a34ff116"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4c20e182-3cff-46d5-b163-30d344671daf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10837DA-CF87-48E6-955F-4FAF14545FC0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10067,7 +10173,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57D61BF-212A-4F3E-921D-E429A3A772FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10084,4 +10190,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1F3B173-26E4-4636-A5EB-1C560CB0A9A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c86ac200-3bf8-4f3f-9c75-7492a34ff116"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4c20e182-3cff-46d5-b163-30d344671daf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>